--- a/data/county-gen-2004-processed.xlsx
+++ b/data/county-gen-2004-processed.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Justin\Documents\enviro-website\enviro-website\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mende\OneDrive\Documents\enviro-website\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97C50B0D-E017-4197-B3AB-9DFF52506446}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{97C50B0D-E017-4197-B3AB-9DFF52506446}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" xr2:uid="{757BF7D3-4BF8-4FA9-888B-2D38B8444040}"/>
   </bookViews>
@@ -417,8 +417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74E65C28-A42F-4953-AB2F-3CBFFBCC6976}">
   <dimension ref="A1:T1650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1624" workbookViewId="0">
-      <selection activeCell="H1631" sqref="H1631"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <f>LOG(L20,10)</f>
+        <f t="shared" ref="C20:C27" si="0">LOG(L20,10)</f>
         <v>5.3342365475934379</v>
       </c>
       <c r="D20">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <f>LOG(L21,10)</f>
+        <f t="shared" si="0"/>
         <v>5.7663949990272201</v>
       </c>
       <c r="D21">
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <f>LOG(L22,10)</f>
+        <f t="shared" si="0"/>
         <v>5.3507769924558124</v>
       </c>
       <c r="D22">
@@ -1383,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <f>LOG(L23,10)</f>
+        <f t="shared" si="0"/>
         <v>5.3048759632238278</v>
       </c>
       <c r="D23">
@@ -1425,7 +1425,7 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <f>LOG(L24,10)</f>
+        <f t="shared" si="0"/>
         <v>5.5140121911494866</v>
       </c>
       <c r="D24">
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <f>LOG(L25,10)</f>
+        <f t="shared" si="0"/>
         <v>6.0088232226189708</v>
       </c>
       <c r="D25">
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <f>LOG(L26,10)</f>
+        <f t="shared" si="0"/>
         <v>6.2275368153110033</v>
       </c>
       <c r="D26">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <f>LOG(L27,10)</f>
+        <f t="shared" si="0"/>
         <v>5.1521996413815598</v>
       </c>
       <c r="D27">
@@ -1697,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="G30">
-        <f>LOG(T30,10)</f>
+        <f t="shared" ref="G30:G35" si="1">LOG(T30,10)</f>
         <v>3.7942799474459905</v>
       </c>
       <c r="J30">
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="G31">
-        <f>LOG(T31,10)</f>
+        <f t="shared" si="1"/>
         <v>1.0791812460476247</v>
       </c>
       <c r="J31">
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="G32">
-        <f>LOG(T32,10)</f>
+        <f t="shared" si="1"/>
         <v>3.0542291432352147</v>
       </c>
       <c r="J32">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="G33">
-        <f>LOG(T33,10)</f>
+        <f t="shared" si="1"/>
         <v>2.7979575690770724</v>
       </c>
       <c r="J33">
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
       <c r="G34">
-        <f>LOG(T34,10)</f>
+        <f t="shared" si="1"/>
         <v>4.1057145105709205</v>
       </c>
       <c r="J34">
@@ -1910,7 +1910,7 @@
         <v>0</v>
       </c>
       <c r="G35">
-        <f>LOG(T35,10)</f>
+        <f t="shared" si="1"/>
         <v>3.4608979930314288</v>
       </c>
       <c r="J35">
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="G39">
-        <f>LOG(T39,10)</f>
+        <f t="shared" ref="G39:G44" si="2">LOG(T39,10)</f>
         <v>3.990649588318854</v>
       </c>
       <c r="J39">
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="G40">
-        <f>LOG(T40,10)</f>
+        <f t="shared" si="2"/>
         <v>3.4258601450778401</v>
       </c>
       <c r="J40">
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="G41">
-        <f>LOG(T41,10)</f>
+        <f t="shared" si="2"/>
         <v>3.7394931516607328</v>
       </c>
       <c r="J41">
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="G42">
-        <f>LOG(T42,10)</f>
+        <f t="shared" si="2"/>
         <v>3.6193020758756078</v>
       </c>
       <c r="J42">
@@ -2250,7 +2250,7 @@
         <v>6.8584703781483816</v>
       </c>
       <c r="G43">
-        <f>LOG(T43,10)</f>
+        <f t="shared" si="2"/>
         <v>4.0162755734477518</v>
       </c>
       <c r="J43">
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="G44">
-        <f>LOG(T44,10)</f>
+        <f t="shared" si="2"/>
         <v>1.9684782786956891</v>
       </c>
       <c r="J44">
@@ -2726,7 +2726,7 @@
         <v>6.1481085489308933</v>
       </c>
       <c r="G54">
-        <f>LOG(T54,10)</f>
+        <f t="shared" ref="G54:G63" si="3">LOG(T54,10)</f>
         <v>3.8214011193636797</v>
       </c>
       <c r="J54">
@@ -2770,7 +2770,7 @@
         <v>0</v>
       </c>
       <c r="G55">
-        <f>LOG(T55,10)</f>
+        <f t="shared" si="3"/>
         <v>1.8367692609180335</v>
       </c>
       <c r="J55">
@@ -2814,7 +2814,7 @@
         <v>6.8207910173134669</v>
       </c>
       <c r="G56">
-        <f>LOG(T56,10)</f>
+        <f t="shared" si="3"/>
         <v>3.9391198175781761</v>
       </c>
       <c r="J56">
@@ -2858,7 +2858,7 @@
         <v>6.8461580988966739</v>
       </c>
       <c r="G57">
-        <f>LOG(T57,10)</f>
+        <f t="shared" si="3"/>
         <v>3.8772561331135855</v>
       </c>
       <c r="J57">
@@ -2901,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="G58">
-        <f>LOG(T58,10)</f>
+        <f t="shared" si="3"/>
         <v>2.7888758219447318</v>
       </c>
       <c r="J58">
@@ -2944,7 +2944,7 @@
         <v>5.5830093666706153</v>
       </c>
       <c r="G59">
-        <f>LOG(T59,10)</f>
+        <f t="shared" si="3"/>
         <v>3.2909245593827539</v>
       </c>
       <c r="J59">
@@ -2990,7 +2990,7 @@
         <v>5.8693968935857521</v>
       </c>
       <c r="G60">
-        <f>LOG(T60,10)</f>
+        <f t="shared" si="3"/>
         <v>2.6138386518317849</v>
       </c>
       <c r="J60">
@@ -3032,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="G61">
-        <f>LOG(T61,10)</f>
+        <f t="shared" si="3"/>
         <v>2.4014005407815437</v>
       </c>
       <c r="J61">
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="C62">
-        <f>LOG(L62,10)</f>
+        <f t="shared" ref="C62:C67" si="4">LOG(L62,10)</f>
         <v>4.6613677742340736</v>
       </c>
       <c r="D62">
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="G62">
-        <f>LOG(T62,10)</f>
+        <f t="shared" si="3"/>
         <v>1.9137926667703118</v>
       </c>
       <c r="J62">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="C63">
-        <f>LOG(L63,10)</f>
+        <f t="shared" si="4"/>
         <v>5.4966847711224922</v>
       </c>
       <c r="D63">
@@ -3120,7 +3120,7 @@
         <v>6.7169570753620809</v>
       </c>
       <c r="G63">
-        <f>LOG(T63,10)</f>
+        <f t="shared" si="3"/>
         <v>4.2027334580454427</v>
       </c>
       <c r="J63">
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="C64">
-        <f>LOG(L64,10)</f>
+        <f t="shared" si="4"/>
         <v>4.9143696001404074</v>
       </c>
       <c r="D64">
@@ -3192,7 +3192,7 @@
         <v>0</v>
       </c>
       <c r="C65">
-        <f>LOG(L65,10)</f>
+        <f t="shared" si="4"/>
         <v>4.5537131575961789</v>
       </c>
       <c r="D65">
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="C66">
-        <f>LOG(L66,10)</f>
+        <f t="shared" si="4"/>
         <v>5.4890960621569267</v>
       </c>
       <c r="D66">
@@ -3277,7 +3277,7 @@
         <v>1.9395192526186182</v>
       </c>
       <c r="C67">
-        <f>LOG(L67,10)</f>
+        <f t="shared" si="4"/>
         <v>5.529345643281399</v>
       </c>
       <c r="D67">
@@ -3971,7 +3971,7 @@
         <v>0</v>
       </c>
       <c r="E83">
-        <f>LOG(P83,10)</f>
+        <f t="shared" ref="E83:E88" si="5">LOG(P83,10)</f>
         <v>5.4136182416869927</v>
       </c>
       <c r="F83">
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="E84">
-        <f>LOG(P84,10)</f>
+        <f t="shared" si="5"/>
         <v>6.1527609176479423</v>
       </c>
       <c r="F84">
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="E85">
-        <f>LOG(P85,10)</f>
+        <f t="shared" si="5"/>
         <v>5.5041241040892057</v>
       </c>
       <c r="F85">
@@ -4099,7 +4099,7 @@
         <v>7.4489011523212065</v>
       </c>
       <c r="E86">
-        <f>LOG(P86,10)</f>
+        <f t="shared" si="5"/>
         <v>4.6295115342004527</v>
       </c>
       <c r="F86">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E87">
-        <f>LOG(P87,10)</f>
+        <f t="shared" si="5"/>
         <v>4.1642338546926103</v>
       </c>
       <c r="F87">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="E88">
-        <f>LOG(P88,10)</f>
+        <f t="shared" si="5"/>
         <v>4.4033607757655249</v>
       </c>
       <c r="F88">
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="E101">
-        <f>LOG(P101,10)</f>
+        <f t="shared" ref="E101:E109" si="6">LOG(P101,10)</f>
         <v>5.4228985617282834</v>
       </c>
       <c r="F101">
@@ -4780,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <f>LOG(P102,10)</f>
+        <f t="shared" si="6"/>
         <v>5.6385850906797241</v>
       </c>
       <c r="F102">
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <f>LOG(P103,10)</f>
+        <f t="shared" si="6"/>
         <v>3.4539295920577282</v>
       </c>
       <c r="F103">
@@ -4867,7 +4867,7 @@
         <v>0</v>
       </c>
       <c r="E104">
-        <f>LOG(P104,10)</f>
+        <f t="shared" si="6"/>
         <v>6.0140830839328521</v>
       </c>
       <c r="F104">
@@ -4909,7 +4909,7 @@
         <v>0</v>
       </c>
       <c r="E105">
-        <f>LOG(P105,10)</f>
+        <f t="shared" si="6"/>
         <v>4.4828984262568961</v>
       </c>
       <c r="F105">
@@ -4952,7 +4952,7 @@
         <v>0</v>
       </c>
       <c r="E106">
-        <f>LOG(P106,10)</f>
+        <f t="shared" si="6"/>
         <v>5.6557851575130451</v>
       </c>
       <c r="F106">
@@ -4996,7 +4996,7 @@
         <v>0</v>
       </c>
       <c r="E107">
-        <f>LOG(P107,10)</f>
+        <f t="shared" si="6"/>
         <v>6.3917150771039859</v>
       </c>
       <c r="F107">
@@ -5042,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="E108">
-        <f>LOG(P108,10)</f>
+        <f t="shared" si="6"/>
         <v>6.0909385377359202</v>
       </c>
       <c r="F108">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="E109">
-        <f>LOG(P109,10)</f>
+        <f t="shared" si="6"/>
         <v>5.3042274996330363</v>
       </c>
       <c r="F109">
@@ -5251,7 +5251,7 @@
         <v>6019</v>
       </c>
       <c r="B113">
-        <f>LOG(J113,10)</f>
+        <f t="shared" ref="B113:B118" si="7">LOG(J113,10)</f>
         <v>5.5767270892392471</v>
       </c>
       <c r="C113">
@@ -5295,7 +5295,7 @@
         <v>6021</v>
       </c>
       <c r="B114">
-        <f>LOG(J114,10)</f>
+        <f t="shared" si="7"/>
         <v>4.7303138245981051</v>
       </c>
       <c r="C114">
@@ -5337,7 +5337,7 @@
         <v>6023</v>
       </c>
       <c r="B115">
-        <f>LOG(J115,10)</f>
+        <f t="shared" si="7"/>
         <v>4.9457294379925845</v>
       </c>
       <c r="C115">
@@ -5379,11 +5379,11 @@
         <v>6025</v>
       </c>
       <c r="B116">
-        <f>LOG(J116,10)</f>
+        <f t="shared" si="7"/>
         <v>5.6412212061016449</v>
       </c>
       <c r="C116">
-        <f>LOG(L116,10)</f>
+        <f t="shared" ref="C116:C122" si="8">LOG(L116,10)</f>
         <v>4.2628091993948303</v>
       </c>
       <c r="D116">
@@ -5425,11 +5425,11 @@
         <v>6027</v>
       </c>
       <c r="B117">
-        <f>LOG(J117,10)</f>
+        <f t="shared" si="7"/>
         <v>5.7883115180282632</v>
       </c>
       <c r="C117">
-        <f>LOG(L117,10)</f>
+        <f t="shared" si="8"/>
         <v>5.5118980599279732</v>
       </c>
       <c r="D117">
@@ -5470,11 +5470,11 @@
         <v>6029</v>
       </c>
       <c r="B118">
-        <f>LOG(J118,10)</f>
+        <f t="shared" si="7"/>
         <v>5.9621677355635834</v>
       </c>
       <c r="C118">
-        <f>LOG(L118,10)</f>
+        <f t="shared" si="8"/>
         <v>7.0831973085072253</v>
       </c>
       <c r="D118">
@@ -5519,7 +5519,7 @@
         <v>0</v>
       </c>
       <c r="C119">
-        <f>LOG(L119,10)</f>
+        <f t="shared" si="8"/>
         <v>5.3295707490776056</v>
       </c>
       <c r="D119">
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="C120">
-        <f>LOG(L120,10)</f>
+        <f t="shared" si="8"/>
         <v>6.245524021505342</v>
       </c>
       <c r="D120">
@@ -5603,7 +5603,7 @@
         <v>0</v>
       </c>
       <c r="C121">
-        <f>LOG(L121,10)</f>
+        <f t="shared" si="8"/>
         <v>5.7340818234925726</v>
       </c>
       <c r="D121">
@@ -5646,14 +5646,14 @@
         <v>6.2281441685075789</v>
       </c>
       <c r="C122">
-        <f>LOG(L122,10)</f>
+        <f t="shared" si="8"/>
         <v>7.3505078580793528</v>
       </c>
       <c r="D122">
         <v>0</v>
       </c>
       <c r="E122">
-        <f>LOG(P122,10)</f>
+        <f t="shared" ref="E122:E139" si="9">LOG(P122,10)</f>
         <v>7.169173233880568</v>
       </c>
       <c r="F122">
@@ -5697,7 +5697,7 @@
         <v>0</v>
       </c>
       <c r="E123">
-        <f>LOG(P123,10)</f>
+        <f t="shared" si="9"/>
         <v>6.2445719737030565</v>
       </c>
       <c r="F123">
@@ -5740,7 +5740,7 @@
         <v>0</v>
       </c>
       <c r="E124">
-        <f>LOG(P124,10)</f>
+        <f t="shared" si="9"/>
         <v>5.7456334277201977</v>
       </c>
       <c r="F124">
@@ -5784,7 +5784,7 @@
         <v>7.1637652685332931</v>
       </c>
       <c r="E125">
-        <f>LOG(P125,10)</f>
+        <f t="shared" si="9"/>
         <v>6.6221498132223626</v>
       </c>
       <c r="F125">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="E126">
-        <f>LOG(P126,10)</f>
+        <f t="shared" si="9"/>
         <v>6.7005431659162076</v>
       </c>
       <c r="F126">
@@ -5834,7 +5834,7 @@
         <v>5.9107030587941987</v>
       </c>
       <c r="G126">
-        <f>LOG(T126,10)</f>
+        <f t="shared" ref="G126:G143" si="10">LOG(T126,10)</f>
         <v>4.2637070409440252</v>
       </c>
       <c r="J126">
@@ -5870,14 +5870,14 @@
         <v>0</v>
       </c>
       <c r="E127">
-        <f>LOG(P127,10)</f>
+        <f t="shared" si="9"/>
         <v>6.696193682293738</v>
       </c>
       <c r="F127">
         <v>0</v>
       </c>
       <c r="G127">
-        <f>LOG(T127,10)</f>
+        <f t="shared" si="10"/>
         <v>1.8808078778421184</v>
       </c>
       <c r="J127">
@@ -5913,15 +5913,15 @@
         <v>0</v>
       </c>
       <c r="E128">
-        <f>LOG(P128,10)</f>
+        <f t="shared" si="9"/>
         <v>5.8481727860413937</v>
       </c>
       <c r="F128">
-        <f>LOG(R128,10)</f>
+        <f t="shared" ref="F128:F134" si="11">LOG(R128,10)</f>
         <v>7.0321555753593614</v>
       </c>
       <c r="G128">
-        <f>LOG(T128,10)</f>
+        <f t="shared" si="10"/>
         <v>4.9392749351455594</v>
       </c>
       <c r="J128">
@@ -5958,15 +5958,15 @@
         <v>0</v>
       </c>
       <c r="E129">
-        <f>LOG(P129,10)</f>
+        <f t="shared" si="9"/>
         <v>5.1033281304633853</v>
       </c>
       <c r="F129">
-        <f>LOG(R129,10)</f>
+        <f t="shared" si="11"/>
         <v>6.316962842716797</v>
       </c>
       <c r="G129">
-        <f>LOG(T129,10)</f>
+        <f t="shared" si="10"/>
         <v>4.2201342495702523</v>
       </c>
       <c r="J129">
@@ -6004,15 +6004,15 @@
         <v>7.3136956190688904</v>
       </c>
       <c r="E130">
-        <f>LOG(P130,10)</f>
+        <f t="shared" si="9"/>
         <v>3.8345478576809482</v>
       </c>
       <c r="F130">
-        <f>LOG(R130,10)</f>
+        <f t="shared" si="11"/>
         <v>7.3609159666032964</v>
       </c>
       <c r="G130">
-        <f>LOG(T130,10)</f>
+        <f t="shared" si="10"/>
         <v>4.7293510912294598</v>
       </c>
       <c r="J130">
@@ -6050,15 +6050,15 @@
         <v>6.8456206160427886</v>
       </c>
       <c r="E131">
-        <f>LOG(P131,10)</f>
+        <f t="shared" si="9"/>
         <v>6.3380297255251854</v>
       </c>
       <c r="F131">
-        <f>LOG(R131,10)</f>
+        <f t="shared" si="11"/>
         <v>6.6836945730847379</v>
       </c>
       <c r="G131">
-        <f>LOG(T131,10)</f>
+        <f t="shared" si="10"/>
         <v>5.5536438955380056</v>
       </c>
       <c r="J131">
@@ -6089,22 +6089,22 @@
         <v>3.7492724082984203</v>
       </c>
       <c r="C132">
-        <f>LOG(L132,10)</f>
+        <f t="shared" ref="C132:C139" si="12">LOG(L132,10)</f>
         <v>4.5372900666648102</v>
       </c>
       <c r="D132">
         <v>0</v>
       </c>
       <c r="E132">
-        <f>LOG(P132,10)</f>
+        <f t="shared" si="9"/>
         <v>6.2370157963331261</v>
       </c>
       <c r="F132">
-        <f>LOG(R132,10)</f>
+        <f t="shared" si="11"/>
         <v>5.4092573500237124</v>
       </c>
       <c r="G132">
-        <f>LOG(T132,10)</f>
+        <f t="shared" si="10"/>
         <v>5.8273342269833464</v>
       </c>
       <c r="J132">
@@ -6134,22 +6134,22 @@
         <v>0</v>
       </c>
       <c r="C133">
-        <f>LOG(L133,10)</f>
+        <f t="shared" si="12"/>
         <v>5.2370835594795571</v>
       </c>
       <c r="D133">
         <v>0</v>
       </c>
       <c r="E133">
-        <f>LOG(P133,10)</f>
+        <f t="shared" si="9"/>
         <v>5.3638049517700281</v>
       </c>
       <c r="F133">
-        <f>LOG(R133,10)</f>
+        <f t="shared" si="11"/>
         <v>5.6694786655760536</v>
       </c>
       <c r="G133">
-        <f>LOG(T133,10)</f>
+        <f t="shared" si="10"/>
         <v>2.9991314116161214</v>
       </c>
       <c r="J133">
@@ -6180,22 +6180,22 @@
         <v>3.410181461999338</v>
       </c>
       <c r="C134">
-        <f>LOG(L134,10)</f>
+        <f t="shared" si="12"/>
         <v>6.6397868051315605</v>
       </c>
       <c r="D134">
         <v>0</v>
       </c>
       <c r="E134">
-        <f>LOG(P134,10)</f>
+        <f t="shared" si="9"/>
         <v>6.1872279700326418</v>
       </c>
       <c r="F134">
-        <f>LOG(R134,10)</f>
+        <f t="shared" si="11"/>
         <v>6.9396089450343803</v>
       </c>
       <c r="G134">
-        <f>LOG(T134,10)</f>
+        <f t="shared" si="10"/>
         <v>4.9055938944008455</v>
       </c>
       <c r="J134">
@@ -6225,21 +6225,21 @@
         <v>0</v>
       </c>
       <c r="C135">
-        <f>LOG(L135,10)</f>
+        <f t="shared" si="12"/>
         <v>6.9106053572972268</v>
       </c>
       <c r="D135">
         <v>0</v>
       </c>
       <c r="E135">
-        <f>LOG(P135,10)</f>
+        <f t="shared" si="9"/>
         <v>6.6461291242375351</v>
       </c>
       <c r="F135">
         <v>0</v>
       </c>
       <c r="G135">
-        <f>LOG(T135,10)</f>
+        <f t="shared" si="10"/>
         <v>1.1761202110560853</v>
       </c>
       <c r="J135">
@@ -6270,14 +6270,14 @@
         <v>5.3289664218798753</v>
       </c>
       <c r="C136">
-        <f>LOG(L136,10)</f>
+        <f t="shared" si="12"/>
         <v>5.0446559617351934</v>
       </c>
       <c r="D136">
         <v>0</v>
       </c>
       <c r="E136">
-        <f>LOG(P136,10)</f>
+        <f t="shared" si="9"/>
         <v>6.86773907286116</v>
       </c>
       <c r="F136">
@@ -6285,7 +6285,7 @@
         <v>7.4799830105147009</v>
       </c>
       <c r="G136">
-        <f>LOG(T136,10)</f>
+        <f t="shared" si="10"/>
         <v>5.1526219687621309</v>
       </c>
       <c r="J136">
@@ -6316,7 +6316,7 @@
         <v>6.0371743869565551</v>
       </c>
       <c r="C137">
-        <f>LOG(L137,10)</f>
+        <f t="shared" si="12"/>
         <v>3.9921999297955848</v>
       </c>
       <c r="D137">
@@ -6324,7 +6324,7 @@
         <v>7.0097620994749654</v>
       </c>
       <c r="E137">
-        <f>LOG(P137,10)</f>
+        <f t="shared" si="9"/>
         <v>6.8838917628603156</v>
       </c>
       <c r="F137">
@@ -6332,7 +6332,7 @@
         <v>7.1412245569998776</v>
       </c>
       <c r="G137">
-        <f>LOG(T137,10)</f>
+        <f t="shared" si="10"/>
         <v>5.6784344909201074</v>
       </c>
       <c r="J137">
@@ -6362,14 +6362,14 @@
         <v>0</v>
       </c>
       <c r="C138">
-        <f>LOG(L138,10)</f>
+        <f t="shared" si="12"/>
         <v>4.7813962980124316</v>
       </c>
       <c r="D138">
         <v>0</v>
       </c>
       <c r="E138">
-        <f>LOG(P138,10)</f>
+        <f t="shared" si="9"/>
         <v>3.6536948917178416</v>
       </c>
       <c r="F138">
@@ -6377,7 +6377,7 @@
         <v>6.2188405070319197</v>
       </c>
       <c r="G138">
-        <f>LOG(T138,10)</f>
+        <f t="shared" si="10"/>
         <v>3.1975562131535362</v>
       </c>
       <c r="J138">
@@ -6408,14 +6408,14 @@
         <v>5.5360670584270544</v>
       </c>
       <c r="C139">
-        <f>LOG(L139,10)</f>
+        <f t="shared" si="12"/>
         <v>4.9808801655000616</v>
       </c>
       <c r="D139">
         <v>0</v>
       </c>
       <c r="E139">
-        <f>LOG(P139,10)</f>
+        <f t="shared" si="9"/>
         <v>6.5029534366684247</v>
       </c>
       <c r="F139">
@@ -6423,7 +6423,7 @@
         <v>6.9843567573023142</v>
       </c>
       <c r="G139">
-        <f>LOG(T139,10)</f>
+        <f t="shared" si="10"/>
         <v>4.6363776626376989</v>
       </c>
       <c r="J139">
@@ -6465,7 +6465,7 @@
         <v>0</v>
       </c>
       <c r="G140">
-        <f>LOG(T140,10)</f>
+        <f t="shared" si="10"/>
         <v>4.6664430957401581</v>
       </c>
       <c r="J140">
@@ -6509,7 +6509,7 @@
         <v>5.6707207189528051</v>
       </c>
       <c r="G141">
-        <f>LOG(T141,10)</f>
+        <f t="shared" si="10"/>
         <v>3.9245893856694183</v>
       </c>
       <c r="J141">
@@ -6553,7 +6553,7 @@
         <v>7.1113963108744489</v>
       </c>
       <c r="G142">
-        <f>LOG(T142,10)</f>
+        <f t="shared" si="10"/>
         <v>5.9120700002690869</v>
       </c>
       <c r="J142">
@@ -6598,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="G143">
-        <f>LOG(T143,10)</f>
+        <f t="shared" si="10"/>
         <v>5.9568786405390588</v>
       </c>
       <c r="J143">
@@ -6765,7 +6765,7 @@
         <v>0</v>
       </c>
       <c r="E147">
-        <f>LOG(P147,10)</f>
+        <f t="shared" ref="E147:E156" si="13">LOG(P147,10)</f>
         <v>4.0886321772584564</v>
       </c>
       <c r="F147">
@@ -6773,7 +6773,7 @@
         <v>6.6414506103723632</v>
       </c>
       <c r="G147">
-        <f>LOG(T147,10)</f>
+        <f t="shared" ref="G147:G156" si="14">LOG(T147,10)</f>
         <v>3.87453979707101</v>
       </c>
       <c r="J147">
@@ -6810,14 +6810,14 @@
         <v>0</v>
       </c>
       <c r="E148">
-        <f>LOG(P148,10)</f>
+        <f t="shared" si="13"/>
         <v>4.3835008193053815</v>
       </c>
       <c r="F148">
         <v>0</v>
       </c>
       <c r="G148">
-        <f>LOG(T148,10)</f>
+        <f t="shared" si="14"/>
         <v>4.511829906060731</v>
       </c>
       <c r="J148">
@@ -6853,7 +6853,7 @@
         <v>0</v>
       </c>
       <c r="E149">
-        <f>LOG(P149,10)</f>
+        <f t="shared" si="13"/>
         <v>6.3512519382309298</v>
       </c>
       <c r="F149">
@@ -6861,7 +6861,7 @@
         <v>4.7811878944280481</v>
       </c>
       <c r="G149">
-        <f>LOG(T149,10)</f>
+        <f t="shared" si="14"/>
         <v>3.2666975017122395</v>
       </c>
       <c r="J149">
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="E150">
-        <f>LOG(P150,10)</f>
+        <f t="shared" si="13"/>
         <v>6.3710100970793535</v>
       </c>
       <c r="F150">
@@ -6907,7 +6907,7 @@
         <v>3.776411626578057</v>
       </c>
       <c r="G150">
-        <f>LOG(T150,10)</f>
+        <f t="shared" si="14"/>
         <v>3.1778255486165987</v>
       </c>
       <c r="J150">
@@ -6944,14 +6944,14 @@
         <v>0</v>
       </c>
       <c r="E151">
-        <f>LOG(P151,10)</f>
+        <f t="shared" si="13"/>
         <v>6.0731660091387507</v>
       </c>
       <c r="F151">
         <v>0</v>
       </c>
       <c r="G151">
-        <f>LOG(T151,10)</f>
+        <f t="shared" si="14"/>
         <v>2.8463371121298047</v>
       </c>
       <c r="J151">
@@ -6987,14 +6987,14 @@
         <v>0</v>
       </c>
       <c r="E152">
-        <f>LOG(P152,10)</f>
+        <f t="shared" si="13"/>
         <v>2.4638929889859074</v>
       </c>
       <c r="F152">
         <v>0</v>
       </c>
       <c r="G152">
-        <f>LOG(T152,10)</f>
+        <f t="shared" si="14"/>
         <v>2.9666128626799639</v>
       </c>
       <c r="J152">
@@ -7030,14 +7030,14 @@
         <v>0</v>
       </c>
       <c r="E153">
-        <f>LOG(P153,10)</f>
+        <f t="shared" si="13"/>
         <v>3.0237904826124717</v>
       </c>
       <c r="F153">
         <v>0</v>
       </c>
       <c r="G153">
-        <f>LOG(T153,10)</f>
+        <f t="shared" si="14"/>
         <v>2.9580853702229342</v>
       </c>
       <c r="J153">
@@ -7075,7 +7075,7 @@
         <v>0</v>
       </c>
       <c r="E154">
-        <f>LOG(P154,10)</f>
+        <f t="shared" si="13"/>
         <v>4.6185865077510586</v>
       </c>
       <c r="F154">
@@ -7083,7 +7083,7 @@
         <v>4.5711729218872872</v>
       </c>
       <c r="G154">
-        <f>LOG(T154,10)</f>
+        <f t="shared" si="14"/>
         <v>2.6211752427917778</v>
       </c>
       <c r="J154">
@@ -7121,14 +7121,14 @@
         <v>0</v>
       </c>
       <c r="E155">
-        <f>LOG(P155,10)</f>
+        <f t="shared" si="13"/>
         <v>4.8432579774132707</v>
       </c>
       <c r="F155">
         <v>0</v>
       </c>
       <c r="G155">
-        <f>LOG(T155,10)</f>
+        <f t="shared" si="14"/>
         <v>4.9619004041149459</v>
       </c>
       <c r="J155">
@@ -7166,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="E156">
-        <f>LOG(P156,10)</f>
+        <f t="shared" si="13"/>
         <v>5.3970671695859966</v>
       </c>
       <c r="F156">
@@ -7174,7 +7174,7 @@
         <v>6.6923071957580875</v>
       </c>
       <c r="G156">
-        <f>LOG(T156,10)</f>
+        <f t="shared" si="14"/>
         <v>3.8671138388073238</v>
       </c>
       <c r="J156">
@@ -8373,7 +8373,7 @@
         <v>7.2185117942961687</v>
       </c>
       <c r="E184">
-        <f>LOG(P184,10)</f>
+        <f t="shared" ref="E184:E195" si="15">LOG(P184,10)</f>
         <v>4.4637778185195955</v>
       </c>
       <c r="F184">
@@ -8417,7 +8417,7 @@
         <v>0</v>
       </c>
       <c r="E185">
-        <f>LOG(P185,10)</f>
+        <f t="shared" si="15"/>
         <v>5.2988923575511606</v>
       </c>
       <c r="F185">
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="E186">
-        <f>LOG(P186,10)</f>
+        <f t="shared" si="15"/>
         <v>5.156396421512186</v>
       </c>
       <c r="F186">
@@ -8505,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="E187">
-        <f>LOG(P187,10)</f>
+        <f t="shared" si="15"/>
         <v>4.744253855731154</v>
       </c>
       <c r="F187">
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <f>LOG(P188,10)</f>
+        <f t="shared" si="15"/>
         <v>3.7085908451503435</v>
       </c>
       <c r="F188">
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="E189">
-        <f>LOG(P189,10)</f>
+        <f t="shared" si="15"/>
         <v>3.6053050461411091</v>
       </c>
       <c r="F189">
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="E190">
-        <f>LOG(P190,10)</f>
+        <f t="shared" si="15"/>
         <v>6.163819476526073</v>
       </c>
       <c r="F190">
@@ -8675,7 +8675,7 @@
         <v>0</v>
       </c>
       <c r="E191">
-        <f>LOG(P191,10)</f>
+        <f t="shared" si="15"/>
         <v>4.2304490235651988</v>
       </c>
       <c r="F191">
@@ -8717,7 +8717,7 @@
         <v>0</v>
       </c>
       <c r="E192">
-        <f>LOG(P192,10)</f>
+        <f t="shared" si="15"/>
         <v>2.9429990981611032</v>
       </c>
       <c r="F192">
@@ -8761,7 +8761,7 @@
         <v>0</v>
       </c>
       <c r="E193">
-        <f>LOG(P193,10)</f>
+        <f t="shared" si="15"/>
         <v>6.7211011033712271</v>
       </c>
       <c r="F193">
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="E194">
-        <f>LOG(P194,10)</f>
+        <f t="shared" si="15"/>
         <v>6.8549097682411437</v>
       </c>
       <c r="F194">
@@ -8847,7 +8847,7 @@
         <v>0</v>
       </c>
       <c r="E195">
-        <f>LOG(P195,10)</f>
+        <f t="shared" si="15"/>
         <v>6.8212753183964061</v>
       </c>
       <c r="F195">
@@ -9234,7 +9234,7 @@
         <v>0</v>
       </c>
       <c r="E204">
-        <f>LOG(P204,10)</f>
+        <f t="shared" ref="E204:E210" si="16">LOG(P204,10)</f>
         <v>6.946040523305772</v>
       </c>
       <c r="F204">
@@ -9277,7 +9277,7 @@
         <v>0</v>
       </c>
       <c r="E205">
-        <f>LOG(P205,10)</f>
+        <f t="shared" si="16"/>
         <v>4.5345464396540667</v>
       </c>
       <c r="F205">
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="E206">
-        <f>LOG(P206,10)</f>
+        <f t="shared" si="16"/>
         <v>3.5913986625531993</v>
       </c>
       <c r="F206">
@@ -9364,7 +9364,7 @@
         <v>0</v>
       </c>
       <c r="E207">
-        <f>LOG(P207,10)</f>
+        <f t="shared" si="16"/>
         <v>4.8569342166180087</v>
       </c>
       <c r="F207">
@@ -9407,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="E208">
-        <f>LOG(P208,10)</f>
+        <f t="shared" si="16"/>
         <v>5.2438567034384951</v>
       </c>
       <c r="F208">
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E209">
-        <f>LOG(P209,10)</f>
+        <f t="shared" si="16"/>
         <v>5.6484249060260128</v>
       </c>
       <c r="F209">
@@ -9494,7 +9494,7 @@
         <v>0</v>
       </c>
       <c r="E210">
-        <f>LOG(P210,10)</f>
+        <f t="shared" si="16"/>
         <v>5.8393745983645795</v>
       </c>
       <c r="F210">
@@ -9580,7 +9580,7 @@
         <v>0</v>
       </c>
       <c r="E212">
-        <f>LOG(P212,10)</f>
+        <f t="shared" ref="E212:E219" si="17">LOG(P212,10)</f>
         <v>5.1651997960418523</v>
       </c>
       <c r="F212">
@@ -9625,7 +9625,7 @@
         <v>0</v>
       </c>
       <c r="E213">
-        <f>LOG(P213,10)</f>
+        <f t="shared" si="17"/>
         <v>5.052001589623468</v>
       </c>
       <c r="F213">
@@ -9671,7 +9671,7 @@
         <v>0</v>
       </c>
       <c r="E214">
-        <f>LOG(P214,10)</f>
+        <f t="shared" si="17"/>
         <v>2.6813478254943552</v>
       </c>
       <c r="F214">
@@ -9714,7 +9714,7 @@
         <v>0</v>
       </c>
       <c r="E215">
-        <f>LOG(P215,10)</f>
+        <f t="shared" si="17"/>
         <v>6.4774397652785431</v>
       </c>
       <c r="F215">
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="E216">
-        <f>LOG(P216,10)</f>
+        <f t="shared" si="17"/>
         <v>5.8321044473530019</v>
       </c>
       <c r="F216">
@@ -9800,7 +9800,7 @@
         <v>0</v>
       </c>
       <c r="E217">
-        <f>LOG(P217,10)</f>
+        <f t="shared" si="17"/>
         <v>6.2417078169236921</v>
       </c>
       <c r="F217">
@@ -9842,7 +9842,7 @@
         <v>0</v>
       </c>
       <c r="E218">
-        <f>LOG(P218,10)</f>
+        <f t="shared" si="17"/>
         <v>4.2476050641507701</v>
       </c>
       <c r="F218">
@@ -9885,7 +9885,7 @@
         <v>0</v>
       </c>
       <c r="E219">
-        <f>LOG(P219,10)</f>
+        <f t="shared" si="17"/>
         <v>6.232045209693017</v>
       </c>
       <c r="F219">
@@ -10178,7 +10178,7 @@
         <v>0</v>
       </c>
       <c r="C226">
-        <f>LOG(L226,10)</f>
+        <f t="shared" ref="C226:C236" si="18">LOG(L226,10)</f>
         <v>3.8752928253710075</v>
       </c>
       <c r="D226">
@@ -10220,7 +10220,7 @@
         <v>0</v>
       </c>
       <c r="C227">
-        <f>LOG(L227,10)</f>
+        <f t="shared" si="18"/>
         <v>4.5490890696472182</v>
       </c>
       <c r="D227">
@@ -10264,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="C228">
-        <f>LOG(L228,10)</f>
+        <f t="shared" si="18"/>
         <v>4.4232786824165018</v>
       </c>
       <c r="D228">
@@ -10306,7 +10306,7 @@
         <v>0</v>
       </c>
       <c r="C229">
-        <f>LOG(L229,10)</f>
+        <f t="shared" si="18"/>
         <v>3.7495044238761421</v>
       </c>
       <c r="D229">
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="C230">
-        <f>LOG(L230,10)</f>
+        <f t="shared" si="18"/>
         <v>4.171814181051146</v>
       </c>
       <c r="D230">
@@ -10390,7 +10390,7 @@
         <v>0</v>
       </c>
       <c r="C231">
-        <f>LOG(L231,10)</f>
+        <f t="shared" si="18"/>
         <v>4.1456935239042201</v>
       </c>
       <c r="D231">
@@ -10432,7 +10432,7 @@
         <v>0</v>
       </c>
       <c r="C232">
-        <f>LOG(L232,10)</f>
+        <f t="shared" si="18"/>
         <v>4.4141707990620036</v>
       </c>
       <c r="D232">
@@ -10474,7 +10474,7 @@
         <v>0</v>
       </c>
       <c r="C233">
-        <f>LOG(L233,10)</f>
+        <f t="shared" si="18"/>
         <v>4.3805549763980771</v>
       </c>
       <c r="D233">
@@ -10516,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="C234">
-        <f>LOG(L234,10)</f>
+        <f t="shared" si="18"/>
         <v>4.2485862438551036</v>
       </c>
       <c r="D234">
@@ -10558,7 +10558,7 @@
         <v>0</v>
       </c>
       <c r="C235">
-        <f>LOG(L235,10)</f>
+        <f t="shared" si="18"/>
         <v>5.4881881732651614</v>
       </c>
       <c r="D235">
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="C236">
-        <f>LOG(L236,10)</f>
+        <f t="shared" si="18"/>
         <v>3.2629257063920734</v>
       </c>
       <c r="D236">
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="E267">
-        <f>LOG(P267,10)</f>
+        <f t="shared" ref="E267:E273" si="19">LOG(P267,10)</f>
         <v>5.4633181460627123</v>
       </c>
       <c r="F267">
@@ -11975,14 +11975,14 @@
         <v>0</v>
       </c>
       <c r="E268">
-        <f>LOG(P268,10)</f>
+        <f t="shared" si="19"/>
         <v>5.6528579075396443</v>
       </c>
       <c r="F268">
         <v>0</v>
       </c>
       <c r="G268">
-        <f>LOG(T268,10)</f>
+        <f t="shared" ref="G268:G281" si="20">LOG(T268,10)</f>
         <v>3.1309766916056168</v>
       </c>
       <c r="J268">
@@ -12018,14 +12018,14 @@
         <v>0</v>
       </c>
       <c r="E269">
-        <f>LOG(P269,10)</f>
+        <f t="shared" si="19"/>
         <v>5.9995302737322476</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269">
-        <f>LOG(T269,10)</f>
+        <f t="shared" si="20"/>
         <v>6.2634734439700646</v>
       </c>
       <c r="J269">
@@ -12061,14 +12061,14 @@
         <v>0</v>
       </c>
       <c r="E270">
-        <f>LOG(P270,10)</f>
+        <f t="shared" si="19"/>
         <v>6.9928828029020691</v>
       </c>
       <c r="F270">
         <v>0</v>
       </c>
       <c r="G270">
-        <f>LOG(T270,10)</f>
+        <f t="shared" si="20"/>
         <v>4.9270519690757029</v>
       </c>
       <c r="J270">
@@ -12104,14 +12104,14 @@
         <v>0</v>
       </c>
       <c r="E271">
-        <f>LOG(P271,10)</f>
+        <f t="shared" si="19"/>
         <v>6.7494964600624021</v>
       </c>
       <c r="F271">
         <v>0</v>
       </c>
       <c r="G271">
-        <f>LOG(T271,10)</f>
+        <f t="shared" si="20"/>
         <v>6.8036400816946729</v>
       </c>
       <c r="J271">
@@ -12148,14 +12148,14 @@
         <v>7.3786207331490576</v>
       </c>
       <c r="E272">
-        <f>LOG(P272,10)</f>
+        <f t="shared" si="19"/>
         <v>7.3894610739634006</v>
       </c>
       <c r="F272">
         <v>0</v>
       </c>
       <c r="G272">
-        <f>LOG(T272,10)</f>
+        <f t="shared" si="20"/>
         <v>7.0647481582272054</v>
       </c>
       <c r="J272">
@@ -12191,14 +12191,14 @@
         <v>0</v>
       </c>
       <c r="E273">
-        <f>LOG(P273,10)</f>
+        <f t="shared" si="19"/>
         <v>4.2701894960785429</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <f>LOG(T273,10)</f>
+        <f t="shared" si="20"/>
         <v>3.5564230007674129</v>
       </c>
       <c r="J273">
@@ -12240,7 +12240,7 @@
         <v>0</v>
       </c>
       <c r="G274">
-        <f>LOG(T274,10)</f>
+        <f t="shared" si="20"/>
         <v>4.7663012845441859</v>
       </c>
       <c r="J274">
@@ -12284,7 +12284,7 @@
         <v>7.1779431035054948</v>
       </c>
       <c r="G275">
-        <f>LOG(T275,10)</f>
+        <f t="shared" si="20"/>
         <v>4.9272266011209238</v>
       </c>
       <c r="J275">
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="G276">
-        <f>LOG(T276,10)</f>
+        <f t="shared" si="20"/>
         <v>4.3048350692290063</v>
       </c>
       <c r="J276">
@@ -12369,7 +12369,7 @@
         <v>0</v>
       </c>
       <c r="G277">
-        <f>LOG(T277,10)</f>
+        <f t="shared" si="20"/>
         <v>0.95419425181586237</v>
       </c>
       <c r="J277">
@@ -12412,7 +12412,7 @@
         <v>0</v>
       </c>
       <c r="G278">
-        <f>LOG(T278,10)</f>
+        <f t="shared" si="20"/>
         <v>6.3995101814161259</v>
       </c>
       <c r="J278">
@@ -12455,7 +12455,7 @@
         <v>0</v>
       </c>
       <c r="G279">
-        <f>LOG(T279,10)</f>
+        <f t="shared" si="20"/>
         <v>4.9166907718668371</v>
       </c>
       <c r="J279">
@@ -12498,7 +12498,7 @@
         <v>0</v>
       </c>
       <c r="G280">
-        <f>LOG(T280,10)</f>
+        <f t="shared" si="20"/>
         <v>3.1789769472931693</v>
       </c>
       <c r="J280">
@@ -12541,7 +12541,7 @@
         <v>0</v>
       </c>
       <c r="G281">
-        <f>LOG(T281,10)</f>
+        <f t="shared" si="20"/>
         <v>6.6609370643162586</v>
       </c>
       <c r="J281">
@@ -13044,7 +13044,7 @@
         <v>0</v>
       </c>
       <c r="E293">
-        <f>LOG(P293,10)</f>
+        <f t="shared" ref="E293:E301" si="21">LOG(P293,10)</f>
         <v>5.4283324502626558</v>
       </c>
       <c r="F293">
@@ -13087,7 +13087,7 @@
         <v>0</v>
       </c>
       <c r="E294">
-        <f>LOG(P294,10)</f>
+        <f t="shared" si="21"/>
         <v>4.479793126561062</v>
       </c>
       <c r="F294">
@@ -13131,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="E295">
-        <f>LOG(P295,10)</f>
+        <f t="shared" si="21"/>
         <v>5.9123957512807914</v>
       </c>
       <c r="F295">
@@ -13174,7 +13174,7 @@
         <v>0</v>
       </c>
       <c r="E296">
-        <f>LOG(P296,10)</f>
+        <f t="shared" si="21"/>
         <v>1.7593526969323863</v>
       </c>
       <c r="F296">
@@ -13216,7 +13216,7 @@
         <v>0</v>
       </c>
       <c r="E297">
-        <f>LOG(P297,10)</f>
+        <f t="shared" si="21"/>
         <v>6.7175031996824108</v>
       </c>
       <c r="F297">
@@ -13261,7 +13261,7 @@
         <v>0</v>
       </c>
       <c r="E298">
-        <f>LOG(P298,10)</f>
+        <f t="shared" si="21"/>
         <v>4.6642075390598858</v>
       </c>
       <c r="F298">
@@ -13306,7 +13306,7 @@
         <v>0</v>
       </c>
       <c r="E299">
-        <f>LOG(P299,10)</f>
+        <f t="shared" si="21"/>
         <v>6.3850584600127913</v>
       </c>
       <c r="F299">
@@ -13350,7 +13350,7 @@
         <v>7.0076442260977139</v>
       </c>
       <c r="E300">
-        <f>LOG(P300,10)</f>
+        <f t="shared" si="21"/>
         <v>6.8249943352269131</v>
       </c>
       <c r="F300">
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="E301">
-        <f>LOG(P301,10)</f>
+        <f t="shared" si="21"/>
         <v>5.6601765086679379</v>
       </c>
       <c r="F301">
@@ -14117,7 +14117,7 @@
         <v>5.4078747997068444</v>
       </c>
       <c r="C318">
-        <f>LOG(L318,10)</f>
+        <f t="shared" ref="C318:C324" si="22">LOG(L318,10)</f>
         <v>5.6254451909979899</v>
       </c>
       <c r="D318">
@@ -14163,7 +14163,7 @@
         <v>0</v>
       </c>
       <c r="C319">
-        <f>LOG(L319,10)</f>
+        <f t="shared" si="22"/>
         <v>4.4858917046574147</v>
       </c>
       <c r="D319">
@@ -14205,7 +14205,7 @@
         <v>0</v>
       </c>
       <c r="C320">
-        <f>LOG(L320,10)</f>
+        <f t="shared" si="22"/>
         <v>5.338860717262814</v>
       </c>
       <c r="D320">
@@ -14250,7 +14250,7 @@
         <v>0</v>
       </c>
       <c r="C321">
-        <f>LOG(L321,10)</f>
+        <f t="shared" si="22"/>
         <v>5.2621448373904798</v>
       </c>
       <c r="D321">
@@ -14292,7 +14292,7 @@
         <v>0</v>
       </c>
       <c r="C322">
-        <f>LOG(L322,10)</f>
+        <f t="shared" si="22"/>
         <v>5.3120842228812242</v>
       </c>
       <c r="D322">
@@ -14334,7 +14334,7 @@
         <v>0</v>
       </c>
       <c r="C323">
-        <f>LOG(L323,10)</f>
+        <f t="shared" si="22"/>
         <v>5.4177987473922125</v>
       </c>
       <c r="D323">
@@ -14376,7 +14376,7 @@
         <v>0</v>
       </c>
       <c r="C324">
-        <f>LOG(L324,10)</f>
+        <f t="shared" si="22"/>
         <v>5.2255677134394709</v>
       </c>
       <c r="D324">
@@ -15465,7 +15465,7 @@
         <v>0</v>
       </c>
       <c r="E349">
-        <f>LOG(P349,10)</f>
+        <f t="shared" ref="E349:E359" si="23">LOG(P349,10)</f>
         <v>6.6365940999616369</v>
       </c>
       <c r="F349">
@@ -15507,7 +15507,7 @@
         <v>0</v>
       </c>
       <c r="E350">
-        <f>LOG(P350,10)</f>
+        <f t="shared" si="23"/>
         <v>4.0407604451510357</v>
       </c>
       <c r="F350">
@@ -15550,14 +15550,14 @@
         <v>0</v>
       </c>
       <c r="E351">
-        <f>LOG(P351,10)</f>
+        <f t="shared" si="23"/>
         <v>4.3738910056421396</v>
       </c>
       <c r="F351">
         <v>0</v>
       </c>
       <c r="G351">
-        <f>LOG(T351,10)</f>
+        <f t="shared" ref="G351:G358" si="24">LOG(T351,10)</f>
         <v>1.8061799739838869</v>
       </c>
       <c r="J351">
@@ -15594,7 +15594,7 @@
         <v>0</v>
       </c>
       <c r="E352">
-        <f>LOG(P352,10)</f>
+        <f t="shared" si="23"/>
         <v>6.3925854641725888</v>
       </c>
       <c r="F352">
@@ -15602,7 +15602,7 @@
         <v>6.9214326381094935</v>
       </c>
       <c r="G352">
-        <f>LOG(T352,10)</f>
+        <f t="shared" si="24"/>
         <v>3.6660497384805155</v>
       </c>
       <c r="J352">
@@ -15639,7 +15639,7 @@
         <v>0</v>
       </c>
       <c r="E353">
-        <f>LOG(P353,10)</f>
+        <f t="shared" si="23"/>
         <v>6.6064711651297845</v>
       </c>
       <c r="F353">
@@ -15647,7 +15647,7 @@
         <v>6.5658362326515363</v>
       </c>
       <c r="G353">
-        <f>LOG(T353,10)</f>
+        <f t="shared" si="24"/>
         <v>6.2758106479989957</v>
       </c>
       <c r="J353">
@@ -15683,14 +15683,14 @@
         <v>0</v>
       </c>
       <c r="E354">
-        <f>LOG(P354,10)</f>
+        <f t="shared" si="23"/>
         <v>5.4054522310998641</v>
       </c>
       <c r="F354">
         <v>0</v>
       </c>
       <c r="G354">
-        <f>LOG(T354,10)</f>
+        <f t="shared" si="24"/>
         <v>5.1658880177130628</v>
       </c>
       <c r="J354">
@@ -15726,14 +15726,14 @@
         <v>0</v>
       </c>
       <c r="E355">
-        <f>LOG(P355,10)</f>
+        <f t="shared" si="23"/>
         <v>2.4871397901148886</v>
       </c>
       <c r="F355">
         <v>0</v>
       </c>
       <c r="G355">
-        <f>LOG(T355,10)</f>
+        <f t="shared" si="24"/>
         <v>5.6728013992513349</v>
       </c>
       <c r="J355">
@@ -15771,14 +15771,14 @@
         <v>6.870757635098097</v>
       </c>
       <c r="E356">
-        <f>LOG(P356,10)</f>
+        <f t="shared" si="23"/>
         <v>6.8319752969377134</v>
       </c>
       <c r="F356">
         <v>0</v>
       </c>
       <c r="G356">
-        <f>LOG(T356,10)</f>
+        <f t="shared" si="24"/>
         <v>1.414973347970818</v>
       </c>
       <c r="J356">
@@ -15815,7 +15815,7 @@
         <v>0</v>
       </c>
       <c r="E357">
-        <f>LOG(P357,10)</f>
+        <f t="shared" si="23"/>
         <v>6.6030063763162881</v>
       </c>
       <c r="F357">
@@ -15823,7 +15823,7 @@
         <v>5.0188744765442159</v>
       </c>
       <c r="G357">
-        <f>LOG(T357,10)</f>
+        <f t="shared" si="24"/>
         <v>5.4852786017814896</v>
       </c>
       <c r="J357">
@@ -15859,7 +15859,7 @@
         <v>0</v>
       </c>
       <c r="E358">
-        <f>LOG(P358,10)</f>
+        <f t="shared" si="23"/>
         <v>3.7617775375081779</v>
       </c>
       <c r="F358">
@@ -15867,7 +15867,7 @@
         <v>5.4185465487089939</v>
       </c>
       <c r="G358">
-        <f>LOG(T358,10)</f>
+        <f t="shared" si="24"/>
         <v>5.6486556833946731</v>
       </c>
       <c r="J358">
@@ -15903,7 +15903,7 @@
         <v>0</v>
       </c>
       <c r="E359">
-        <f>LOG(P359,10)</f>
+        <f t="shared" si="23"/>
         <v>4.13640344813399</v>
       </c>
       <c r="F359">
@@ -16634,7 +16634,7 @@
         <v>0</v>
       </c>
       <c r="G376">
-        <f>LOG(T376,10)</f>
+        <f t="shared" ref="G376:G383" si="25">LOG(T376,10)</f>
         <v>2.8115750058705928</v>
       </c>
       <c r="J376">
@@ -16679,7 +16679,7 @@
         <v>4.8900858050584999</v>
       </c>
       <c r="G377">
-        <f>LOG(T377,10)</f>
+        <f t="shared" si="25"/>
         <v>3.2074127560518635</v>
       </c>
       <c r="J377">
@@ -16722,7 +16722,7 @@
         <v>0</v>
       </c>
       <c r="G378">
-        <f>LOG(T378,10)</f>
+        <f t="shared" si="25"/>
         <v>2.4828778693884148</v>
       </c>
       <c r="J378">
@@ -16768,7 +16768,7 @@
         <v>4.7160116870197974</v>
       </c>
       <c r="G379">
-        <f>LOG(T379,10)</f>
+        <f t="shared" si="25"/>
         <v>2.1105964434948348</v>
       </c>
       <c r="J379">
@@ -16810,7 +16810,7 @@
         <v>0</v>
       </c>
       <c r="G380">
-        <f>LOG(T380,10)</f>
+        <f t="shared" si="25"/>
         <v>2.5037934058980618</v>
       </c>
       <c r="J380">
@@ -16848,7 +16848,7 @@
         <v>0</v>
       </c>
       <c r="E381">
-        <f>LOG(P381,10)</f>
+        <f t="shared" ref="E381:E386" si="26">LOG(P381,10)</f>
         <v>6.5781022551930217</v>
       </c>
       <c r="F381">
@@ -16856,7 +16856,7 @@
         <v>4.8777333519117132</v>
       </c>
       <c r="G381">
-        <f>LOG(T381,10)</f>
+        <f t="shared" si="25"/>
         <v>4.2215479004165797</v>
       </c>
       <c r="J381">
@@ -16893,14 +16893,14 @@
         <v>0</v>
       </c>
       <c r="E382">
-        <f>LOG(P382,10)</f>
+        <f t="shared" si="26"/>
         <v>4.8938187218954061</v>
       </c>
       <c r="F382">
         <v>0</v>
       </c>
       <c r="G382">
-        <f>LOG(T382,10)</f>
+        <f t="shared" si="25"/>
         <v>3.4076270930327799</v>
       </c>
       <c r="J382">
@@ -16936,14 +16936,14 @@
         <v>0</v>
       </c>
       <c r="E383">
-        <f>LOG(P383,10)</f>
+        <f t="shared" si="26"/>
         <v>4.6263840318986933</v>
       </c>
       <c r="F383">
         <v>0</v>
       </c>
       <c r="G383">
-        <f>LOG(T383,10)</f>
+        <f t="shared" si="25"/>
         <v>2.9498815497925319</v>
       </c>
       <c r="J383">
@@ -16979,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="E384">
-        <f>LOG(P384,10)</f>
+        <f t="shared" si="26"/>
         <v>1.070370390367003</v>
       </c>
       <c r="F384">
@@ -17021,7 +17021,7 @@
         <v>0</v>
       </c>
       <c r="E385">
-        <f>LOG(P385,10)</f>
+        <f t="shared" si="26"/>
         <v>5.1409571923604735</v>
       </c>
       <c r="F385">
@@ -17066,7 +17066,7 @@
         <v>0</v>
       </c>
       <c r="E386">
-        <f>LOG(P386,10)</f>
+        <f t="shared" si="26"/>
         <v>4.8259544187090215</v>
       </c>
       <c r="F386">
@@ -17315,7 +17315,7 @@
         <v>0</v>
       </c>
       <c r="C392">
-        <f>LOG(L392,10)</f>
+        <f t="shared" ref="C392:C397" si="27">LOG(L392,10)</f>
         <v>3.8612356784130419</v>
       </c>
       <c r="D392">
@@ -17357,7 +17357,7 @@
         <v>0</v>
       </c>
       <c r="C393">
-        <f>LOG(L393,10)</f>
+        <f t="shared" si="27"/>
         <v>4.9473650920544525</v>
       </c>
       <c r="D393">
@@ -17399,7 +17399,7 @@
         <v>0</v>
       </c>
       <c r="C394">
-        <f>LOG(L394,10)</f>
+        <f t="shared" si="27"/>
         <v>4.5894804439396175</v>
       </c>
       <c r="D394">
@@ -17441,7 +17441,7 @@
         <v>0</v>
       </c>
       <c r="C395">
-        <f>LOG(L395,10)</f>
+        <f t="shared" si="27"/>
         <v>3.1766702218121821</v>
       </c>
       <c r="D395">
@@ -17483,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="C396">
-        <f>LOG(L396,10)</f>
+        <f t="shared" si="27"/>
         <v>4.6332866097240837</v>
       </c>
       <c r="D396">
@@ -17525,7 +17525,7 @@
         <v>0</v>
       </c>
       <c r="C397">
-        <f>LOG(L397,10)</f>
+        <f t="shared" si="27"/>
         <v>4.55157198587011</v>
       </c>
       <c r="D397">
@@ -17611,7 +17611,7 @@
         <v>0</v>
       </c>
       <c r="C399">
-        <f>LOG(L399,10)</f>
+        <f t="shared" ref="C399:C404" si="28">LOG(L399,10)</f>
         <v>5.3001975243852382</v>
       </c>
       <c r="D399">
@@ -17653,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="C400">
-        <f>LOG(L400,10)</f>
+        <f t="shared" si="28"/>
         <v>6.3350954692693557</v>
       </c>
       <c r="D400">
@@ -17695,7 +17695,7 @@
         <v>0</v>
       </c>
       <c r="C401">
-        <f>LOG(L401,10)</f>
+        <f t="shared" si="28"/>
         <v>5.5508542645477155</v>
       </c>
       <c r="D401">
@@ -17737,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="C402">
-        <f>LOG(L402,10)</f>
+        <f t="shared" si="28"/>
         <v>5.52818755439813</v>
       </c>
       <c r="D402">
@@ -17780,7 +17780,7 @@
         <v>4.4930674983772283</v>
       </c>
       <c r="C403">
-        <f>LOG(L403,10)</f>
+        <f t="shared" si="28"/>
         <v>6.445734938610606</v>
       </c>
       <c r="D403">
@@ -17823,7 +17823,7 @@
         <v>0</v>
       </c>
       <c r="C404">
-        <f>LOG(L404,10)</f>
+        <f t="shared" si="28"/>
         <v>5.2880635730862089</v>
       </c>
       <c r="D404">
@@ -18261,7 +18261,7 @@
         <v>0</v>
       </c>
       <c r="G414">
-        <f>LOG(T414,10)</f>
+        <f t="shared" ref="G414:G431" si="29">LOG(T414,10)</f>
         <v>2.3783979009481375</v>
       </c>
       <c r="J414">
@@ -18305,7 +18305,7 @@
         <v>5.5813351400577895</v>
       </c>
       <c r="G415">
-        <f>LOG(T415,10)</f>
+        <f t="shared" si="29"/>
         <v>3.2263420871636304</v>
       </c>
       <c r="J415">
@@ -18347,7 +18347,7 @@
         <v>0</v>
       </c>
       <c r="G416">
-        <f>LOG(T416,10)</f>
+        <f t="shared" si="29"/>
         <v>3.0666989228880857</v>
       </c>
       <c r="J416">
@@ -18389,7 +18389,7 @@
         <v>0</v>
       </c>
       <c r="G417">
-        <f>LOG(T417,10)</f>
+        <f t="shared" si="29"/>
         <v>1.6532125137753435</v>
       </c>
       <c r="J417">
@@ -18425,14 +18425,14 @@
         <v>0</v>
       </c>
       <c r="E418">
-        <f>LOG(P418,10)</f>
+        <f t="shared" ref="E418:E423" si="30">LOG(P418,10)</f>
         <v>4.6560104636521258</v>
       </c>
       <c r="F418">
         <v>0</v>
       </c>
       <c r="G418">
-        <f>LOG(T418,10)</f>
+        <f t="shared" si="29"/>
         <v>3.5287317401056804</v>
       </c>
       <c r="J418">
@@ -18468,14 +18468,14 @@
         <v>0</v>
       </c>
       <c r="E419">
-        <f>LOG(P419,10)</f>
+        <f t="shared" si="30"/>
         <v>3.979880598054006</v>
       </c>
       <c r="F419">
         <v>0</v>
       </c>
       <c r="G419">
-        <f>LOG(T419,10)</f>
+        <f t="shared" si="29"/>
         <v>3.3740584924310237</v>
       </c>
       <c r="J419">
@@ -18511,7 +18511,7 @@
         <v>0</v>
       </c>
       <c r="E420">
-        <f>LOG(P420,10)</f>
+        <f t="shared" si="30"/>
         <v>5.1061486679790864</v>
       </c>
       <c r="F420">
@@ -18519,7 +18519,7 @@
         <v>6.331150071082682</v>
       </c>
       <c r="G420">
-        <f>LOG(T420,10)</f>
+        <f t="shared" si="29"/>
         <v>3.2189405964814823</v>
       </c>
       <c r="J420">
@@ -18555,14 +18555,14 @@
         <v>0</v>
       </c>
       <c r="E421">
-        <f>LOG(P421,10)</f>
+        <f t="shared" si="30"/>
         <v>5.3624697133933612</v>
       </c>
       <c r="F421">
         <v>0</v>
       </c>
       <c r="G421">
-        <f>LOG(T421,10)</f>
+        <f t="shared" si="29"/>
         <v>4.0372893743085605</v>
       </c>
       <c r="J421">
@@ -18598,14 +18598,14 @@
         <v>0</v>
       </c>
       <c r="E422">
-        <f>LOG(P422,10)</f>
+        <f t="shared" si="30"/>
         <v>5.9833855844905415</v>
       </c>
       <c r="F422">
         <v>0</v>
       </c>
       <c r="G422">
-        <f>LOG(T422,10)</f>
+        <f t="shared" si="29"/>
         <v>4.5823830725077546</v>
       </c>
       <c r="J422">
@@ -18641,7 +18641,7 @@
         <v>0</v>
       </c>
       <c r="E423">
-        <f>LOG(P423,10)</f>
+        <f t="shared" si="30"/>
         <v>4.9021117234480043</v>
       </c>
       <c r="F423">
@@ -18649,7 +18649,7 @@
         <v>6.8875910281002843</v>
       </c>
       <c r="G423">
-        <f>LOG(T423,10)</f>
+        <f t="shared" si="29"/>
         <v>3.9780434939099623</v>
       </c>
       <c r="J423">
@@ -18692,7 +18692,7 @@
         <v>6.9229945126833838</v>
       </c>
       <c r="G424">
-        <f>LOG(T424,10)</f>
+        <f t="shared" si="29"/>
         <v>3.7567121601647715</v>
       </c>
       <c r="J424">
@@ -18736,7 +18736,7 @@
         <v>6.6021111264926819</v>
       </c>
       <c r="G425">
-        <f>LOG(T425,10)</f>
+        <f t="shared" si="29"/>
         <v>3.8320616145907271</v>
       </c>
       <c r="J425">
@@ -18779,7 +18779,7 @@
         <v>7.1035848771578998</v>
       </c>
       <c r="G426">
-        <f>LOG(T426,10)</f>
+        <f t="shared" si="29"/>
         <v>4.1556699817198108</v>
       </c>
       <c r="J426">
@@ -18822,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="G427">
-        <f>LOG(T427,10)</f>
+        <f t="shared" si="29"/>
         <v>1.9031008442182764</v>
       </c>
       <c r="J427">
@@ -18864,7 +18864,7 @@
         <v>0</v>
       </c>
       <c r="G428">
-        <f>LOG(T428,10)</f>
+        <f t="shared" si="29"/>
         <v>2.3654879848908994</v>
       </c>
       <c r="J428">
@@ -18906,7 +18906,7 @@
         <v>0</v>
       </c>
       <c r="G429">
-        <f>LOG(T429,10)</f>
+        <f t="shared" si="29"/>
         <v>1.6020491338301954</v>
       </c>
       <c r="J429">
@@ -18950,7 +18950,7 @@
         <v>0</v>
       </c>
       <c r="G430">
-        <f>LOG(T430,10)</f>
+        <f t="shared" si="29"/>
         <v>5.4399244057546534</v>
       </c>
       <c r="J430">
@@ -18993,7 +18993,7 @@
         <v>0</v>
       </c>
       <c r="G431">
-        <f>LOG(T431,10)</f>
+        <f t="shared" si="29"/>
         <v>5.170862858636962</v>
       </c>
       <c r="J431">
@@ -19204,7 +19204,7 @@
         <v>7.2245311462159503</v>
       </c>
       <c r="E436">
-        <f>LOG(P436,10)</f>
+        <f t="shared" ref="E436:E441" si="31">LOG(P436,10)</f>
         <v>5.6774481689917584</v>
       </c>
       <c r="F436">
@@ -19248,7 +19248,7 @@
         <v>0</v>
       </c>
       <c r="E437">
-        <f>LOG(P437,10)</f>
+        <f t="shared" si="31"/>
         <v>5.6553324788121779</v>
       </c>
       <c r="F437">
@@ -19292,7 +19292,7 @@
         <v>0</v>
       </c>
       <c r="E438">
-        <f>LOG(P438,10)</f>
+        <f t="shared" si="31"/>
         <v>5.5792704722804034</v>
       </c>
       <c r="F438">
@@ -19337,7 +19337,7 @@
         <v>0</v>
       </c>
       <c r="E439">
-        <f>LOG(P439,10)</f>
+        <f t="shared" si="31"/>
         <v>4.4346415033811342</v>
       </c>
       <c r="F439">
@@ -19383,7 +19383,7 @@
         <v>0</v>
       </c>
       <c r="E440">
-        <f>LOG(P440,10)</f>
+        <f t="shared" si="31"/>
         <v>4.2326394302900461</v>
       </c>
       <c r="F440">
@@ -19428,7 +19428,7 @@
         <v>0</v>
       </c>
       <c r="E441">
-        <f>LOG(P441,10)</f>
+        <f t="shared" si="31"/>
         <v>3.8617915380173513</v>
       </c>
       <c r="F441">
@@ -19565,7 +19565,7 @@
         <v>5.9934462874068251</v>
       </c>
       <c r="G444">
-        <f>LOG(T444,10)</f>
+        <f t="shared" ref="G444:G452" si="32">LOG(T444,10)</f>
         <v>4.5073659390771024</v>
       </c>
       <c r="J444">
@@ -19610,7 +19610,7 @@
         <v>5.9579311332113569</v>
       </c>
       <c r="G445">
-        <f>LOG(T445,10)</f>
+        <f t="shared" si="32"/>
         <v>4.5355620157076686</v>
       </c>
       <c r="J445">
@@ -19652,7 +19652,7 @@
         <v>0</v>
       </c>
       <c r="G446">
-        <f>LOG(T446,10)</f>
+        <f t="shared" si="32"/>
         <v>5.437784037075768</v>
       </c>
       <c r="J446">
@@ -19694,7 +19694,7 @@
         <v>0</v>
       </c>
       <c r="G447">
-        <f>LOG(T447,10)</f>
+        <f t="shared" si="32"/>
         <v>5.5267756791162714</v>
       </c>
       <c r="J447">
@@ -19731,14 +19731,14 @@
         <v>0</v>
       </c>
       <c r="E448">
-        <f>LOG(P448,10)</f>
+        <f t="shared" ref="E448:E456" si="33">LOG(P448,10)</f>
         <v>5.1142408102867014</v>
       </c>
       <c r="F448">
         <v>0</v>
       </c>
       <c r="G448">
-        <f>LOG(T448,10)</f>
+        <f t="shared" si="32"/>
         <v>4.2634030282678044</v>
       </c>
       <c r="J448">
@@ -19775,14 +19775,14 @@
         <v>0</v>
       </c>
       <c r="E449">
-        <f>LOG(P449,10)</f>
+        <f t="shared" si="33"/>
         <v>5.0165163419464607</v>
       </c>
       <c r="F449">
         <v>0</v>
       </c>
       <c r="G449">
-        <f>LOG(T449,10)</f>
+        <f t="shared" si="32"/>
         <v>4.9318777217268277</v>
       </c>
       <c r="J449">
@@ -19819,14 +19819,14 @@
         <v>0</v>
       </c>
       <c r="E450">
-        <f>LOG(P450,10)</f>
+        <f t="shared" si="33"/>
         <v>5.4556010015674499</v>
       </c>
       <c r="F450">
         <v>0</v>
       </c>
       <c r="G450">
-        <f>LOG(T450,10)</f>
+        <f t="shared" si="32"/>
         <v>4.8309816030137576</v>
       </c>
       <c r="J450">
@@ -19863,14 +19863,14 @@
         <v>0</v>
       </c>
       <c r="E451">
-        <f>LOG(P451,10)</f>
+        <f t="shared" si="33"/>
         <v>3.1076730673656967</v>
       </c>
       <c r="F451">
         <v>0</v>
       </c>
       <c r="G451">
-        <f>LOG(T451,10)</f>
+        <f t="shared" si="32"/>
         <v>4.210956928591842</v>
       </c>
       <c r="J451">
@@ -19908,7 +19908,7 @@
         <v>0</v>
       </c>
       <c r="E452">
-        <f>LOG(P452,10)</f>
+        <f t="shared" si="33"/>
         <v>4.5344355908072451</v>
       </c>
       <c r="F452">
@@ -19916,7 +19916,7 @@
         <v>4.9267145748768195</v>
       </c>
       <c r="G452">
-        <f>LOG(T452,10)</f>
+        <f t="shared" si="32"/>
         <v>3.8765372494954855</v>
       </c>
       <c r="J452">
@@ -19952,7 +19952,7 @@
         <v>0</v>
       </c>
       <c r="E453">
-        <f>LOG(P453,10)</f>
+        <f t="shared" si="33"/>
         <v>4.7223073466195329</v>
       </c>
       <c r="F453">
@@ -19995,7 +19995,7 @@
         <v>0</v>
       </c>
       <c r="E454">
-        <f>LOG(P454,10)</f>
+        <f t="shared" si="33"/>
         <v>3.469821721541126</v>
       </c>
       <c r="F454">
@@ -20039,7 +20039,7 @@
         <v>0</v>
       </c>
       <c r="E455">
-        <f>LOG(P455,10)</f>
+        <f t="shared" si="33"/>
         <v>3.2219355998280053</v>
       </c>
       <c r="F455">
@@ -20082,7 +20082,7 @@
         <v>0</v>
       </c>
       <c r="E456">
-        <f>LOG(P456,10)</f>
+        <f t="shared" si="33"/>
         <v>4.45853209488555</v>
       </c>
       <c r="F456">
@@ -20391,7 +20391,7 @@
         <v>6.6204388099374984</v>
       </c>
       <c r="G463">
-        <f>LOG(T463,10)</f>
+        <f t="shared" ref="G463:G469" si="34">LOG(T463,10)</f>
         <v>3.8115750058705933</v>
       </c>
       <c r="J463">
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="G464">
-        <f>LOG(T464,10)</f>
+        <f t="shared" si="34"/>
         <v>3.6371892218745714</v>
       </c>
       <c r="J464">
@@ -20476,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="G465">
-        <f>LOG(T465,10)</f>
+        <f t="shared" si="34"/>
         <v>2.3201462861110538</v>
       </c>
       <c r="J465">
@@ -20521,7 +20521,7 @@
         <v>5.3708754578801523</v>
       </c>
       <c r="G466">
-        <f>LOG(T466,10)</f>
+        <f t="shared" si="34"/>
         <v>5.364792590603515</v>
       </c>
       <c r="J466">
@@ -20564,7 +20564,7 @@
         <v>0</v>
       </c>
       <c r="G467">
-        <f>LOG(T467,10)</f>
+        <f t="shared" si="34"/>
         <v>2.6283899519184781</v>
       </c>
       <c r="J467">
@@ -20609,7 +20609,7 @@
         <v>6.7551055445483001</v>
       </c>
       <c r="G468">
-        <f>LOG(T468,10)</f>
+        <f t="shared" si="34"/>
         <v>6.2319460515292748</v>
       </c>
       <c r="J468">
@@ -20654,7 +20654,7 @@
         <v>5.9111714633122716</v>
       </c>
       <c r="G469">
-        <f>LOG(T469,10)</f>
+        <f t="shared" si="34"/>
         <v>6.5402771560507365</v>
       </c>
       <c r="J469">
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="G535">
-        <f>LOG(T535,10)</f>
+        <f t="shared" ref="G535:G542" si="35">LOG(T535,10)</f>
         <v>2.0755469613925306</v>
       </c>
       <c r="J535">
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="G536">
-        <f>LOG(T536,10)</f>
+        <f t="shared" si="35"/>
         <v>2.7201593034059566</v>
       </c>
       <c r="J536">
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="G537">
-        <f>LOG(T537,10)</f>
+        <f t="shared" si="35"/>
         <v>3.2667019668840878</v>
       </c>
       <c r="J537">
@@ -23588,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G538">
-        <f>LOG(T538,10)</f>
+        <f t="shared" si="35"/>
         <v>1.4913616938342726</v>
       </c>
       <c r="J538">
@@ -23631,7 +23631,7 @@
         <v>0</v>
       </c>
       <c r="G539">
-        <f>LOG(T539,10)</f>
+        <f t="shared" si="35"/>
         <v>3.2940250940953222</v>
       </c>
       <c r="J539">
@@ -23675,7 +23675,7 @@
         <v>6.268395885706445</v>
       </c>
       <c r="G540">
-        <f>LOG(T540,10)</f>
+        <f t="shared" si="35"/>
         <v>5.1262223494635313</v>
       </c>
       <c r="J540">
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="G541">
-        <f>LOG(T541,10)</f>
+        <f t="shared" si="35"/>
         <v>3.8863779067585718</v>
       </c>
       <c r="J541">
@@ -23764,7 +23764,7 @@
         <v>6.3644742602777074</v>
       </c>
       <c r="G542">
-        <f>LOG(T542,10)</f>
+        <f t="shared" si="35"/>
         <v>3.8993277856003004</v>
       </c>
       <c r="J542">
@@ -25115,7 +25115,7 @@
         <v>0</v>
       </c>
       <c r="C574">
-        <f>LOG(L574,10)</f>
+        <f t="shared" ref="C574:C579" si="36">LOG(L574,10)</f>
         <v>5.1957889845020491</v>
       </c>
       <c r="D574">
@@ -25158,7 +25158,7 @@
         <v>0</v>
       </c>
       <c r="C575">
-        <f>LOG(L575,10)</f>
+        <f t="shared" si="36"/>
         <v>3.6077766037416925</v>
       </c>
       <c r="D575">
@@ -25200,7 +25200,7 @@
         <v>0</v>
       </c>
       <c r="C576">
-        <f>LOG(L576,10)</f>
+        <f t="shared" si="36"/>
         <v>4.3834742570500502</v>
       </c>
       <c r="D576">
@@ -25242,7 +25242,7 @@
         <v>0</v>
       </c>
       <c r="C577">
-        <f>LOG(L577,10)</f>
+        <f t="shared" si="36"/>
         <v>4.6884909941882933</v>
       </c>
       <c r="D577">
@@ -25285,7 +25285,7 @@
         <v>0</v>
       </c>
       <c r="C578">
-        <f>LOG(L578,10)</f>
+        <f t="shared" si="36"/>
         <v>5.1886163570414441</v>
       </c>
       <c r="D578">
@@ -25327,7 +25327,7 @@
         <v>0</v>
       </c>
       <c r="C579">
-        <f>LOG(L579,10)</f>
+        <f t="shared" si="36"/>
         <v>4.7656685547590136</v>
       </c>
       <c r="D579">
@@ -26756,7 +26756,7 @@
         <v>0</v>
       </c>
       <c r="G612">
-        <f>LOG(T612,10)</f>
+        <f t="shared" ref="G612:G618" si="37">LOG(T612,10)</f>
         <v>3.6611494781964149</v>
       </c>
       <c r="J612">
@@ -26798,7 +26798,7 @@
         <v>0</v>
       </c>
       <c r="G613">
-        <f>LOG(T613,10)</f>
+        <f t="shared" si="37"/>
         <v>3.5263399236609132</v>
       </c>
       <c r="J613">
@@ -26843,7 +26843,7 @@
         <v>5.3302067238280753</v>
       </c>
       <c r="G614">
-        <f>LOG(T614,10)</f>
+        <f t="shared" si="37"/>
         <v>5.0473216089770885</v>
       </c>
       <c r="J614">
@@ -26886,7 +26886,7 @@
         <v>0</v>
       </c>
       <c r="G615">
-        <f>LOG(T615,10)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="J615">
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="G616">
-        <f>LOG(T616,10)</f>
+        <f t="shared" si="37"/>
         <v>3.0350288815615172</v>
       </c>
       <c r="J616">
@@ -26971,7 +26971,7 @@
         <v>0</v>
       </c>
       <c r="G617">
-        <f>LOG(T617,10)</f>
+        <f t="shared" si="37"/>
         <v>2.6201350134989307</v>
       </c>
       <c r="J617">
@@ -27014,7 +27014,7 @@
         <v>0</v>
       </c>
       <c r="G618">
-        <f>LOG(T618,10)</f>
+        <f t="shared" si="37"/>
         <v>3.9297254294354294</v>
       </c>
       <c r="J618">
@@ -27223,7 +27223,7 @@
         <v>0</v>
       </c>
       <c r="E623">
-        <f>LOG(P623,10)</f>
+        <f t="shared" ref="E623:E629" si="38">LOG(P623,10)</f>
         <v>2.4828735836087534</v>
       </c>
       <c r="F623">
@@ -27267,14 +27267,14 @@
         <v>0</v>
       </c>
       <c r="E624">
-        <f>LOG(P624,10)</f>
+        <f t="shared" si="38"/>
         <v>6.1535196000947812</v>
       </c>
       <c r="F624">
         <v>0</v>
       </c>
       <c r="G624">
-        <f>LOG(T624,10)</f>
+        <f t="shared" ref="G624:G629" si="39">LOG(T624,10)</f>
         <v>6.1695307942939239</v>
       </c>
       <c r="J624">
@@ -27311,14 +27311,14 @@
         <v>0</v>
       </c>
       <c r="E625">
-        <f>LOG(P625,10)</f>
+        <f t="shared" si="38"/>
         <v>3.6031443726201817</v>
       </c>
       <c r="F625">
         <v>0</v>
       </c>
       <c r="G625">
-        <f>LOG(T625,10)</f>
+        <f t="shared" si="39"/>
         <v>3.4369574894608212</v>
       </c>
       <c r="J625">
@@ -27354,7 +27354,7 @@
         <v>0</v>
       </c>
       <c r="E626">
-        <f>LOG(P626,10)</f>
+        <f t="shared" si="38"/>
         <v>4.3756272414178321</v>
       </c>
       <c r="F626">
@@ -27362,7 +27362,7 @@
         <v>5.982313302375065</v>
       </c>
       <c r="G626">
-        <f>LOG(T626,10)</f>
+        <f t="shared" si="39"/>
         <v>3.0584279225930753</v>
       </c>
       <c r="J626">
@@ -27400,7 +27400,7 @@
         <v>0</v>
       </c>
       <c r="E627">
-        <f>LOG(P627,10)</f>
+        <f t="shared" si="38"/>
         <v>5.1772124897724074</v>
       </c>
       <c r="F627">
@@ -27408,7 +27408,7 @@
         <v>5.3458733863595373</v>
       </c>
       <c r="G627">
-        <f>LOG(T627,10)</f>
+        <f t="shared" si="39"/>
         <v>3.8679854342125899</v>
       </c>
       <c r="J627">
@@ -27444,14 +27444,14 @@
         <v>0</v>
       </c>
       <c r="E628">
-        <f>LOG(P628,10)</f>
+        <f t="shared" si="38"/>
         <v>5.0440008787033808</v>
       </c>
       <c r="F628">
         <v>0</v>
       </c>
       <c r="G628">
-        <f>LOG(T628,10)</f>
+        <f t="shared" si="39"/>
         <v>5.2660461354374632</v>
       </c>
       <c r="J628">
@@ -27482,14 +27482,14 @@
         <v>5.6048967037377722</v>
       </c>
       <c r="C629">
-        <f>LOG(L629,10)</f>
+        <f t="shared" ref="C629:C635" si="40">LOG(L629,10)</f>
         <v>5.3454893963037575</v>
       </c>
       <c r="D629">
         <v>0</v>
       </c>
       <c r="E629">
-        <f>LOG(P629,10)</f>
+        <f t="shared" si="38"/>
         <v>5.8401233484706037</v>
       </c>
       <c r="F629">
@@ -27497,7 +27497,7 @@
         <v>4.0165737462691231</v>
       </c>
       <c r="G629">
-        <f>LOG(T629,10)</f>
+        <f t="shared" si="39"/>
         <v>4.2391080237044489</v>
       </c>
       <c r="J629">
@@ -27527,7 +27527,7 @@
         <v>0</v>
       </c>
       <c r="C630">
-        <f>LOG(L630,10)</f>
+        <f t="shared" si="40"/>
         <v>4.4171726328985148</v>
       </c>
       <c r="D630">
@@ -27570,7 +27570,7 @@
         <v>5.2114729593456559</v>
       </c>
       <c r="C631">
-        <f>LOG(L631,10)</f>
+        <f t="shared" si="40"/>
         <v>3.3626713065536871</v>
       </c>
       <c r="D631">
@@ -27615,7 +27615,7 @@
         <v>2.8475732760372447</v>
       </c>
       <c r="C632">
-        <f>LOG(L632,10)</f>
+        <f t="shared" si="40"/>
         <v>4.358658049603239</v>
       </c>
       <c r="D632">
@@ -27660,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="C633">
-        <f>LOG(L633,10)</f>
+        <f t="shared" si="40"/>
         <v>4.0950646895486349</v>
       </c>
       <c r="D633">
@@ -27702,7 +27702,7 @@
         <v>0</v>
       </c>
       <c r="C634">
-        <f>LOG(L634,10)</f>
+        <f t="shared" si="40"/>
         <v>4.610755942136465</v>
       </c>
       <c r="D634">
@@ -27744,7 +27744,7 @@
         <v>0</v>
       </c>
       <c r="C635">
-        <f>LOG(L635,10)</f>
+        <f t="shared" si="40"/>
         <v>4.3830250029575364</v>
       </c>
       <c r="D635">
@@ -28000,7 +28000,7 @@
         <v>24005</v>
       </c>
       <c r="B641">
-        <f>LOG(J641,10)</f>
+        <f t="shared" ref="B641:B646" si="41">LOG(J641,10)</f>
         <v>4.1787469116348213</v>
       </c>
       <c r="C641">
@@ -28043,7 +28043,7 @@
         <v>24009</v>
       </c>
       <c r="B642">
-        <f>LOG(J642,10)</f>
+        <f t="shared" si="41"/>
         <v>4.3846222601025131</v>
       </c>
       <c r="C642">
@@ -28085,7 +28085,7 @@
         <v>24015</v>
       </c>
       <c r="B643">
-        <f>LOG(J643,10)</f>
+        <f t="shared" si="41"/>
         <v>4.9127426850945204</v>
       </c>
       <c r="C643">
@@ -28127,7 +28127,7 @@
         <v>24017</v>
       </c>
       <c r="B644">
-        <f>LOG(J644,10)</f>
+        <f t="shared" si="41"/>
         <v>4.6412163129506263</v>
       </c>
       <c r="C644">
@@ -28169,7 +28169,7 @@
         <v>24019</v>
       </c>
       <c r="B645">
-        <f>LOG(J645,10)</f>
+        <f t="shared" si="41"/>
         <v>4.5947018170348279</v>
       </c>
       <c r="C645">
@@ -28211,7 +28211,7 @@
         <v>24021</v>
       </c>
       <c r="B646">
-        <f>LOG(J646,10)</f>
+        <f t="shared" si="41"/>
         <v>4.8825758078602259</v>
       </c>
       <c r="C646">
@@ -28604,7 +28604,7 @@
         <v>0</v>
       </c>
       <c r="E655">
-        <f>LOG(P655,10)</f>
+        <f t="shared" ref="E655:E661" si="42">LOG(P655,10)</f>
         <v>6.3328268928590186</v>
       </c>
       <c r="F655">
@@ -28650,7 +28650,7 @@
         <v>0</v>
       </c>
       <c r="E656">
-        <f>LOG(P656,10)</f>
+        <f t="shared" si="42"/>
         <v>5.9627760896688144</v>
       </c>
       <c r="F656">
@@ -28693,7 +28693,7 @@
         <v>0</v>
       </c>
       <c r="E657">
-        <f>LOG(P657,10)</f>
+        <f t="shared" si="42"/>
         <v>6.409133590143564</v>
       </c>
       <c r="F657">
@@ -28737,7 +28737,7 @@
         <v>0</v>
       </c>
       <c r="E658">
-        <f>LOG(P658,10)</f>
+        <f t="shared" si="42"/>
         <v>4.4561790000830026</v>
       </c>
       <c r="F658">
@@ -28783,7 +28783,7 @@
         <v>0</v>
       </c>
       <c r="E659">
-        <f>LOG(P659,10)</f>
+        <f t="shared" si="42"/>
         <v>5.1581094418514999</v>
       </c>
       <c r="F659">
@@ -28828,7 +28828,7 @@
         <v>0</v>
       </c>
       <c r="E660">
-        <f>LOG(P660,10)</f>
+        <f t="shared" si="42"/>
         <v>6.9353315982879629</v>
       </c>
       <c r="F660">
@@ -28873,7 +28873,7 @@
         <v>0</v>
       </c>
       <c r="E661">
-        <f>LOG(P661,10)</f>
+        <f t="shared" si="42"/>
         <v>6.0243583983068136</v>
       </c>
       <c r="F661">
@@ -28957,7 +28957,7 @@
         <v>0</v>
       </c>
       <c r="E663">
-        <f>LOG(P663,10)</f>
+        <f t="shared" ref="E663:E671" si="43">LOG(P663,10)</f>
         <v>4.3586770654974956</v>
       </c>
       <c r="F663">
@@ -29001,7 +29001,7 @@
         <v>0</v>
       </c>
       <c r="E664">
-        <f>LOG(P664,10)</f>
+        <f t="shared" si="43"/>
         <v>6.3881706477729514</v>
       </c>
       <c r="F664">
@@ -29045,7 +29045,7 @@
         <v>0</v>
       </c>
       <c r="E665">
-        <f>LOG(P665,10)</f>
+        <f t="shared" si="43"/>
         <v>4.7537055861822362</v>
       </c>
       <c r="F665">
@@ -29091,7 +29091,7 @@
         <v>0</v>
       </c>
       <c r="E666">
-        <f>LOG(P666,10)</f>
+        <f t="shared" si="43"/>
         <v>3.575303217949243</v>
       </c>
       <c r="F666">
@@ -29137,7 +29137,7 @@
         <v>0</v>
       </c>
       <c r="E667">
-        <f>LOG(P667,10)</f>
+        <f t="shared" si="43"/>
         <v>1.959022302034187</v>
       </c>
       <c r="F667">
@@ -29182,7 +29182,7 @@
         <v>0</v>
       </c>
       <c r="E668">
-        <f>LOG(P668,10)</f>
+        <f t="shared" si="43"/>
         <v>2.399671991220691</v>
       </c>
       <c r="F668">
@@ -29225,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="E669">
-        <f>LOG(P669,10)</f>
+        <f t="shared" si="43"/>
         <v>4.848589345869172</v>
       </c>
       <c r="F669">
@@ -29267,7 +29267,7 @@
         <v>0</v>
       </c>
       <c r="E670">
-        <f>LOG(P670,10)</f>
+        <f t="shared" si="43"/>
         <v>5.8157838646401494</v>
       </c>
       <c r="F670">
@@ -29312,7 +29312,7 @@
         <v>0</v>
       </c>
       <c r="E671">
-        <f>LOG(P671,10)</f>
+        <f t="shared" si="43"/>
         <v>3.9412554514217968</v>
       </c>
       <c r="F671">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="E676">
-        <f>LOG(P676,10)</f>
+        <f t="shared" ref="E676:E681" si="44">LOG(P676,10)</f>
         <v>4.2889195833329596</v>
       </c>
       <c r="F676">
@@ -29570,7 +29570,7 @@
         <v>0</v>
       </c>
       <c r="E677">
-        <f>LOG(P677,10)</f>
+        <f t="shared" si="44"/>
         <v>3.4502961989966026</v>
       </c>
       <c r="F677">
@@ -29615,7 +29615,7 @@
         <v>0</v>
       </c>
       <c r="E678">
-        <f>LOG(P678,10)</f>
+        <f t="shared" si="44"/>
         <v>2.2774345446741169</v>
       </c>
       <c r="F678">
@@ -29657,7 +29657,7 @@
         <v>0</v>
       </c>
       <c r="E679">
-        <f>LOG(P679,10)</f>
+        <f t="shared" si="44"/>
         <v>5.9414463332737117</v>
       </c>
       <c r="F679">
@@ -29701,7 +29701,7 @@
         <v>0</v>
       </c>
       <c r="E680">
-        <f>LOG(P680,10)</f>
+        <f t="shared" si="44"/>
         <v>3.9681091543896581</v>
       </c>
       <c r="F680">
@@ -29744,7 +29744,7 @@
         <v>0</v>
       </c>
       <c r="E681">
-        <f>LOG(P681,10)</f>
+        <f t="shared" si="44"/>
         <v>3.3721751017795061</v>
       </c>
       <c r="F681">
@@ -29828,7 +29828,7 @@
         <v>0</v>
       </c>
       <c r="E683">
-        <f>LOG(P683,10)</f>
+        <f t="shared" ref="E683:E689" si="45">LOG(P683,10)</f>
         <v>4.2259808587686747</v>
       </c>
       <c r="F683">
@@ -29872,7 +29872,7 @@
         <v>0</v>
       </c>
       <c r="E684">
-        <f>LOG(P684,10)</f>
+        <f t="shared" si="45"/>
         <v>2.9122220565324155</v>
       </c>
       <c r="F684">
@@ -29915,7 +29915,7 @@
         <v>0</v>
       </c>
       <c r="E685">
-        <f>LOG(P685,10)</f>
+        <f t="shared" si="45"/>
         <v>3.5929535715478651</v>
       </c>
       <c r="F685">
@@ -29959,7 +29959,7 @@
         <v>0</v>
       </c>
       <c r="E686">
-        <f>LOG(P686,10)</f>
+        <f t="shared" si="45"/>
         <v>2.0211892990699378</v>
       </c>
       <c r="F686">
@@ -30003,7 +30003,7 @@
         <v>6.7904099441797747</v>
       </c>
       <c r="E687">
-        <f>LOG(P687,10)</f>
+        <f t="shared" si="45"/>
         <v>4.2342134748385947</v>
       </c>
       <c r="F687">
@@ -30048,7 +30048,7 @@
         <v>0</v>
       </c>
       <c r="E688">
-        <f>LOG(P688,10)</f>
+        <f t="shared" si="45"/>
         <v>3.8559439785654712</v>
       </c>
       <c r="F688">
@@ -30091,7 +30091,7 @@
         <v>0</v>
       </c>
       <c r="E689">
-        <f>LOG(P689,10)</f>
+        <f t="shared" si="45"/>
         <v>5.844572652875522</v>
       </c>
       <c r="F689">
@@ -30775,7 +30775,7 @@
         <v>0</v>
       </c>
       <c r="E705">
-        <f>LOG(P705,10)</f>
+        <f t="shared" ref="E705:E710" si="46">LOG(P705,10)</f>
         <v>1.6334684555795864</v>
       </c>
       <c r="F705">
@@ -30818,7 +30818,7 @@
         <v>0</v>
       </c>
       <c r="E706">
-        <f>LOG(P706,10)</f>
+        <f t="shared" si="46"/>
         <v>2.1327583293744494</v>
       </c>
       <c r="F706">
@@ -30863,7 +30863,7 @@
         <v>0</v>
       </c>
       <c r="E707">
-        <f>LOG(P707,10)</f>
+        <f t="shared" si="46"/>
         <v>6.3896295571196831</v>
       </c>
       <c r="F707">
@@ -30907,7 +30907,7 @@
         <v>0</v>
       </c>
       <c r="E708">
-        <f>LOG(P708,10)</f>
+        <f t="shared" si="46"/>
         <v>5.9104221494358535</v>
       </c>
       <c r="F708">
@@ -30951,7 +30951,7 @@
         <v>0</v>
       </c>
       <c r="E709">
-        <f>LOG(P709,10)</f>
+        <f t="shared" si="46"/>
         <v>5.5020085090288173</v>
       </c>
       <c r="F709">
@@ -30994,7 +30994,7 @@
         <v>0</v>
       </c>
       <c r="E710">
-        <f>LOG(P710,10)</f>
+        <f t="shared" si="46"/>
         <v>3.7693772522165259</v>
       </c>
       <c r="F710">
@@ -31111,7 +31111,7 @@
         <v>26133</v>
       </c>
       <c r="B713">
-        <f>LOG(J713,10)</f>
+        <f t="shared" ref="B713:B718" si="47">LOG(J713,10)</f>
         <v>2.7469150763839099</v>
       </c>
       <c r="C713">
@@ -31155,7 +31155,7 @@
         <v>26135</v>
       </c>
       <c r="B714">
-        <f>LOG(J714,10)</f>
+        <f t="shared" si="47"/>
         <v>2.7280289544205183</v>
       </c>
       <c r="C714">
@@ -31197,7 +31197,7 @@
         <v>26137</v>
       </c>
       <c r="B715">
-        <f>LOG(J715,10)</f>
+        <f t="shared" si="47"/>
         <v>3.2019206933861382</v>
       </c>
       <c r="C715">
@@ -31239,7 +31239,7 @@
         <v>26139</v>
       </c>
       <c r="B716">
-        <f>LOG(J716,10)</f>
+        <f t="shared" si="47"/>
         <v>3.6954727453424869</v>
       </c>
       <c r="C716">
@@ -31281,7 +31281,7 @@
         <v>26141</v>
       </c>
       <c r="B717">
-        <f>LOG(J717,10)</f>
+        <f t="shared" si="47"/>
         <v>2.7207297156790187</v>
       </c>
       <c r="C717">
@@ -31323,7 +31323,7 @@
         <v>26145</v>
       </c>
       <c r="B718">
-        <f>LOG(J718,10)</f>
+        <f t="shared" si="47"/>
         <v>1.8407457681822295</v>
       </c>
       <c r="C718">
@@ -31580,7 +31580,7 @@
         <v>0</v>
       </c>
       <c r="C724">
-        <f>LOG(L724,10)</f>
+        <f t="shared" ref="C724:C735" si="48">LOG(L724,10)</f>
         <v>5.1721006337851767</v>
       </c>
       <c r="D724">
@@ -31624,7 +31624,7 @@
         <v>0</v>
       </c>
       <c r="C725">
-        <f>LOG(L725,10)</f>
+        <f t="shared" si="48"/>
         <v>5.5693687249742316</v>
       </c>
       <c r="D725">
@@ -31666,7 +31666,7 @@
         <v>0</v>
       </c>
       <c r="C726">
-        <f>LOG(L726,10)</f>
+        <f t="shared" si="48"/>
         <v>4.791487135431221</v>
       </c>
       <c r="D726">
@@ -31711,7 +31711,7 @@
         <v>0</v>
       </c>
       <c r="C727">
-        <f>LOG(L727,10)</f>
+        <f t="shared" si="48"/>
         <v>5.0906706518403135</v>
       </c>
       <c r="D727">
@@ -31757,7 +31757,7 @@
         <v>0</v>
       </c>
       <c r="C728">
-        <f>LOG(L728,10)</f>
+        <f t="shared" si="48"/>
         <v>3.9902498552658932</v>
       </c>
       <c r="D728">
@@ -31801,7 +31801,7 @@
         <v>0</v>
       </c>
       <c r="C729">
-        <f>LOG(L729,10)</f>
+        <f t="shared" si="48"/>
         <v>3.8826950347937039</v>
       </c>
       <c r="D729">
@@ -31843,7 +31843,7 @@
         <v>0</v>
       </c>
       <c r="C730">
-        <f>LOG(L730,10)</f>
+        <f t="shared" si="48"/>
         <v>3.6040095000631029</v>
       </c>
       <c r="D730">
@@ -31885,7 +31885,7 @@
         <v>0</v>
       </c>
       <c r="C731">
-        <f>LOG(L731,10)</f>
+        <f t="shared" si="48"/>
         <v>4.5457400073161809</v>
       </c>
       <c r="D731">
@@ -31927,7 +31927,7 @@
         <v>0</v>
       </c>
       <c r="C732">
-        <f>LOG(L732,10)</f>
+        <f t="shared" si="48"/>
         <v>5.001326894654329</v>
       </c>
       <c r="D732">
@@ -31970,7 +31970,7 @@
         <v>4.6340941966159592</v>
       </c>
       <c r="C733">
-        <f>LOG(L733,10)</f>
+        <f t="shared" si="48"/>
         <v>5.5492338479753727</v>
       </c>
       <c r="D733">
@@ -32014,7 +32014,7 @@
         <v>0</v>
       </c>
       <c r="C734">
-        <f>LOG(L734,10)</f>
+        <f t="shared" si="48"/>
         <v>5.2704622263731373</v>
       </c>
       <c r="D734">
@@ -32058,7 +32058,7 @@
         <v>0</v>
       </c>
       <c r="C735">
-        <f>LOG(L735,10)</f>
+        <f t="shared" si="48"/>
         <v>4.117436892724192</v>
       </c>
       <c r="D735">
@@ -32653,14 +32653,14 @@
         <v>0</v>
       </c>
       <c r="E749">
-        <f>LOG(P749,10)</f>
+        <f t="shared" ref="E749:E754" si="49">LOG(P749,10)</f>
         <v>6.6336798509956312</v>
       </c>
       <c r="F749">
         <v>0</v>
       </c>
       <c r="G749">
-        <f>LOG(T749,10)</f>
+        <f t="shared" ref="G749:G754" si="50">LOG(T749,10)</f>
         <v>5.4959798011597254</v>
       </c>
       <c r="J749">
@@ -32698,14 +32698,14 @@
         <v>0</v>
       </c>
       <c r="E750">
-        <f>LOG(P750,10)</f>
+        <f t="shared" si="49"/>
         <v>3.8794810087824341</v>
       </c>
       <c r="F750">
         <v>0</v>
       </c>
       <c r="G750">
-        <f>LOG(T750,10)</f>
+        <f t="shared" si="50"/>
         <v>5.603467924703768</v>
       </c>
       <c r="J750">
@@ -32741,14 +32741,14 @@
         <v>0</v>
       </c>
       <c r="E751">
-        <f>LOG(P751,10)</f>
+        <f t="shared" si="49"/>
         <v>0.69931730102138223</v>
       </c>
       <c r="F751">
         <v>0</v>
       </c>
       <c r="G751">
-        <f>LOG(T751,10)</f>
+        <f t="shared" si="50"/>
         <v>0.77815125038364352</v>
       </c>
       <c r="J751">
@@ -32784,14 +32784,14 @@
         <v>0</v>
       </c>
       <c r="E752">
-        <f>LOG(P752,10)</f>
+        <f t="shared" si="49"/>
         <v>2.1037900421741824</v>
       </c>
       <c r="F752">
         <v>0</v>
       </c>
       <c r="G752">
-        <f>LOG(T752,10)</f>
+        <f t="shared" si="50"/>
         <v>1.7708372895457714</v>
       </c>
       <c r="J752">
@@ -32827,14 +32827,14 @@
         <v>0</v>
       </c>
       <c r="E753">
-        <f>LOG(P753,10)</f>
+        <f t="shared" si="49"/>
         <v>6.4915093284414445</v>
       </c>
       <c r="F753">
         <v>0</v>
       </c>
       <c r="G753">
-        <f>LOG(T753,10)</f>
+        <f t="shared" si="50"/>
         <v>2.3138672203691533</v>
       </c>
       <c r="J753">
@@ -32870,14 +32870,14 @@
         <v>0</v>
       </c>
       <c r="E754">
-        <f>LOG(P754,10)</f>
+        <f t="shared" si="49"/>
         <v>4.6406106327826269</v>
       </c>
       <c r="F754">
         <v>0</v>
       </c>
       <c r="G754">
-        <f>LOG(T754,10)</f>
+        <f t="shared" si="50"/>
         <v>2.9116906909771645</v>
       </c>
       <c r="J754">
@@ -33380,7 +33380,7 @@
         <v>0</v>
       </c>
       <c r="E766">
-        <f>LOG(P766,10)</f>
+        <f t="shared" ref="E766:E775" si="51">LOG(P766,10)</f>
         <v>4.9167539029469216</v>
       </c>
       <c r="F766">
@@ -33423,7 +33423,7 @@
         <v>0</v>
       </c>
       <c r="E767">
-        <f>LOG(P767,10)</f>
+        <f t="shared" si="51"/>
         <v>4.5902300716753119</v>
       </c>
       <c r="F767">
@@ -33466,7 +33466,7 @@
         <v>6.6095390251444863</v>
       </c>
       <c r="E768">
-        <f>LOG(P768,10)</f>
+        <f t="shared" si="51"/>
         <v>4.7526475913303088</v>
       </c>
       <c r="F768">
@@ -33511,7 +33511,7 @@
         <v>0</v>
       </c>
       <c r="E769">
-        <f>LOG(P769,10)</f>
+        <f t="shared" si="51"/>
         <v>4.5751762943889061</v>
       </c>
       <c r="F769">
@@ -33555,7 +33555,7 @@
         <v>0</v>
       </c>
       <c r="E770">
-        <f>LOG(P770,10)</f>
+        <f t="shared" si="51"/>
         <v>4.517195897949974</v>
       </c>
       <c r="F770">
@@ -33598,7 +33598,7 @@
         <v>0</v>
       </c>
       <c r="E771">
-        <f>LOG(P771,10)</f>
+        <f t="shared" si="51"/>
         <v>4.4705445104207007</v>
       </c>
       <c r="F771">
@@ -33641,7 +33641,7 @@
         <v>0</v>
       </c>
       <c r="E772">
-        <f>LOG(P772,10)</f>
+        <f t="shared" si="51"/>
         <v>2.4548448600085102</v>
       </c>
       <c r="F772">
@@ -33683,7 +33683,7 @@
         <v>0</v>
       </c>
       <c r="E773">
-        <f>LOG(P773,10)</f>
+        <f t="shared" si="51"/>
         <v>4.0080505693599822</v>
       </c>
       <c r="F773">
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="E774">
-        <f>LOG(P774,10)</f>
+        <f t="shared" si="51"/>
         <v>5.9288891573929501</v>
       </c>
       <c r="F774">
@@ -33770,7 +33770,7 @@
         <v>0</v>
       </c>
       <c r="E775">
-        <f>LOG(P775,10)</f>
+        <f t="shared" si="51"/>
         <v>5.306360682861051</v>
       </c>
       <c r="F775">
@@ -34664,7 +34664,7 @@
         <v>0</v>
       </c>
       <c r="C796">
-        <f>LOG(L796,10)</f>
+        <f t="shared" ref="C796:C834" si="52">LOG(L796,10)</f>
         <v>5.0023561547044126</v>
       </c>
       <c r="D796">
@@ -34706,7 +34706,7 @@
         <v>0</v>
       </c>
       <c r="C797">
-        <f>LOG(L797,10)</f>
+        <f t="shared" si="52"/>
         <v>5.5663325888646069</v>
       </c>
       <c r="D797">
@@ -34748,7 +34748,7 @@
         <v>0</v>
       </c>
       <c r="C798">
-        <f>LOG(L798,10)</f>
+        <f t="shared" si="52"/>
         <v>5.7636390992188176</v>
       </c>
       <c r="D798">
@@ -34790,7 +34790,7 @@
         <v>0</v>
       </c>
       <c r="C799">
-        <f>LOG(L799,10)</f>
+        <f t="shared" si="52"/>
         <v>5.4698691233331349</v>
       </c>
       <c r="D799">
@@ -34832,7 +34832,7 @@
         <v>0</v>
       </c>
       <c r="C800">
-        <f>LOG(L800,10)</f>
+        <f t="shared" si="52"/>
         <v>5.6525103195426087</v>
       </c>
       <c r="D800">
@@ -34874,7 +34874,7 @@
         <v>0</v>
       </c>
       <c r="C801">
-        <f>LOG(L801,10)</f>
+        <f t="shared" si="52"/>
         <v>4.4687755049857643</v>
       </c>
       <c r="D801">
@@ -34916,7 +34916,7 @@
         <v>0</v>
       </c>
       <c r="C802">
-        <f>LOG(L802,10)</f>
+        <f t="shared" si="52"/>
         <v>4.9424545263424768</v>
       </c>
       <c r="D802">
@@ -34958,7 +34958,7 @@
         <v>0</v>
       </c>
       <c r="C803">
-        <f>LOG(L803,10)</f>
+        <f t="shared" si="52"/>
         <v>4.0323366598457353</v>
       </c>
       <c r="D803">
@@ -35000,7 +35000,7 @@
         <v>0</v>
       </c>
       <c r="C804">
-        <f>LOG(L804,10)</f>
+        <f t="shared" si="52"/>
         <v>5.4993584887795102</v>
       </c>
       <c r="D804">
@@ -35042,7 +35042,7 @@
         <v>0</v>
       </c>
       <c r="C805">
-        <f>LOG(L805,10)</f>
+        <f t="shared" si="52"/>
         <v>4.9826555944771744</v>
       </c>
       <c r="D805">
@@ -35084,7 +35084,7 @@
         <v>0</v>
       </c>
       <c r="C806">
-        <f>LOG(L806,10)</f>
+        <f t="shared" si="52"/>
         <v>5.7115195718192497</v>
       </c>
       <c r="D806">
@@ -35126,7 +35126,7 @@
         <v>0</v>
       </c>
       <c r="C807">
-        <f>LOG(L807,10)</f>
+        <f t="shared" si="52"/>
         <v>5.8602026053930096</v>
       </c>
       <c r="D807">
@@ -35168,7 +35168,7 @@
         <v>0</v>
       </c>
       <c r="C808">
-        <f>LOG(L808,10)</f>
+        <f t="shared" si="52"/>
         <v>4.7939858430393985</v>
       </c>
       <c r="D808">
@@ -35210,7 +35210,7 @@
         <v>0</v>
       </c>
       <c r="C809">
-        <f>LOG(L809,10)</f>
+        <f t="shared" si="52"/>
         <v>4.3020060605865398</v>
       </c>
       <c r="D809">
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="C810">
-        <f>LOG(L810,10)</f>
+        <f t="shared" si="52"/>
         <v>4.5582524418515549</v>
       </c>
       <c r="D810">
@@ -35294,7 +35294,7 @@
         <v>0</v>
       </c>
       <c r="C811">
-        <f>LOG(L811,10)</f>
+        <f t="shared" si="52"/>
         <v>4.7073401946070437</v>
       </c>
       <c r="D811">
@@ -35338,7 +35338,7 @@
         <v>0</v>
       </c>
       <c r="C812">
-        <f>LOG(L812,10)</f>
+        <f t="shared" si="52"/>
         <v>5.9300285536538917</v>
       </c>
       <c r="D812">
@@ -35380,7 +35380,7 @@
         <v>0</v>
       </c>
       <c r="C813">
-        <f>LOG(L813,10)</f>
+        <f t="shared" si="52"/>
         <v>3.7728349272390176</v>
       </c>
       <c r="D813">
@@ -35422,7 +35422,7 @@
         <v>0</v>
       </c>
       <c r="C814">
-        <f>LOG(L814,10)</f>
+        <f t="shared" si="52"/>
         <v>4.0601688119451476</v>
       </c>
       <c r="D814">
@@ -35464,7 +35464,7 @@
         <v>0</v>
       </c>
       <c r="C815">
-        <f>LOG(L815,10)</f>
+        <f t="shared" si="52"/>
         <v>4.1888160305023527</v>
       </c>
       <c r="D815">
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="C816">
-        <f>LOG(L816,10)</f>
+        <f t="shared" si="52"/>
         <v>4.0211065684321214</v>
       </c>
       <c r="D816">
@@ -35548,7 +35548,7 @@
         <v>0</v>
       </c>
       <c r="C817">
-        <f>LOG(L817,10)</f>
+        <f t="shared" si="52"/>
         <v>5.4098418612060541</v>
       </c>
       <c r="D817">
@@ -35590,7 +35590,7 @@
         <v>0</v>
       </c>
       <c r="C818">
-        <f>LOG(L818,10)</f>
+        <f t="shared" si="52"/>
         <v>5.9502552931826465</v>
       </c>
       <c r="D818">
@@ -35632,7 +35632,7 @@
         <v>0</v>
       </c>
       <c r="C819">
-        <f>LOG(L819,10)</f>
+        <f t="shared" si="52"/>
         <v>5.9481673830342388</v>
       </c>
       <c r="D819">
@@ -35674,7 +35674,7 @@
         <v>0</v>
       </c>
       <c r="C820">
-        <f>LOG(L820,10)</f>
+        <f t="shared" si="52"/>
         <v>5.5495415025855506</v>
       </c>
       <c r="D820">
@@ -35716,7 +35716,7 @@
         <v>0</v>
       </c>
       <c r="C821">
-        <f>LOG(L821,10)</f>
+        <f t="shared" si="52"/>
         <v>6.0438583872494664</v>
       </c>
       <c r="D821">
@@ -35758,7 +35758,7 @@
         <v>0</v>
       </c>
       <c r="C822">
-        <f>LOG(L822,10)</f>
+        <f t="shared" si="52"/>
         <v>5.7344069473462174</v>
       </c>
       <c r="D822">
@@ -35800,7 +35800,7 @@
         <v>0</v>
       </c>
       <c r="C823">
-        <f>LOG(L823,10)</f>
+        <f t="shared" si="52"/>
         <v>5.1923443950461241</v>
       </c>
       <c r="D823">
@@ -35842,7 +35842,7 @@
         <v>0</v>
       </c>
       <c r="C824">
-        <f>LOG(L824,10)</f>
+        <f t="shared" si="52"/>
         <v>4.7288081328881537</v>
       </c>
       <c r="D824">
@@ -35884,7 +35884,7 @@
         <v>0</v>
       </c>
       <c r="C825">
-        <f>LOG(L825,10)</f>
+        <f t="shared" si="52"/>
         <v>4.5070188464164325</v>
       </c>
       <c r="D825">
@@ -35926,7 +35926,7 @@
         <v>0</v>
       </c>
       <c r="C826">
-        <f>LOG(L826,10)</f>
+        <f t="shared" si="52"/>
         <v>3.9635044994142903</v>
       </c>
       <c r="D826">
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="C827">
-        <f>LOG(L827,10)</f>
+        <f t="shared" si="52"/>
         <v>4.4658436729370852</v>
       </c>
       <c r="D827">
@@ -36010,7 +36010,7 @@
         <v>0</v>
       </c>
       <c r="C828">
-        <f>LOG(L828,10)</f>
+        <f t="shared" si="52"/>
         <v>5.5297331255693454</v>
       </c>
       <c r="D828">
@@ -36052,7 +36052,7 @@
         <v>0</v>
       </c>
       <c r="C829">
-        <f>LOG(L829,10)</f>
+        <f t="shared" si="52"/>
         <v>5.6096200179727962</v>
       </c>
       <c r="D829">
@@ -36094,7 +36094,7 @@
         <v>0</v>
       </c>
       <c r="C830">
-        <f>LOG(L830,10)</f>
+        <f t="shared" si="52"/>
         <v>5.3968616206023148</v>
       </c>
       <c r="D830">
@@ -36136,7 +36136,7 @@
         <v>0</v>
       </c>
       <c r="C831">
-        <f>LOG(L831,10)</f>
+        <f t="shared" si="52"/>
         <v>4.7269308641214653</v>
       </c>
       <c r="D831">
@@ -36178,7 +36178,7 @@
         <v>0</v>
       </c>
       <c r="C832">
-        <f>LOG(L832,10)</f>
+        <f t="shared" si="52"/>
         <v>4.5898044400952367</v>
       </c>
       <c r="D832">
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="C833">
-        <f>LOG(L833,10)</f>
+        <f t="shared" si="52"/>
         <v>5.5598743209393566</v>
       </c>
       <c r="D833">
@@ -36262,7 +36262,7 @@
         <v>0</v>
       </c>
       <c r="C834">
-        <f>LOG(L834,10)</f>
+        <f t="shared" si="52"/>
         <v>3.7153346837923125</v>
       </c>
       <c r="D834">
@@ -36599,7 +36599,7 @@
         <v>0</v>
       </c>
       <c r="C842">
-        <f>LOG(L842,10)</f>
+        <f t="shared" ref="C842:C859" si="53">LOG(L842,10)</f>
         <v>4.7682828259000463</v>
       </c>
       <c r="D842">
@@ -36641,7 +36641,7 @@
         <v>0</v>
       </c>
       <c r="C843">
-        <f>LOG(L843,10)</f>
+        <f t="shared" si="53"/>
         <v>3.7913397039651393</v>
       </c>
       <c r="D843">
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="C844">
-        <f>LOG(L844,10)</f>
+        <f t="shared" si="53"/>
         <v>5.0862138582813685</v>
       </c>
       <c r="D844">
@@ -36725,7 +36725,7 @@
         <v>0</v>
       </c>
       <c r="C845">
-        <f>LOG(L845,10)</f>
+        <f t="shared" si="53"/>
         <v>3.9742813127988379</v>
       </c>
       <c r="D845">
@@ -36767,7 +36767,7 @@
         <v>0</v>
       </c>
       <c r="C846">
-        <f>LOG(L846,10)</f>
+        <f t="shared" si="53"/>
         <v>5.606668290586307</v>
       </c>
       <c r="D846">
@@ -36809,7 +36809,7 @@
         <v>0</v>
       </c>
       <c r="C847">
-        <f>LOG(L847,10)</f>
+        <f t="shared" si="53"/>
         <v>4.3868555648264529</v>
       </c>
       <c r="D847">
@@ -36851,7 +36851,7 @@
         <v>0</v>
       </c>
       <c r="C848">
-        <f>LOG(L848,10)</f>
+        <f t="shared" si="53"/>
         <v>5.3710124187321373</v>
       </c>
       <c r="D848">
@@ -36893,7 +36893,7 @@
         <v>0</v>
       </c>
       <c r="C849">
-        <f>LOG(L849,10)</f>
+        <f t="shared" si="53"/>
         <v>4.583493506594885</v>
       </c>
       <c r="D849">
@@ -36935,7 +36935,7 @@
         <v>0</v>
       </c>
       <c r="C850">
-        <f>LOG(L850,10)</f>
+        <f t="shared" si="53"/>
         <v>3.4882686154954592</v>
       </c>
       <c r="D850">
@@ -36977,7 +36977,7 @@
         <v>0</v>
       </c>
       <c r="C851">
-        <f>LOG(L851,10)</f>
+        <f t="shared" si="53"/>
         <v>5.134776167282503</v>
       </c>
       <c r="D851">
@@ -37019,7 +37019,7 @@
         <v>0</v>
       </c>
       <c r="C852">
-        <f>LOG(L852,10)</f>
+        <f t="shared" si="53"/>
         <v>5.3242207028770032</v>
       </c>
       <c r="D852">
@@ -37061,7 +37061,7 @@
         <v>0</v>
       </c>
       <c r="C853">
-        <f>LOG(L853,10)</f>
+        <f t="shared" si="53"/>
         <v>4.1170722702510893</v>
       </c>
       <c r="D853">
@@ -37103,7 +37103,7 @@
         <v>0</v>
       </c>
       <c r="C854">
-        <f>LOG(L854,10)</f>
+        <f t="shared" si="53"/>
         <v>4.6293280337945806</v>
       </c>
       <c r="D854">
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="C855">
-        <f>LOG(L855,10)</f>
+        <f t="shared" si="53"/>
         <v>3.9079486289780143</v>
       </c>
       <c r="D855">
@@ -37190,7 +37190,7 @@
         <v>0</v>
       </c>
       <c r="C856">
-        <f>LOG(L856,10)</f>
+        <f t="shared" si="53"/>
         <v>4.0089831612751148</v>
       </c>
       <c r="D856">
@@ -37232,7 +37232,7 @@
         <v>0</v>
       </c>
       <c r="C857">
-        <f>LOG(L857,10)</f>
+        <f t="shared" si="53"/>
         <v>3.8529677519567715</v>
       </c>
       <c r="D857">
@@ -37274,7 +37274,7 @@
         <v>0</v>
       </c>
       <c r="C858">
-        <f>LOG(L858,10)</f>
+        <f t="shared" si="53"/>
         <v>6.0465778796059357</v>
       </c>
       <c r="D858">
@@ -37316,7 +37316,7 @@
         <v>0</v>
       </c>
       <c r="C859">
-        <f>LOG(L859,10)</f>
+        <f t="shared" si="53"/>
         <v>5.6754731288336542</v>
       </c>
       <c r="D859">
@@ -37495,7 +37495,7 @@
         <v>0</v>
       </c>
       <c r="E863">
-        <f>LOG(P863,10)</f>
+        <f t="shared" ref="E863:E870" si="54">LOG(P863,10)</f>
         <v>5.687925621726154</v>
       </c>
       <c r="F863">
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="E864">
-        <f>LOG(P864,10)</f>
+        <f t="shared" si="54"/>
         <v>4.2658224898460917</v>
       </c>
       <c r="F864">
@@ -37586,7 +37586,7 @@
         <v>0</v>
       </c>
       <c r="E865">
-        <f>LOG(P865,10)</f>
+        <f t="shared" si="54"/>
         <v>3.8924899686211862</v>
       </c>
       <c r="F865">
@@ -37630,7 +37630,7 @@
         <v>0</v>
       </c>
       <c r="E866">
-        <f>LOG(P866,10)</f>
+        <f t="shared" si="54"/>
         <v>6.3247855399200263</v>
       </c>
       <c r="F866">
@@ -37672,7 +37672,7 @@
         <v>0</v>
       </c>
       <c r="E867">
-        <f>LOG(P867,10)</f>
+        <f t="shared" si="54"/>
         <v>4.0454404180448815</v>
       </c>
       <c r="F867">
@@ -37715,7 +37715,7 @@
         <v>0</v>
       </c>
       <c r="E868">
-        <f>LOG(P868,10)</f>
+        <f t="shared" si="54"/>
         <v>3.4572035955369893</v>
       </c>
       <c r="F868">
@@ -37757,7 +37757,7 @@
         <v>0</v>
       </c>
       <c r="E869">
-        <f>LOG(P869,10)</f>
+        <f t="shared" si="54"/>
         <v>3.9729160603045552</v>
       </c>
       <c r="F869">
@@ -37799,7 +37799,7 @@
         <v>0</v>
       </c>
       <c r="E870">
-        <f>LOG(P870,10)</f>
+        <f t="shared" si="54"/>
         <v>6.6811511326435182</v>
       </c>
       <c r="F870">
@@ -39192,7 +39192,7 @@
         <v>0</v>
       </c>
       <c r="C903">
-        <f>LOG(L903,10)</f>
+        <f t="shared" ref="C903:C908" si="55">LOG(L903,10)</f>
         <v>4.6290424447228959</v>
       </c>
       <c r="D903">
@@ -39236,7 +39236,7 @@
         <v>0</v>
       </c>
       <c r="C904">
-        <f>LOG(L904,10)</f>
+        <f t="shared" si="55"/>
         <v>4.3473495142134801</v>
       </c>
       <c r="D904">
@@ -39278,7 +39278,7 @@
         <v>0</v>
       </c>
       <c r="C905">
-        <f>LOG(L905,10)</f>
+        <f t="shared" si="55"/>
         <v>4.8560579037787504</v>
       </c>
       <c r="D905">
@@ -39320,7 +39320,7 @@
         <v>0</v>
       </c>
       <c r="C906">
-        <f>LOG(L906,10)</f>
+        <f t="shared" si="55"/>
         <v>4.7818486912801745</v>
       </c>
       <c r="D906">
@@ -39362,7 +39362,7 @@
         <v>0</v>
       </c>
       <c r="C907">
-        <f>LOG(L907,10)</f>
+        <f t="shared" si="55"/>
         <v>4.3929079128676278</v>
       </c>
       <c r="D907">
@@ -39404,7 +39404,7 @@
         <v>0</v>
       </c>
       <c r="C908">
-        <f>LOG(L908,10)</f>
+        <f t="shared" si="55"/>
         <v>4.4751043765896004</v>
       </c>
       <c r="D908">
@@ -40103,7 +40103,7 @@
         <v>6.3560034722750993</v>
       </c>
       <c r="G924">
-        <f>LOG(T924,10)</f>
+        <f t="shared" ref="G924:G931" si="56">LOG(T924,10)</f>
         <v>2.951337518795917</v>
       </c>
       <c r="J924">
@@ -40145,7 +40145,7 @@
         <v>0</v>
       </c>
       <c r="G925">
-        <f>LOG(T925,10)</f>
+        <f t="shared" si="56"/>
         <v>3.064831471599287</v>
       </c>
       <c r="J925">
@@ -40181,14 +40181,14 @@
         <v>0</v>
       </c>
       <c r="E926">
-        <f>LOG(P926,10)</f>
+        <f t="shared" ref="E926:E935" si="57">LOG(P926,10)</f>
         <v>6.6559874571818254</v>
       </c>
       <c r="F926">
         <v>0</v>
       </c>
       <c r="G926">
-        <f>LOG(T926,10)</f>
+        <f t="shared" si="56"/>
         <v>5.0571219443087019</v>
       </c>
       <c r="J926">
@@ -40224,14 +40224,14 @@
         <v>0</v>
       </c>
       <c r="E927">
-        <f>LOG(P927,10)</f>
+        <f t="shared" si="57"/>
         <v>5.0375260953454637</v>
       </c>
       <c r="F927">
         <v>0</v>
       </c>
       <c r="G927">
-        <f>LOG(T927,10)</f>
+        <f t="shared" si="56"/>
         <v>3.3617278360175926</v>
       </c>
       <c r="J927">
@@ -40267,14 +40267,14 @@
         <v>0</v>
       </c>
       <c r="E928">
-        <f>LOG(P928,10)</f>
+        <f t="shared" si="57"/>
         <v>5.2562365332059224</v>
       </c>
       <c r="F928">
         <v>0</v>
       </c>
       <c r="G928">
-        <f>LOG(T928,10)</f>
+        <f t="shared" si="56"/>
         <v>4.4488917441512195</v>
       </c>
       <c r="J928">
@@ -40310,7 +40310,7 @@
         <v>0</v>
       </c>
       <c r="E929">
-        <f>LOG(P929,10)</f>
+        <f t="shared" si="57"/>
         <v>5.06455906324903</v>
       </c>
       <c r="F929">
@@ -40318,7 +40318,7 @@
         <v>6.4668044726066389</v>
       </c>
       <c r="G929">
-        <f>LOG(T929,10)</f>
+        <f t="shared" si="56"/>
         <v>4.4177041404599278</v>
       </c>
       <c r="J929">
@@ -40354,14 +40354,14 @@
         <v>0</v>
       </c>
       <c r="E930">
-        <f>LOG(P930,10)</f>
+        <f t="shared" si="57"/>
         <v>5.2969348954944557</v>
       </c>
       <c r="F930">
         <v>0</v>
       </c>
       <c r="G930">
-        <f>LOG(T930,10)</f>
+        <f t="shared" si="56"/>
         <v>3.1261314072619841</v>
       </c>
       <c r="J930">
@@ -40397,14 +40397,14 @@
         <v>0</v>
       </c>
       <c r="E931">
-        <f>LOG(P931,10)</f>
+        <f t="shared" si="57"/>
         <v>5.3924911860826894</v>
       </c>
       <c r="F931">
         <v>0</v>
       </c>
       <c r="G931">
-        <f>LOG(T931,10)</f>
+        <f t="shared" si="56"/>
         <v>4.1850319204327677</v>
       </c>
       <c r="J931">
@@ -40440,7 +40440,7 @@
         <v>0</v>
       </c>
       <c r="E932">
-        <f>LOG(P932,10)</f>
+        <f t="shared" si="57"/>
         <v>5.2033457058148178</v>
       </c>
       <c r="F932">
@@ -40483,7 +40483,7 @@
         <v>0</v>
       </c>
       <c r="E933">
-        <f>LOG(P933,10)</f>
+        <f t="shared" si="57"/>
         <v>4.2532652936901574</v>
       </c>
       <c r="F933">
@@ -40527,7 +40527,7 @@
         <v>0</v>
       </c>
       <c r="E934">
-        <f>LOG(P934,10)</f>
+        <f t="shared" si="57"/>
         <v>5.808084597133492</v>
       </c>
       <c r="F934">
@@ -40570,7 +40570,7 @@
         <v>0</v>
       </c>
       <c r="E935">
-        <f>LOG(P935,10)</f>
+        <f t="shared" si="57"/>
         <v>6.2363266768710544</v>
       </c>
       <c r="F935">
@@ -41213,7 +41213,7 @@
         <v>0</v>
       </c>
       <c r="G950">
-        <f>LOG(T950,10)</f>
+        <f t="shared" ref="G950:G955" si="58">LOG(T950,10)</f>
         <v>4.3018760452731541</v>
       </c>
       <c r="J950">
@@ -41255,7 +41255,7 @@
         <v>0</v>
       </c>
       <c r="G951">
-        <f>LOG(T951,10)</f>
+        <f t="shared" si="58"/>
         <v>4.2161130973151817</v>
       </c>
       <c r="J951">
@@ -41297,7 +41297,7 @@
         <v>0</v>
       </c>
       <c r="G952">
-        <f>LOG(T952,10)</f>
+        <f t="shared" si="58"/>
         <v>3.4090877080788777</v>
       </c>
       <c r="J952">
@@ -41339,7 +41339,7 @@
         <v>0</v>
       </c>
       <c r="G953">
-        <f>LOG(T953,10)</f>
+        <f t="shared" si="58"/>
         <v>3.7334379468592997</v>
       </c>
       <c r="J953">
@@ -41384,7 +41384,7 @@
         <v>6.0273659189982807</v>
       </c>
       <c r="G954">
-        <f>LOG(T954,10)</f>
+        <f t="shared" si="58"/>
         <v>6.2745563854113264</v>
       </c>
       <c r="J954">
@@ -41428,7 +41428,7 @@
         <v>0</v>
       </c>
       <c r="G955">
-        <f>LOG(T955,10)</f>
+        <f t="shared" si="58"/>
         <v>5.8597403657561884</v>
       </c>
       <c r="J955">
@@ -41500,7 +41500,7 @@
         <v>0</v>
       </c>
       <c r="C957">
-        <f>LOG(L957,10)</f>
+        <f t="shared" ref="C957:C964" si="59">LOG(L957,10)</f>
         <v>5.0591959788689476</v>
       </c>
       <c r="D957">
@@ -41542,7 +41542,7 @@
         <v>0</v>
       </c>
       <c r="C958">
-        <f>LOG(L958,10)</f>
+        <f t="shared" si="59"/>
         <v>5.5036735833853658</v>
       </c>
       <c r="D958">
@@ -41584,7 +41584,7 @@
         <v>0</v>
       </c>
       <c r="C959">
-        <f>LOG(L959,10)</f>
+        <f t="shared" si="59"/>
         <v>5.3162304267443092</v>
       </c>
       <c r="D959">
@@ -41628,7 +41628,7 @@
         <v>0</v>
       </c>
       <c r="C960">
-        <f>LOG(L960,10)</f>
+        <f t="shared" si="59"/>
         <v>6.027662268785563</v>
       </c>
       <c r="D960">
@@ -41670,7 +41670,7 @@
         <v>0</v>
       </c>
       <c r="C961">
-        <f>LOG(L961,10)</f>
+        <f t="shared" si="59"/>
         <v>5.6723768265483532</v>
       </c>
       <c r="D961">
@@ -41712,7 +41712,7 @@
         <v>0</v>
       </c>
       <c r="C962">
-        <f>LOG(L962,10)</f>
+        <f t="shared" si="59"/>
         <v>5.5613685595922115</v>
       </c>
       <c r="D962">
@@ -41754,7 +41754,7 @@
         <v>0</v>
       </c>
       <c r="C963">
-        <f>LOG(L963,10)</f>
+        <f t="shared" si="59"/>
         <v>5.7004510261386834</v>
       </c>
       <c r="D963">
@@ -41798,7 +41798,7 @@
         <v>0</v>
       </c>
       <c r="C964">
-        <f>LOG(L964,10)</f>
+        <f t="shared" si="59"/>
         <v>4.7871415583802568</v>
       </c>
       <c r="D964">
@@ -41890,7 +41890,7 @@
         <v>0</v>
       </c>
       <c r="E966">
-        <f>LOG(P966,10)</f>
+        <f t="shared" ref="E966:E976" si="60">LOG(P966,10)</f>
         <v>2.3765733075077162</v>
       </c>
       <c r="F966">
@@ -41933,7 +41933,7 @@
         <v>0</v>
       </c>
       <c r="E967">
-        <f>LOG(P967,10)</f>
+        <f t="shared" si="60"/>
         <v>5.6893953728020179</v>
       </c>
       <c r="F967">
@@ -41976,14 +41976,14 @@
         <v>0</v>
       </c>
       <c r="E968">
-        <f>LOG(P968,10)</f>
+        <f t="shared" si="60"/>
         <v>6.2051718770184898</v>
       </c>
       <c r="F968">
         <v>0</v>
       </c>
       <c r="G968">
-        <f>LOG(T968,10)</f>
+        <f t="shared" ref="G968:G975" si="61">LOG(T968,10)</f>
         <v>4.7027881526028334</v>
       </c>
       <c r="J968">
@@ -42020,15 +42020,15 @@
         <v>0</v>
       </c>
       <c r="E969">
-        <f>LOG(P969,10)</f>
+        <f t="shared" si="60"/>
         <v>5.5380989985355082</v>
       </c>
       <c r="F969">
-        <f>LOG(R969,10)</f>
+        <f t="shared" ref="F969:F975" si="62">LOG(R969,10)</f>
         <v>4.5886583800824905</v>
       </c>
       <c r="G969">
-        <f>LOG(T969,10)</f>
+        <f t="shared" si="61"/>
         <v>2.821514183448746</v>
       </c>
       <c r="J969">
@@ -42065,15 +42065,15 @@
         <v>0</v>
       </c>
       <c r="E970">
-        <f>LOG(P970,10)</f>
+        <f t="shared" si="60"/>
         <v>5.2201850910431817</v>
       </c>
       <c r="F970">
-        <f>LOG(R970,10)</f>
+        <f t="shared" si="62"/>
         <v>6.4262260298066707</v>
       </c>
       <c r="G970">
-        <f>LOG(T970,10)</f>
+        <f t="shared" si="61"/>
         <v>5.7498399539941953</v>
       </c>
       <c r="J970">
@@ -42109,15 +42109,15 @@
         <v>0</v>
       </c>
       <c r="E971">
-        <f>LOG(P971,10)</f>
+        <f t="shared" si="60"/>
         <v>4.7806700781105826</v>
       </c>
       <c r="F971">
-        <f>LOG(R971,10)</f>
+        <f t="shared" si="62"/>
         <v>7.0806664517179678</v>
       </c>
       <c r="G971">
-        <f>LOG(T971,10)</f>
+        <f t="shared" si="61"/>
         <v>2.3961976029376881</v>
       </c>
       <c r="J971">
@@ -42154,15 +42154,15 @@
         <v>0</v>
       </c>
       <c r="E972">
-        <f>LOG(P972,10)</f>
+        <f t="shared" si="60"/>
         <v>6.5758331475392424</v>
       </c>
       <c r="F972">
-        <f>LOG(R972,10)</f>
+        <f t="shared" si="62"/>
         <v>6.8452471635425809</v>
       </c>
       <c r="G972">
-        <f>LOG(T972,10)</f>
+        <f t="shared" si="61"/>
         <v>3.1922886125681202</v>
       </c>
       <c r="J972">
@@ -42199,15 +42199,15 @@
         <v>0</v>
       </c>
       <c r="E973">
-        <f>LOG(P973,10)</f>
+        <f t="shared" si="60"/>
         <v>4.2042285698435791</v>
       </c>
       <c r="F973">
-        <f>LOG(R973,10)</f>
+        <f t="shared" si="62"/>
         <v>6.8589539683524716</v>
       </c>
       <c r="G973">
-        <f>LOG(T973,10)</f>
+        <f t="shared" si="61"/>
         <v>3.8485585721237627</v>
       </c>
       <c r="J973">
@@ -42244,15 +42244,15 @@
         <v>0</v>
       </c>
       <c r="E974">
-        <f>LOG(P974,10)</f>
+        <f t="shared" si="60"/>
         <v>5.4883109423296528</v>
       </c>
       <c r="F974">
-        <f>LOG(R974,10)</f>
+        <f t="shared" si="62"/>
         <v>6.5009854121770898</v>
       </c>
       <c r="G974">
-        <f>LOG(T974,10)</f>
+        <f t="shared" si="61"/>
         <v>4.4306715586369876</v>
       </c>
       <c r="J974">
@@ -42288,15 +42288,15 @@
         <v>0</v>
       </c>
       <c r="E975">
-        <f>LOG(P975,10)</f>
+        <f t="shared" si="60"/>
         <v>5.5437924901653286</v>
       </c>
       <c r="F975">
-        <f>LOG(R975,10)</f>
+        <f t="shared" si="62"/>
         <v>7.4137516144061362</v>
       </c>
       <c r="G975">
-        <f>LOG(T975,10)</f>
+        <f t="shared" si="61"/>
         <v>4.4035837503666881</v>
       </c>
       <c r="J975">
@@ -42333,7 +42333,7 @@
         <v>0</v>
       </c>
       <c r="E976">
-        <f>LOG(P976,10)</f>
+        <f t="shared" si="60"/>
         <v>4.9726702173158372</v>
       </c>
       <c r="F976">
@@ -42730,7 +42730,7 @@
         <v>0</v>
       </c>
       <c r="G985">
-        <f>LOG(T985,10)</f>
+        <f t="shared" ref="G985:G991" si="63">LOG(T985,10)</f>
         <v>3.296664970920828</v>
       </c>
       <c r="J985">
@@ -42776,7 +42776,7 @@
         <v>6.9039661122242943</v>
       </c>
       <c r="G986">
-        <f>LOG(T986,10)</f>
+        <f t="shared" si="63"/>
         <v>4.8719752226490547</v>
       </c>
       <c r="J986">
@@ -42819,7 +42819,7 @@
         <v>0</v>
       </c>
       <c r="G987">
-        <f>LOG(T987,10)</f>
+        <f t="shared" si="63"/>
         <v>2.6998377258672455</v>
       </c>
       <c r="J987">
@@ -42864,7 +42864,7 @@
         <v>4.384048602028618</v>
       </c>
       <c r="G988">
-        <f>LOG(T988,10)</f>
+        <f t="shared" si="63"/>
         <v>5.212320325297922</v>
       </c>
       <c r="J988">
@@ -42907,7 +42907,7 @@
         <v>0</v>
       </c>
       <c r="G989">
-        <f>LOG(T989,10)</f>
+        <f t="shared" si="63"/>
         <v>2.7092708092064122</v>
       </c>
       <c r="J989">
@@ -42951,7 +42951,7 @@
         <v>0</v>
       </c>
       <c r="G990">
-        <f>LOG(T990,10)</f>
+        <f t="shared" si="63"/>
         <v>2.1789798234060425</v>
       </c>
       <c r="J990">
@@ -42994,7 +42994,7 @@
         <v>0</v>
       </c>
       <c r="G991">
-        <f>LOG(T991,10)</f>
+        <f t="shared" si="63"/>
         <v>2.2068204810358321</v>
       </c>
       <c r="J991">
@@ -44366,7 +44366,7 @@
         <v>0</v>
       </c>
       <c r="E1023">
-        <f>LOG(P1023,10)</f>
+        <f t="shared" ref="E1023:E1028" si="64">LOG(P1023,10)</f>
         <v>5.4492456521849109</v>
       </c>
       <c r="F1023">
@@ -44408,7 +44408,7 @@
         <v>0</v>
       </c>
       <c r="E1024">
-        <f>LOG(P1024,10)</f>
+        <f t="shared" si="64"/>
         <v>5.4658210892151367</v>
       </c>
       <c r="F1024">
@@ -44452,7 +44452,7 @@
         <v>0</v>
       </c>
       <c r="E1025">
-        <f>LOG(P1025,10)</f>
+        <f t="shared" si="64"/>
         <v>2.9934344668616166</v>
       </c>
       <c r="F1025">
@@ -44497,7 +44497,7 @@
         <v>0</v>
       </c>
       <c r="E1026">
-        <f>LOG(P1026,10)</f>
+        <f t="shared" si="64"/>
         <v>6.539266643981561</v>
       </c>
       <c r="F1026">
@@ -44543,7 +44543,7 @@
         <v>0</v>
       </c>
       <c r="E1027">
-        <f>LOG(P1027,10)</f>
+        <f t="shared" si="64"/>
         <v>6.6012204688555451</v>
       </c>
       <c r="F1027">
@@ -44588,7 +44588,7 @@
         <v>0</v>
       </c>
       <c r="E1028">
-        <f>LOG(P1028,10)</f>
+        <f t="shared" si="64"/>
         <v>6.5230728962196611</v>
       </c>
       <c r="F1028">
@@ -45242,14 +45242,14 @@
         <v>0</v>
       </c>
       <c r="E1043">
-        <f>LOG(P1043,10)</f>
+        <f t="shared" ref="E1043:E1048" si="65">LOG(P1043,10)</f>
         <v>6.2614267988898442</v>
       </c>
       <c r="F1043">
         <v>0</v>
       </c>
       <c r="G1043">
-        <f>LOG(T1043,10)</f>
+        <f t="shared" ref="G1043:G1048" si="66">LOG(T1043,10)</f>
         <v>4.9320982319011692</v>
       </c>
       <c r="J1043">
@@ -45285,7 +45285,7 @@
         <v>0</v>
       </c>
       <c r="E1044">
-        <f>LOG(P1044,10)</f>
+        <f t="shared" si="65"/>
         <v>4.3283827044533822</v>
       </c>
       <c r="F1044">
@@ -45293,7 +45293,7 @@
         <v>6.7597909402874263</v>
       </c>
       <c r="G1044">
-        <f>LOG(T1044,10)</f>
+        <f t="shared" si="66"/>
         <v>4.646458435156644</v>
       </c>
       <c r="J1044">
@@ -45329,14 +45329,14 @@
         <v>0</v>
       </c>
       <c r="E1045">
-        <f>LOG(P1045,10)</f>
+        <f t="shared" si="65"/>
         <v>4.0796153112342255</v>
       </c>
       <c r="F1045">
         <v>0</v>
       </c>
       <c r="G1045">
-        <f>LOG(T1045,10)</f>
+        <f t="shared" si="66"/>
         <v>4.1647777608778975</v>
       </c>
       <c r="J1045">
@@ -45372,7 +45372,7 @@
         <v>0</v>
       </c>
       <c r="E1046">
-        <f>LOG(P1046,10)</f>
+        <f t="shared" si="65"/>
         <v>5.2059158721212331</v>
       </c>
       <c r="F1046">
@@ -45380,7 +45380,7 @@
         <v>6.623128291509456</v>
       </c>
       <c r="G1046">
-        <f>LOG(T1046,10)</f>
+        <f t="shared" si="66"/>
         <v>4.7621757137523337</v>
       </c>
       <c r="J1046">
@@ -45418,7 +45418,7 @@
         <v>0</v>
       </c>
       <c r="E1047">
-        <f>LOG(P1047,10)</f>
+        <f t="shared" si="65"/>
         <v>6.5099725546600649</v>
       </c>
       <c r="F1047">
@@ -45426,7 +45426,7 @@
         <v>6.6370406442489376</v>
       </c>
       <c r="G1047">
-        <f>LOG(T1047,10)</f>
+        <f t="shared" si="66"/>
         <v>4.9691566717676174</v>
       </c>
       <c r="J1047">
@@ -45463,7 +45463,7 @@
         <v>0</v>
       </c>
       <c r="E1048">
-        <f>LOG(P1048,10)</f>
+        <f t="shared" si="65"/>
         <v>6.2319898051434546</v>
       </c>
       <c r="F1048">
@@ -45471,7 +45471,7 @@
         <v>6.9861369768100738</v>
       </c>
       <c r="G1048">
-        <f>LOG(T1048,10)</f>
+        <f t="shared" si="66"/>
         <v>4.8552162068560278</v>
       </c>
       <c r="J1048">
@@ -45676,7 +45676,7 @@
         <v>6.9161450421789379</v>
       </c>
       <c r="E1053">
-        <f>LOG(P1053,10)</f>
+        <f t="shared" ref="E1053:E1058" si="67">LOG(P1053,10)</f>
         <v>6.3899547712263205</v>
       </c>
       <c r="F1053">
@@ -45720,7 +45720,7 @@
         <v>0</v>
       </c>
       <c r="E1054">
-        <f>LOG(P1054,10)</f>
+        <f t="shared" si="67"/>
         <v>5.9408587304815166</v>
       </c>
       <c r="F1054">
@@ -45764,7 +45764,7 @@
         <v>0</v>
       </c>
       <c r="E1055">
-        <f>LOG(P1055,10)</f>
+        <f t="shared" si="67"/>
         <v>6.5612306909702838</v>
       </c>
       <c r="F1055">
@@ -45807,7 +45807,7 @@
         <v>0</v>
       </c>
       <c r="E1056">
-        <f>LOG(P1056,10)</f>
+        <f t="shared" si="67"/>
         <v>4.8550525079096039</v>
       </c>
       <c r="F1056">
@@ -45852,7 +45852,7 @@
         <v>0</v>
       </c>
       <c r="E1057">
-        <f>LOG(P1057,10)</f>
+        <f t="shared" si="67"/>
         <v>3.2878944642869952</v>
       </c>
       <c r="F1057">
@@ -45894,7 +45894,7 @@
         <v>0</v>
       </c>
       <c r="E1058">
-        <f>LOG(P1058,10)</f>
+        <f t="shared" si="67"/>
         <v>6.520735190651032</v>
       </c>
       <c r="F1058">
@@ -45932,7 +45932,7 @@
         <v>0</v>
       </c>
       <c r="C1059">
-        <f>LOG(L1059,10)</f>
+        <f t="shared" ref="C1059:C1070" si="68">LOG(L1059,10)</f>
         <v>5.4899345841380685</v>
       </c>
       <c r="D1059">
@@ -45974,7 +45974,7 @@
         <v>0</v>
       </c>
       <c r="C1060">
-        <f>LOG(L1060,10)</f>
+        <f t="shared" si="68"/>
         <v>6.280092817975385</v>
       </c>
       <c r="D1060">
@@ -46016,7 +46016,7 @@
         <v>0</v>
       </c>
       <c r="C1061">
-        <f>LOG(L1061,10)</f>
+        <f t="shared" si="68"/>
         <v>4.864214330461329</v>
       </c>
       <c r="D1061">
@@ -46058,7 +46058,7 @@
         <v>0</v>
       </c>
       <c r="C1062">
-        <f>LOG(L1062,10)</f>
+        <f t="shared" si="68"/>
         <v>4.1513391696453281</v>
       </c>
       <c r="D1062">
@@ -46100,7 +46100,7 @@
         <v>0</v>
       </c>
       <c r="C1063">
-        <f>LOG(L1063,10)</f>
+        <f t="shared" si="68"/>
         <v>3.9036325703032704</v>
       </c>
       <c r="D1063">
@@ -46142,7 +46142,7 @@
         <v>0</v>
       </c>
       <c r="C1064">
-        <f>LOG(L1064,10)</f>
+        <f t="shared" si="68"/>
         <v>4.7552038402107213</v>
       </c>
       <c r="D1064">
@@ -46184,7 +46184,7 @@
         <v>0</v>
       </c>
       <c r="C1065">
-        <f>LOG(L1065,10)</f>
+        <f t="shared" si="68"/>
         <v>4.0683714180326431</v>
       </c>
       <c r="D1065">
@@ -46226,7 +46226,7 @@
         <v>0</v>
       </c>
       <c r="C1066">
-        <f>LOG(L1066,10)</f>
+        <f t="shared" si="68"/>
         <v>4.5163767382022364</v>
       </c>
       <c r="D1066">
@@ -46268,7 +46268,7 @@
         <v>0</v>
       </c>
       <c r="C1067">
-        <f>LOG(L1067,10)</f>
+        <f t="shared" si="68"/>
         <v>5.2485519399742744</v>
       </c>
       <c r="D1067">
@@ -46310,7 +46310,7 @@
         <v>0</v>
       </c>
       <c r="C1068">
-        <f>LOG(L1068,10)</f>
+        <f t="shared" si="68"/>
         <v>5.7532298124095922</v>
       </c>
       <c r="D1068">
@@ -46352,7 +46352,7 @@
         <v>0</v>
       </c>
       <c r="C1069">
-        <f>LOG(L1069,10)</f>
+        <f t="shared" si="68"/>
         <v>4.122608990828704</v>
       </c>
       <c r="D1069">
@@ -46395,7 +46395,7 @@
         <v>0</v>
       </c>
       <c r="C1070">
-        <f>LOG(L1070,10)</f>
+        <f t="shared" si="68"/>
         <v>4.175018704961186</v>
       </c>
       <c r="D1070">
@@ -46618,7 +46618,7 @@
         <v>0</v>
       </c>
       <c r="E1075">
-        <f>LOG(P1075,10)</f>
+        <f t="shared" ref="E1075:E1080" si="69">LOG(P1075,10)</f>
         <v>3.9969055106956661</v>
       </c>
       <c r="F1075">
@@ -46660,7 +46660,7 @@
         <v>0</v>
       </c>
       <c r="E1076">
-        <f>LOG(P1076,10)</f>
+        <f t="shared" si="69"/>
         <v>4.2311126290563514</v>
       </c>
       <c r="F1076">
@@ -46703,7 +46703,7 @@
         <v>0</v>
       </c>
       <c r="E1077">
-        <f>LOG(P1077,10)</f>
+        <f t="shared" si="69"/>
         <v>4.7368027082921831</v>
       </c>
       <c r="F1077">
@@ -46746,7 +46746,7 @@
         <v>0</v>
       </c>
       <c r="E1078">
-        <f>LOG(P1078,10)</f>
+        <f t="shared" si="69"/>
         <v>6.5133610534150659</v>
       </c>
       <c r="F1078">
@@ -46789,7 +46789,7 @@
         <v>0</v>
       </c>
       <c r="E1079">
-        <f>LOG(P1079,10)</f>
+        <f t="shared" si="69"/>
         <v>6.3427033023007882</v>
       </c>
       <c r="F1079">
@@ -46831,7 +46831,7 @@
         <v>0</v>
       </c>
       <c r="E1080">
-        <f>LOG(P1080,10)</f>
+        <f t="shared" si="69"/>
         <v>6.6410337427491726</v>
       </c>
       <c r="F1080">
@@ -47267,7 +47267,7 @@
         <v>0</v>
       </c>
       <c r="G1090">
-        <f>LOG(T1090,10)</f>
+        <f t="shared" ref="G1090:G1100" si="70">LOG(T1090,10)</f>
         <v>4.9892094474794453</v>
       </c>
       <c r="J1090">
@@ -47311,7 +47311,7 @@
         <v>0</v>
       </c>
       <c r="G1091">
-        <f>LOG(T1091,10)</f>
+        <f t="shared" si="70"/>
         <v>2.8915681025062061</v>
       </c>
       <c r="J1091">
@@ -47354,7 +47354,7 @@
         <v>0</v>
       </c>
       <c r="G1092">
-        <f>LOG(T1092,10)</f>
+        <f t="shared" si="70"/>
         <v>2.3010408528903139</v>
       </c>
       <c r="J1092">
@@ -47398,7 +47398,7 @@
         <v>6.3221793793755454</v>
       </c>
       <c r="G1093">
-        <f>LOG(T1093,10)</f>
+        <f t="shared" si="70"/>
         <v>3.2830749747354711</v>
       </c>
       <c r="J1093">
@@ -47440,7 +47440,7 @@
         <v>0</v>
       </c>
       <c r="G1094">
-        <f>LOG(T1094,10)</f>
+        <f t="shared" si="70"/>
         <v>2.7589088659450454</v>
       </c>
       <c r="J1094">
@@ -47482,7 +47482,7 @@
         <v>0</v>
       </c>
       <c r="G1095">
-        <f>LOG(T1095,10)</f>
+        <f t="shared" si="70"/>
         <v>1.5314789170422551</v>
       </c>
       <c r="J1095">
@@ -47525,7 +47525,7 @@
         <v>0</v>
       </c>
       <c r="G1096">
-        <f>LOG(T1096,10)</f>
+        <f t="shared" si="70"/>
         <v>3.1939587001595444</v>
       </c>
       <c r="J1096">
@@ -47569,7 +47569,7 @@
         <v>6.4632749857150698</v>
       </c>
       <c r="G1097">
-        <f>LOG(T1097,10)</f>
+        <f t="shared" si="70"/>
         <v>2.7379873263334304</v>
       </c>
       <c r="J1097">
@@ -47613,7 +47613,7 @@
         <v>0</v>
       </c>
       <c r="G1098">
-        <f>LOG(T1098,10)</f>
+        <f t="shared" si="70"/>
         <v>2.6803355134145628</v>
       </c>
       <c r="J1098">
@@ -47656,7 +47656,7 @@
         <v>0</v>
       </c>
       <c r="G1099">
-        <f>LOG(T1099,10)</f>
+        <f t="shared" si="70"/>
         <v>2.7972675408307164</v>
       </c>
       <c r="J1099">
@@ -47698,7 +47698,7 @@
         <v>0</v>
       </c>
       <c r="G1100">
-        <f>LOG(T1100,10)</f>
+        <f t="shared" si="70"/>
         <v>2.4996815851851046</v>
       </c>
       <c r="J1100">
@@ -49925,7 +49925,7 @@
         <v>0</v>
       </c>
       <c r="E1152">
-        <f>LOG(P1152,10)</f>
+        <f t="shared" ref="E1152:E1159" si="71">LOG(P1152,10)</f>
         <v>6.8223310400325667</v>
       </c>
       <c r="F1152">
@@ -49969,7 +49969,7 @@
         <v>0</v>
       </c>
       <c r="E1153">
-        <f>LOG(P1153,10)</f>
+        <f t="shared" si="71"/>
         <v>4.6321073974265907</v>
       </c>
       <c r="F1153">
@@ -50012,14 +50012,14 @@
         <v>0</v>
       </c>
       <c r="E1154">
-        <f>LOG(P1154,10)</f>
+        <f t="shared" si="71"/>
         <v>3.4412236742426123</v>
       </c>
       <c r="F1154">
         <v>0</v>
       </c>
       <c r="G1154">
-        <f>LOG(T1154,10)</f>
+        <f t="shared" ref="G1154:G1159" si="72">LOG(T1154,10)</f>
         <v>4.7370653582718498</v>
       </c>
       <c r="J1154">
@@ -50055,14 +50055,14 @@
         <v>0</v>
       </c>
       <c r="E1155">
-        <f>LOG(P1155,10)</f>
+        <f t="shared" si="71"/>
         <v>6.58255388403418</v>
       </c>
       <c r="F1155">
         <v>0</v>
       </c>
       <c r="G1155">
-        <f>LOG(T1155,10)</f>
+        <f t="shared" si="72"/>
         <v>2.7015688484635816</v>
       </c>
       <c r="J1155">
@@ -50098,14 +50098,14 @@
         <v>0</v>
       </c>
       <c r="E1156">
-        <f>LOG(P1156,10)</f>
+        <f t="shared" si="71"/>
         <v>2.8090914679122738</v>
       </c>
       <c r="F1156">
         <v>0</v>
       </c>
       <c r="G1156">
-        <f>LOG(T1156,10)</f>
+        <f t="shared" si="72"/>
         <v>2.2062726750668182</v>
       </c>
       <c r="J1156">
@@ -50135,21 +50135,21 @@
         <v>0</v>
       </c>
       <c r="C1157">
-        <f>LOG(L1157,10)</f>
+        <f t="shared" ref="C1157:C1162" si="73">LOG(L1157,10)</f>
         <v>5.6805068400696266</v>
       </c>
       <c r="D1157">
         <v>0</v>
       </c>
       <c r="E1157">
-        <f>LOG(P1157,10)</f>
+        <f t="shared" si="71"/>
         <v>5.4931623791655451</v>
       </c>
       <c r="F1157">
         <v>0</v>
       </c>
       <c r="G1157">
-        <f>LOG(T1157,10)</f>
+        <f t="shared" si="72"/>
         <v>3.767823498007516</v>
       </c>
       <c r="J1157">
@@ -50180,21 +50180,21 @@
         <v>4.8029003088135127</v>
       </c>
       <c r="C1158">
-        <f>LOG(L1158,10)</f>
+        <f t="shared" si="73"/>
         <v>4.4434507498835405</v>
       </c>
       <c r="D1158">
         <v>0</v>
       </c>
       <c r="E1158">
-        <f>LOG(P1158,10)</f>
+        <f t="shared" si="71"/>
         <v>6.6263340427487583</v>
       </c>
       <c r="F1158">
         <v>0</v>
       </c>
       <c r="G1158">
-        <f>LOG(T1158,10)</f>
+        <f t="shared" si="72"/>
         <v>1.0294673814724602</v>
       </c>
       <c r="J1158">
@@ -50224,7 +50224,7 @@
         <v>0</v>
       </c>
       <c r="C1159">
-        <f>LOG(L1159,10)</f>
+        <f t="shared" si="73"/>
         <v>5.8165256531912188</v>
       </c>
       <c r="D1159">
@@ -50232,7 +50232,7 @@
         <v>7.266885328286194</v>
       </c>
       <c r="E1159">
-        <f>LOG(P1159,10)</f>
+        <f t="shared" si="71"/>
         <v>2.726727209026572</v>
       </c>
       <c r="F1159">
@@ -50240,7 +50240,7 @@
         <v>6.8335362719830215</v>
       </c>
       <c r="G1159">
-        <f>LOG(T1159,10)</f>
+        <f t="shared" si="72"/>
         <v>4.8120907593046898</v>
       </c>
       <c r="J1159">
@@ -50270,7 +50270,7 @@
         <v>0</v>
       </c>
       <c r="C1160">
-        <f>LOG(L1160,10)</f>
+        <f t="shared" si="73"/>
         <v>6.1683990637172768</v>
       </c>
       <c r="D1160">
@@ -50312,7 +50312,7 @@
         <v>0</v>
       </c>
       <c r="C1161">
-        <f>LOG(L1161,10)</f>
+        <f t="shared" si="73"/>
         <v>4.8318122056589754</v>
       </c>
       <c r="D1161">
@@ -50356,7 +50356,7 @@
         <v>0</v>
       </c>
       <c r="C1162">
-        <f>LOG(L1162,10)</f>
+        <f t="shared" si="73"/>
         <v>6.0918589190414369</v>
       </c>
       <c r="D1162">
@@ -50484,7 +50484,7 @@
         <v>0</v>
       </c>
       <c r="C1165">
-        <f>LOG(L1165,10)</f>
+        <f t="shared" ref="C1165:C1170" si="74">LOG(L1165,10)</f>
         <v>6.2321001847090836</v>
       </c>
       <c r="D1165">
@@ -50529,7 +50529,7 @@
         <v>0</v>
       </c>
       <c r="C1166">
-        <f>LOG(L1166,10)</f>
+        <f t="shared" si="74"/>
         <v>5.2831609651291593</v>
       </c>
       <c r="D1166">
@@ -50573,7 +50573,7 @@
         <v>0</v>
       </c>
       <c r="C1167">
-        <f>LOG(L1167,10)</f>
+        <f t="shared" si="74"/>
         <v>6.0632184828166702</v>
       </c>
       <c r="D1167">
@@ -50615,7 +50615,7 @@
         <v>0</v>
       </c>
       <c r="C1168">
-        <f>LOG(L1168,10)</f>
+        <f t="shared" si="74"/>
         <v>5.6972441678203189</v>
       </c>
       <c r="D1168">
@@ -50659,7 +50659,7 @@
         <v>0</v>
       </c>
       <c r="C1169">
-        <f>LOG(L1169,10)</f>
+        <f t="shared" si="74"/>
         <v>4.9262086386147192</v>
       </c>
       <c r="D1169">
@@ -50701,7 +50701,7 @@
         <v>0</v>
       </c>
       <c r="C1170">
-        <f>LOG(L1170,10)</f>
+        <f t="shared" si="74"/>
         <v>5.9869628713167655</v>
       </c>
       <c r="D1170">
@@ -50876,7 +50876,7 @@
         <v>0</v>
       </c>
       <c r="C1174">
-        <f>LOG(L1174,10)</f>
+        <f t="shared" ref="C1174:C1180" si="75">LOG(L1174,10)</f>
         <v>5.8680951994303365</v>
       </c>
       <c r="D1174">
@@ -50918,7 +50918,7 @@
         <v>0</v>
       </c>
       <c r="C1175">
-        <f>LOG(L1175,10)</f>
+        <f t="shared" si="75"/>
         <v>5.8160549443669689</v>
       </c>
       <c r="D1175">
@@ -50960,7 +50960,7 @@
         <v>0</v>
       </c>
       <c r="C1176">
-        <f>LOG(L1176,10)</f>
+        <f t="shared" si="75"/>
         <v>6.1867823569284681</v>
       </c>
       <c r="D1176">
@@ -51002,7 +51002,7 @@
         <v>0</v>
       </c>
       <c r="C1177">
-        <f>LOG(L1177,10)</f>
+        <f t="shared" si="75"/>
         <v>5.2832537251466931</v>
       </c>
       <c r="D1177">
@@ -51044,7 +51044,7 @@
         <v>0</v>
       </c>
       <c r="C1178">
-        <f>LOG(L1178,10)</f>
+        <f t="shared" si="75"/>
         <v>6.0102995325238995</v>
       </c>
       <c r="D1178">
@@ -51086,7 +51086,7 @@
         <v>0</v>
       </c>
       <c r="C1179">
-        <f>LOG(L1179,10)</f>
+        <f t="shared" si="75"/>
         <v>4.3546077827892633</v>
       </c>
       <c r="D1179">
@@ -51128,7 +51128,7 @@
         <v>0</v>
       </c>
       <c r="C1180">
-        <f>LOG(L1180,10)</f>
+        <f t="shared" si="75"/>
         <v>6.2968586056368787</v>
       </c>
       <c r="D1180">
@@ -52888,7 +52888,7 @@
         <v>0</v>
       </c>
       <c r="E1221">
-        <f>LOG(P1221,10)</f>
+        <f t="shared" ref="E1221:E1226" si="76">LOG(P1221,10)</f>
         <v>5.4218851401852159</v>
       </c>
       <c r="F1221">
@@ -52930,7 +52930,7 @@
         <v>0</v>
       </c>
       <c r="E1222">
-        <f>LOG(P1222,10)</f>
+        <f t="shared" si="76"/>
         <v>6.2135451153588086</v>
       </c>
       <c r="F1222">
@@ -52974,7 +52974,7 @@
         <v>7.2802004745099618</v>
       </c>
       <c r="E1223">
-        <f>LOG(P1223,10)</f>
+        <f t="shared" si="76"/>
         <v>5.9823589878495254</v>
       </c>
       <c r="F1223">
@@ -53018,7 +53018,7 @@
         <v>0</v>
       </c>
       <c r="E1224">
-        <f>LOG(P1224,10)</f>
+        <f t="shared" si="76"/>
         <v>5.7688208083050192</v>
       </c>
       <c r="F1224">
@@ -53057,14 +53057,14 @@
         <v>5.1978435543358206</v>
       </c>
       <c r="C1225">
-        <f>LOG(L1225,10)</f>
+        <f t="shared" ref="C1225:C1231" si="77">LOG(L1225,10)</f>
         <v>6.0605667769398144</v>
       </c>
       <c r="D1225">
         <v>0</v>
       </c>
       <c r="E1225">
-        <f>LOG(P1225,10)</f>
+        <f t="shared" si="76"/>
         <v>5.3085262799779507</v>
       </c>
       <c r="F1225">
@@ -53102,14 +53102,14 @@
         <v>0</v>
       </c>
       <c r="C1226">
-        <f>LOG(L1226,10)</f>
+        <f t="shared" si="77"/>
         <v>6.8459376496962454</v>
       </c>
       <c r="D1226">
         <v>0</v>
       </c>
       <c r="E1226">
-        <f>LOG(P1226,10)</f>
+        <f t="shared" si="76"/>
         <v>4.6981005543266852</v>
       </c>
       <c r="F1226">
@@ -53147,7 +53147,7 @@
         <v>0</v>
       </c>
       <c r="C1227">
-        <f>LOG(L1227,10)</f>
+        <f t="shared" si="77"/>
         <v>6.9618454511098262</v>
       </c>
       <c r="D1227">
@@ -53189,7 +53189,7 @@
         <v>0</v>
       </c>
       <c r="C1228">
-        <f>LOG(L1228,10)</f>
+        <f t="shared" si="77"/>
         <v>7.3450786630225142</v>
       </c>
       <c r="D1228">
@@ -53231,7 +53231,7 @@
         <v>0</v>
       </c>
       <c r="C1229">
-        <f>LOG(L1229,10)</f>
+        <f t="shared" si="77"/>
         <v>6.8998557258911442</v>
       </c>
       <c r="D1229">
@@ -53273,7 +53273,7 @@
         <v>0</v>
       </c>
       <c r="C1230">
-        <f>LOG(L1230,10)</f>
+        <f t="shared" si="77"/>
         <v>6.4306635034041433</v>
       </c>
       <c r="D1230">
@@ -53315,7 +53315,7 @@
         <v>0</v>
       </c>
       <c r="C1231">
-        <f>LOG(L1231,10)</f>
+        <f t="shared" si="77"/>
         <v>5.3679538272610579</v>
       </c>
       <c r="D1231">
@@ -53457,7 +53457,7 @@
         <v>7.3696325615760649</v>
       </c>
       <c r="G1234">
-        <f>LOG(T1234,10)</f>
+        <f t="shared" ref="G1234:G1248" si="78">LOG(T1234,10)</f>
         <v>4.0571333672490866</v>
       </c>
       <c r="J1234">
@@ -53500,7 +53500,7 @@
         <v>6.781801385894874</v>
       </c>
       <c r="G1235">
-        <f>LOG(T1235,10)</f>
+        <f t="shared" si="78"/>
         <v>5.2440419689699285</v>
       </c>
       <c r="J1235">
@@ -53544,7 +53544,7 @@
         <v>6.8739813079719925</v>
       </c>
       <c r="G1236">
-        <f>LOG(T1236,10)</f>
+        <f t="shared" si="78"/>
         <v>4.027268042466619</v>
       </c>
       <c r="J1236">
@@ -53586,7 +53586,7 @@
         <v>0</v>
       </c>
       <c r="G1237">
-        <f>LOG(T1237,10)</f>
+        <f t="shared" si="78"/>
         <v>3.1166077439882485</v>
       </c>
       <c r="J1237">
@@ -53623,14 +53623,14 @@
         <v>0</v>
       </c>
       <c r="E1238">
-        <f>LOG(P1238,10)</f>
+        <f t="shared" ref="E1238:E1243" si="79">LOG(P1238,10)</f>
         <v>3.6889534626374174</v>
       </c>
       <c r="F1238">
         <v>0</v>
       </c>
       <c r="G1238">
-        <f>LOG(T1238,10)</f>
+        <f t="shared" si="78"/>
         <v>3.8494194137968991</v>
       </c>
       <c r="J1238">
@@ -53667,14 +53667,14 @@
         <v>0</v>
       </c>
       <c r="E1239">
-        <f>LOG(P1239,10)</f>
+        <f t="shared" si="79"/>
         <v>5.8976121644975041</v>
       </c>
       <c r="F1239">
         <v>0</v>
       </c>
       <c r="G1239">
-        <f>LOG(T1239,10)</f>
+        <f t="shared" si="78"/>
         <v>4.5042805468050764</v>
       </c>
       <c r="J1239">
@@ -53711,14 +53711,14 @@
         <v>0</v>
       </c>
       <c r="E1240">
-        <f>LOG(P1240,10)</f>
+        <f t="shared" si="79"/>
         <v>5.279845134963252</v>
       </c>
       <c r="F1240">
         <v>0</v>
       </c>
       <c r="G1240">
-        <f>LOG(T1240,10)</f>
+        <f t="shared" si="78"/>
         <v>2.7177652886603569</v>
       </c>
       <c r="J1240">
@@ -53754,7 +53754,7 @@
         <v>0</v>
       </c>
       <c r="E1241">
-        <f>LOG(P1241,10)</f>
+        <f t="shared" si="79"/>
         <v>5.9100100363347616</v>
       </c>
       <c r="F1241">
@@ -53762,7 +53762,7 @@
         <v>6.0790742303034921</v>
       </c>
       <c r="G1241">
-        <f>LOG(T1241,10)</f>
+        <f t="shared" si="78"/>
         <v>4.5254287590658668</v>
       </c>
       <c r="J1241">
@@ -53799,14 +53799,14 @@
         <v>0</v>
       </c>
       <c r="E1242">
-        <f>LOG(P1242,10)</f>
+        <f t="shared" si="79"/>
         <v>5.5144634887004349</v>
       </c>
       <c r="F1242">
         <v>0</v>
       </c>
       <c r="G1242">
-        <f>LOG(T1242,10)</f>
+        <f t="shared" si="78"/>
         <v>0.94546858513181975</v>
       </c>
       <c r="J1242">
@@ -53843,7 +53843,7 @@
         <v>0</v>
       </c>
       <c r="E1243">
-        <f>LOG(P1243,10)</f>
+        <f t="shared" si="79"/>
         <v>4.1218077483469964</v>
       </c>
       <c r="F1243">
@@ -53851,7 +53851,7 @@
         <v>5.245878179549571</v>
       </c>
       <c r="G1243">
-        <f>LOG(T1243,10)</f>
+        <f t="shared" si="78"/>
         <v>2.8394710143863513</v>
       </c>
       <c r="J1243">
@@ -53893,7 +53893,7 @@
         <v>0</v>
       </c>
       <c r="G1244">
-        <f>LOG(T1244,10)</f>
+        <f t="shared" si="78"/>
         <v>4.2444982700913503</v>
       </c>
       <c r="J1244">
@@ -53937,7 +53937,7 @@
         <v>6.0846852836064214</v>
       </c>
       <c r="G1245">
-        <f>LOG(T1245,10)</f>
+        <f t="shared" si="78"/>
         <v>3.6256207729039724</v>
       </c>
       <c r="J1245">
@@ -53981,7 +53981,7 @@
         <v>5.8690385918168637</v>
       </c>
       <c r="G1246">
-        <f>LOG(T1246,10)</f>
+        <f t="shared" si="78"/>
         <v>5.2704575573918149</v>
       </c>
       <c r="J1246">
@@ -54023,7 +54023,7 @@
         <v>0</v>
       </c>
       <c r="G1247">
-        <f>LOG(T1247,10)</f>
+        <f t="shared" si="78"/>
         <v>6.538543699093208</v>
       </c>
       <c r="J1247">
@@ -54066,7 +54066,7 @@
         <v>0</v>
       </c>
       <c r="G1248">
-        <f>LOG(T1248,10)</f>
+        <f t="shared" si="78"/>
         <v>6.1124364112861427</v>
       </c>
       <c r="J1248">
@@ -54227,7 +54227,7 @@
         <v>0</v>
       </c>
       <c r="C1252">
-        <f>LOG(L1252,10)</f>
+        <f t="shared" ref="C1252:C1259" si="80">LOG(L1252,10)</f>
         <v>3.590395947184013</v>
       </c>
       <c r="D1252">
@@ -54269,7 +54269,7 @@
         <v>0</v>
       </c>
       <c r="C1253">
-        <f>LOG(L1253,10)</f>
+        <f t="shared" si="80"/>
         <v>4.7593958383098833</v>
       </c>
       <c r="D1253">
@@ -54311,7 +54311,7 @@
         <v>0</v>
       </c>
       <c r="C1254">
-        <f>LOG(L1254,10)</f>
+        <f t="shared" si="80"/>
         <v>4.6947192586382958</v>
       </c>
       <c r="D1254">
@@ -54353,7 +54353,7 @@
         <v>0</v>
       </c>
       <c r="C1255">
-        <f>LOG(L1255,10)</f>
+        <f t="shared" si="80"/>
         <v>4.243534077043563</v>
       </c>
       <c r="D1255">
@@ -54396,7 +54396,7 @@
         <v>0</v>
       </c>
       <c r="C1256">
-        <f>LOG(L1256,10)</f>
+        <f t="shared" si="80"/>
         <v>6.7661342590050815</v>
       </c>
       <c r="D1256">
@@ -54440,7 +54440,7 @@
         <v>0</v>
       </c>
       <c r="C1257">
-        <f>LOG(L1257,10)</f>
+        <f t="shared" si="80"/>
         <v>5.7919613847607403</v>
       </c>
       <c r="D1257">
@@ -54482,7 +54482,7 @@
         <v>0</v>
       </c>
       <c r="C1258">
-        <f>LOG(L1258,10)</f>
+        <f t="shared" si="80"/>
         <v>6.3046229932374311</v>
       </c>
       <c r="D1258">
@@ -54524,7 +54524,7 @@
         <v>0</v>
       </c>
       <c r="C1259">
-        <f>LOG(L1259,10)</f>
+        <f t="shared" si="80"/>
         <v>5.943559803562974</v>
       </c>
       <c r="D1259">
@@ -54968,7 +54968,7 @@
         <v>0</v>
       </c>
       <c r="G1269">
-        <f>LOG(T1269,10)</f>
+        <f t="shared" ref="G1269:G1275" si="81">LOG(T1269,10)</f>
         <v>2.5415792439465807</v>
       </c>
       <c r="J1269">
@@ -55013,7 +55013,7 @@
         <v>4.9791384695468093</v>
       </c>
       <c r="G1270">
-        <f>LOG(T1270,10)</f>
+        <f t="shared" si="81"/>
         <v>4.6946242998376686</v>
       </c>
       <c r="J1270">
@@ -55056,7 +55056,7 @@
         <v>0</v>
       </c>
       <c r="G1271">
-        <f>LOG(T1271,10)</f>
+        <f t="shared" si="81"/>
         <v>2.1553360374650614</v>
       </c>
       <c r="J1271">
@@ -55101,7 +55101,7 @@
         <v>6.9299820703085491</v>
       </c>
       <c r="G1272">
-        <f>LOG(T1272,10)</f>
+        <f t="shared" si="81"/>
         <v>5.1559187550325358</v>
       </c>
       <c r="J1272">
@@ -55144,7 +55144,7 @@
         <v>6.6129809393195726</v>
       </c>
       <c r="G1273">
-        <f>LOG(T1273,10)</f>
+        <f t="shared" si="81"/>
         <v>4.1697919538760315</v>
       </c>
       <c r="J1273">
@@ -55181,7 +55181,7 @@
         <v>7.4520210753008769</v>
       </c>
       <c r="E1274">
-        <f>LOG(P1274,10)</f>
+        <f t="shared" ref="E1274:E1281" si="82">LOG(P1274,10)</f>
         <v>6.3750553587971357</v>
       </c>
       <c r="F1274">
@@ -55189,7 +55189,7 @@
         <v>7.3232756607819169</v>
       </c>
       <c r="G1274">
-        <f>LOG(T1274,10)</f>
+        <f t="shared" si="81"/>
         <v>6.6493562807815607</v>
       </c>
       <c r="J1274">
@@ -55226,7 +55226,7 @@
         <v>0</v>
       </c>
       <c r="E1275">
-        <f>LOG(P1275,10)</f>
+        <f t="shared" si="82"/>
         <v>5.6528726660450515</v>
       </c>
       <c r="F1275">
@@ -55234,7 +55234,7 @@
         <v>5.7682598710396116</v>
       </c>
       <c r="G1275">
-        <f>LOG(T1275,10)</f>
+        <f t="shared" si="81"/>
         <v>4.9645801636167581</v>
       </c>
       <c r="J1275">
@@ -55270,7 +55270,7 @@
         <v>0</v>
       </c>
       <c r="E1276">
-        <f>LOG(P1276,10)</f>
+        <f t="shared" si="82"/>
         <v>1.7634354813342823</v>
       </c>
       <c r="F1276">
@@ -55314,7 +55314,7 @@
         <v>0</v>
       </c>
       <c r="E1277">
-        <f>LOG(P1277,10)</f>
+        <f t="shared" si="82"/>
         <v>3.9751512358151526</v>
       </c>
       <c r="F1277">
@@ -55357,7 +55357,7 @@
         <v>0</v>
       </c>
       <c r="E1278">
-        <f>LOG(P1278,10)</f>
+        <f t="shared" si="82"/>
         <v>2.9057953408712822</v>
       </c>
       <c r="F1278">
@@ -55399,7 +55399,7 @@
         <v>0</v>
       </c>
       <c r="E1279">
-        <f>LOG(P1279,10)</f>
+        <f t="shared" si="82"/>
         <v>2.712648859970423</v>
       </c>
       <c r="F1279">
@@ -55444,7 +55444,7 @@
         <v>0</v>
       </c>
       <c r="E1280">
-        <f>LOG(P1280,10)</f>
+        <f t="shared" si="82"/>
         <v>2.1303337684950061</v>
       </c>
       <c r="F1280">
@@ -55487,7 +55487,7 @@
         <v>0</v>
       </c>
       <c r="E1281">
-        <f>LOG(P1281,10)</f>
+        <f t="shared" si="82"/>
         <v>2.6211721258270937</v>
       </c>
       <c r="F1281">
@@ -55839,7 +55839,7 @@
         <v>0</v>
       </c>
       <c r="G1289">
-        <f>LOG(T1289,10)</f>
+        <f t="shared" ref="G1289:G1297" si="83">LOG(T1289,10)</f>
         <v>2.1583594761508751</v>
       </c>
       <c r="J1289">
@@ -55883,7 +55883,7 @@
         <v>0</v>
       </c>
       <c r="G1290">
-        <f>LOG(T1290,10)</f>
+        <f t="shared" si="83"/>
         <v>3.6866269640012064</v>
       </c>
       <c r="J1290">
@@ -55926,7 +55926,7 @@
         <v>0</v>
       </c>
       <c r="G1291">
-        <f>LOG(T1291,10)</f>
+        <f t="shared" si="83"/>
         <v>2.4048337166199381</v>
       </c>
       <c r="J1291">
@@ -55969,7 +55969,7 @@
         <v>0</v>
       </c>
       <c r="G1292">
-        <f>LOG(T1292,10)</f>
+        <f t="shared" si="83"/>
         <v>2.9518230353159116</v>
       </c>
       <c r="J1292">
@@ -56014,7 +56014,7 @@
         <v>4.7474438629191864</v>
       </c>
       <c r="G1293">
-        <f>LOG(T1293,10)</f>
+        <f t="shared" si="83"/>
         <v>2.8522375750316451</v>
       </c>
       <c r="J1293">
@@ -56057,7 +56057,7 @@
         <v>0</v>
       </c>
       <c r="G1294">
-        <f>LOG(T1294,10)</f>
+        <f t="shared" si="83"/>
         <v>1.9294087069003789</v>
       </c>
       <c r="J1294">
@@ -56100,7 +56100,7 @@
         <v>0</v>
       </c>
       <c r="G1295">
-        <f>LOG(T1295,10)</f>
+        <f t="shared" si="83"/>
         <v>2.4727608361080051</v>
       </c>
       <c r="J1295">
@@ -56143,7 +56143,7 @@
         <v>0</v>
       </c>
       <c r="G1296">
-        <f>LOG(T1296,10)</f>
+        <f t="shared" si="83"/>
         <v>1.8920890347768151</v>
       </c>
       <c r="J1296">
@@ -56188,7 +56188,7 @@
         <v>6.218284308232918</v>
       </c>
       <c r="G1297">
-        <f>LOG(T1297,10)</f>
+        <f t="shared" si="83"/>
         <v>3.2557497784902312</v>
       </c>
       <c r="J1297">
@@ -56272,7 +56272,7 @@
         <v>0</v>
       </c>
       <c r="G1299">
-        <f>LOG(T1299,10)</f>
+        <f t="shared" ref="G1299:G1305" si="84">LOG(T1299,10)</f>
         <v>4.6472655773630187</v>
       </c>
       <c r="J1299">
@@ -56315,7 +56315,7 @@
         <v>0</v>
       </c>
       <c r="G1300">
-        <f>LOG(T1300,10)</f>
+        <f t="shared" si="84"/>
         <v>1.2041199826559246</v>
       </c>
       <c r="J1300">
@@ -56359,7 +56359,7 @@
         <v>6.4680652428449177</v>
       </c>
       <c r="G1301">
-        <f>LOG(T1301,10)</f>
+        <f t="shared" si="84"/>
         <v>3.6524397475894204</v>
       </c>
       <c r="J1301">
@@ -56404,7 +56404,7 @@
         <v>3.9045668018028823</v>
       </c>
       <c r="G1302">
-        <f>LOG(T1302,10)</f>
+        <f t="shared" si="84"/>
         <v>3.4141819541562533</v>
       </c>
       <c r="J1302">
@@ -56449,7 +56449,7 @@
         <v>5.294348797341109</v>
       </c>
       <c r="G1303">
-        <f>LOG(T1303,10)</f>
+        <f t="shared" si="84"/>
         <v>4.3212987989656595</v>
       </c>
       <c r="J1303">
@@ -56494,7 +56494,7 @@
         <v>5.4058938484799066</v>
       </c>
       <c r="G1304">
-        <f>LOG(T1304,10)</f>
+        <f t="shared" si="84"/>
         <v>4.8204578653548982</v>
       </c>
       <c r="J1304">
@@ -56537,7 +56537,7 @@
         <v>0</v>
       </c>
       <c r="G1305">
-        <f>LOG(T1305,10)</f>
+        <f t="shared" si="84"/>
         <v>4.3137348036140031</v>
       </c>
       <c r="J1305">
@@ -57935,7 +57935,7 @@
         <v>6.9038475497578471</v>
       </c>
       <c r="E1338">
-        <f>LOG(P1338,10)</f>
+        <f t="shared" ref="E1338:E1343" si="85">LOG(P1338,10)</f>
         <v>4.7166376183281278</v>
       </c>
       <c r="F1338">
@@ -57979,7 +57979,7 @@
         <v>0</v>
       </c>
       <c r="E1339">
-        <f>LOG(P1339,10)</f>
+        <f t="shared" si="85"/>
         <v>3.4517864355242902</v>
       </c>
       <c r="F1339">
@@ -58023,7 +58023,7 @@
         <v>0</v>
       </c>
       <c r="E1340">
-        <f>LOG(P1340,10)</f>
+        <f t="shared" si="85"/>
         <v>4.2943118809020122</v>
       </c>
       <c r="F1340">
@@ -58067,7 +58067,7 @@
         <v>0</v>
       </c>
       <c r="E1341">
-        <f>LOG(P1341,10)</f>
+        <f t="shared" si="85"/>
         <v>4.4471114972976462</v>
       </c>
       <c r="F1341">
@@ -58110,7 +58110,7 @@
         <v>0</v>
       </c>
       <c r="E1342">
-        <f>LOG(P1342,10)</f>
+        <f t="shared" si="85"/>
         <v>4.4725663124739663</v>
       </c>
       <c r="F1342">
@@ -58154,7 +58154,7 @@
         <v>0</v>
       </c>
       <c r="E1343">
-        <f>LOG(P1343,10)</f>
+        <f t="shared" si="85"/>
         <v>3.0417877134261428</v>
       </c>
       <c r="F1343">
@@ -59952,14 +59952,14 @@
         <v>0</v>
       </c>
       <c r="E1385">
-        <f>LOG(P1385,10)</f>
+        <f t="shared" ref="E1385:E1390" si="86">LOG(P1385,10)</f>
         <v>3.1792644643390253</v>
       </c>
       <c r="F1385">
         <v>0</v>
       </c>
       <c r="G1385">
-        <f>LOG(T1385,10)</f>
+        <f t="shared" ref="G1385:G1391" si="87">LOG(T1385,10)</f>
         <v>6.736270737886672</v>
       </c>
       <c r="J1385">
@@ -59995,7 +59995,7 @@
         <v>0</v>
       </c>
       <c r="E1386">
-        <f>LOG(P1386,10)</f>
+        <f t="shared" si="86"/>
         <v>6.0296836575619661</v>
       </c>
       <c r="F1386">
@@ -60003,7 +60003,7 @@
         <v>4.3996957562627381</v>
       </c>
       <c r="G1386">
-        <f>LOG(T1386,10)</f>
+        <f t="shared" si="87"/>
         <v>4.9142071328792287</v>
       </c>
       <c r="J1386">
@@ -60040,7 +60040,7 @@
         <v>7.3298444949265074</v>
       </c>
       <c r="E1387">
-        <f>LOG(P1387,10)</f>
+        <f t="shared" si="86"/>
         <v>6.3220068521000616</v>
       </c>
       <c r="F1387">
@@ -60048,7 +60048,7 @@
         <v>6.7528073001658955</v>
       </c>
       <c r="G1387">
-        <f>LOG(T1387,10)</f>
+        <f t="shared" si="87"/>
         <v>6.4016817071257837</v>
       </c>
       <c r="J1387">
@@ -60084,14 +60084,14 @@
         <v>0</v>
       </c>
       <c r="E1388">
-        <f>LOG(P1388,10)</f>
+        <f t="shared" si="86"/>
         <v>3.0976029413498876</v>
       </c>
       <c r="F1388">
         <v>0</v>
       </c>
       <c r="G1388">
-        <f>LOG(T1388,10)</f>
+        <f t="shared" si="87"/>
         <v>2.3010386814667614</v>
       </c>
       <c r="J1388">
@@ -60127,7 +60127,7 @@
         <v>0</v>
       </c>
       <c r="E1389">
-        <f>LOG(P1389,10)</f>
+        <f t="shared" si="86"/>
         <v>5.6751206989076373</v>
       </c>
       <c r="F1389">
@@ -60135,7 +60135,7 @@
         <v>5.5969345047918875</v>
       </c>
       <c r="G1389">
-        <f>LOG(T1389,10)</f>
+        <f t="shared" si="87"/>
         <v>3.7084654177117837</v>
       </c>
       <c r="J1389">
@@ -60172,14 +60172,14 @@
         <v>0</v>
       </c>
       <c r="E1390">
-        <f>LOG(P1390,10)</f>
+        <f t="shared" si="86"/>
         <v>6.1979588544211346</v>
       </c>
       <c r="F1390">
         <v>0</v>
       </c>
       <c r="G1390">
-        <f>LOG(T1390,10)</f>
+        <f t="shared" si="87"/>
         <v>1.4223266557933494</v>
       </c>
       <c r="J1390">
@@ -60222,7 +60222,7 @@
         <v>4.2248916536781564</v>
       </c>
       <c r="G1391">
-        <f>LOG(T1391,10)</f>
+        <f t="shared" si="87"/>
         <v>5.6200170039559847</v>
       </c>
       <c r="J1391">
@@ -60258,7 +60258,7 @@
         <v>0</v>
       </c>
       <c r="E1392">
-        <f>LOG(P1392,10)</f>
+        <f t="shared" ref="E1392:E1399" si="88">LOG(P1392,10)</f>
         <v>5.1098214409162557</v>
       </c>
       <c r="F1392">
@@ -60301,7 +60301,7 @@
         <v>0</v>
       </c>
       <c r="E1393">
-        <f>LOG(P1393,10)</f>
+        <f t="shared" si="88"/>
         <v>3.7220082689875684</v>
       </c>
       <c r="F1393">
@@ -60343,7 +60343,7 @@
         <v>0</v>
       </c>
       <c r="E1394">
-        <f>LOG(P1394,10)</f>
+        <f t="shared" si="88"/>
         <v>6.3862417594236218</v>
       </c>
       <c r="F1394">
@@ -60386,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="E1395">
-        <f>LOG(P1395,10)</f>
+        <f t="shared" si="88"/>
         <v>5.7326206917724587</v>
       </c>
       <c r="F1395">
@@ -60428,7 +60428,7 @@
         <v>0</v>
       </c>
       <c r="E1396">
-        <f>LOG(P1396,10)</f>
+        <f t="shared" si="88"/>
         <v>2.7219474829344392</v>
       </c>
       <c r="F1396">
@@ -60473,7 +60473,7 @@
         <v>0</v>
       </c>
       <c r="E1397">
-        <f>LOG(P1397,10)</f>
+        <f t="shared" si="88"/>
         <v>3.3544597047045355</v>
       </c>
       <c r="F1397">
@@ -60517,7 +60517,7 @@
         <v>0</v>
       </c>
       <c r="E1398">
-        <f>LOG(P1398,10)</f>
+        <f t="shared" si="88"/>
         <v>5.3976282801084619</v>
       </c>
       <c r="F1398">
@@ -60559,7 +60559,7 @@
         <v>0</v>
       </c>
       <c r="E1399">
-        <f>LOG(P1399,10)</f>
+        <f t="shared" si="88"/>
         <v>1.7337128090005312E-3</v>
       </c>
       <c r="F1399">
@@ -61070,7 +61070,7 @@
         <v>48213</v>
       </c>
       <c r="B1411">
-        <f>LOG(J1411,10)</f>
+        <f t="shared" ref="B1411:B1418" si="89">LOG(J1411,10)</f>
         <v>5.6068681763280459</v>
       </c>
       <c r="C1411">
@@ -61115,7 +61115,7 @@
         <v>48215</v>
       </c>
       <c r="B1412">
-        <f>LOG(J1412,10)</f>
+        <f t="shared" si="89"/>
         <v>4.320976656602876</v>
       </c>
       <c r="C1412">
@@ -61159,7 +61159,7 @@
         <v>48221</v>
       </c>
       <c r="B1413">
-        <f>LOG(J1413,10)</f>
+        <f t="shared" si="89"/>
         <v>4.1599880203353212</v>
       </c>
       <c r="C1413">
@@ -61202,7 +61202,7 @@
         <v>48227</v>
       </c>
       <c r="B1414">
-        <f>LOG(J1414,10)</f>
+        <f t="shared" si="89"/>
         <v>4.4691590418163498</v>
       </c>
       <c r="C1414">
@@ -61245,7 +61245,7 @@
         <v>48229</v>
       </c>
       <c r="B1415">
-        <f>LOG(J1415,10)</f>
+        <f t="shared" si="89"/>
         <v>4.237775877867664</v>
       </c>
       <c r="C1415">
@@ -61287,7 +61287,7 @@
         <v>48231</v>
       </c>
       <c r="B1416">
-        <f>LOG(J1416,10)</f>
+        <f t="shared" si="89"/>
         <v>4.7245134374414599</v>
       </c>
       <c r="C1416">
@@ -61329,7 +61329,7 @@
         <v>48233</v>
       </c>
       <c r="B1417">
-        <f>LOG(J1417,10)</f>
+        <f t="shared" si="89"/>
         <v>4.1118950068182425</v>
       </c>
       <c r="C1417">
@@ -61371,11 +61371,11 @@
         <v>48245</v>
       </c>
       <c r="B1418">
-        <f>LOG(J1418,10)</f>
+        <f t="shared" si="89"/>
         <v>4.2192057144158523</v>
       </c>
       <c r="C1418">
-        <f>LOG(L1418,10)</f>
+        <f t="shared" ref="C1418:C1424" si="90">LOG(L1418,10)</f>
         <v>5.5627732959834848</v>
       </c>
       <c r="D1418">
@@ -61420,7 +61420,7 @@
         <v>0</v>
       </c>
       <c r="C1419">
-        <f>LOG(L1419,10)</f>
+        <f t="shared" si="90"/>
         <v>5.377584882539268</v>
       </c>
       <c r="D1419">
@@ -61462,7 +61462,7 @@
         <v>0</v>
       </c>
       <c r="C1420">
-        <f>LOG(L1420,10)</f>
+        <f t="shared" si="90"/>
         <v>5.0960753695661447</v>
       </c>
       <c r="D1420">
@@ -61504,7 +61504,7 @@
         <v>0</v>
       </c>
       <c r="C1421">
-        <f>LOG(L1421,10)</f>
+        <f t="shared" si="90"/>
         <v>5.5820679070634425</v>
       </c>
       <c r="D1421">
@@ -61546,7 +61546,7 @@
         <v>0</v>
       </c>
       <c r="C1422">
-        <f>LOG(L1422,10)</f>
+        <f t="shared" si="90"/>
         <v>5.1032870512826536</v>
       </c>
       <c r="D1422">
@@ -61588,7 +61588,7 @@
         <v>0</v>
       </c>
       <c r="C1423">
-        <f>LOG(L1423,10)</f>
+        <f t="shared" si="90"/>
         <v>4.7246280952447677</v>
       </c>
       <c r="D1423">
@@ -61630,7 +61630,7 @@
         <v>0</v>
       </c>
       <c r="C1424">
-        <f>LOG(L1424,10)</f>
+        <f t="shared" si="90"/>
         <v>4.9095934614589911</v>
       </c>
       <c r="D1424">
@@ -62022,7 +62022,7 @@
         <v>0</v>
       </c>
       <c r="E1433">
-        <f>LOG(P1433,10)</f>
+        <f t="shared" ref="E1433:E1443" si="91">LOG(P1433,10)</f>
         <v>5.2975744991524261</v>
       </c>
       <c r="F1433">
@@ -62064,7 +62064,7 @@
         <v>0</v>
       </c>
       <c r="E1434">
-        <f>LOG(P1434,10)</f>
+        <f t="shared" si="91"/>
         <v>5.0613205194729929</v>
       </c>
       <c r="F1434">
@@ -62106,7 +62106,7 @@
         <v>0</v>
       </c>
       <c r="E1435">
-        <f>LOG(P1435,10)</f>
+        <f t="shared" si="91"/>
         <v>5.676891968324429</v>
       </c>
       <c r="F1435">
@@ -62148,7 +62148,7 @@
         <v>0</v>
       </c>
       <c r="E1436">
-        <f>LOG(P1436,10)</f>
+        <f t="shared" si="91"/>
         <v>4.5257960697118911</v>
       </c>
       <c r="F1436">
@@ -62191,7 +62191,7 @@
         <v>0</v>
       </c>
       <c r="E1437">
-        <f>LOG(P1437,10)</f>
+        <f t="shared" si="91"/>
         <v>5.1957474843750298</v>
       </c>
       <c r="F1437">
@@ -62234,7 +62234,7 @@
         <v>0</v>
       </c>
       <c r="E1438">
-        <f>LOG(P1438,10)</f>
+        <f t="shared" si="91"/>
         <v>6.1872358585676608</v>
       </c>
       <c r="F1438">
@@ -62242,7 +62242,7 @@
         <v>5.3573210576586918</v>
       </c>
       <c r="G1438">
-        <f>LOG(T1438,10)</f>
+        <f t="shared" ref="G1438:G1443" si="92">LOG(T1438,10)</f>
         <v>4.479173834547173</v>
       </c>
       <c r="J1438">
@@ -62279,7 +62279,7 @@
         <v>0</v>
       </c>
       <c r="E1439">
-        <f>LOG(P1439,10)</f>
+        <f t="shared" si="91"/>
         <v>6.38847252662522</v>
       </c>
       <c r="F1439">
@@ -62287,7 +62287,7 @@
         <v>4.8322166733830167</v>
       </c>
       <c r="G1439">
-        <f>LOG(T1439,10)</f>
+        <f t="shared" si="92"/>
         <v>4.5487387638795669</v>
       </c>
       <c r="J1439">
@@ -62324,7 +62324,7 @@
         <v>0</v>
       </c>
       <c r="E1440">
-        <f>LOG(P1440,10)</f>
+        <f t="shared" si="91"/>
         <v>5.6237482791116014</v>
       </c>
       <c r="F1440">
@@ -62332,7 +62332,7 @@
         <v>6.8117986859180686</v>
       </c>
       <c r="G1440">
-        <f>LOG(T1440,10)</f>
+        <f t="shared" si="92"/>
         <v>3.8716313045375532</v>
       </c>
       <c r="J1440">
@@ -62368,14 +62368,14 @@
         <v>0</v>
       </c>
       <c r="E1441">
-        <f>LOG(P1441,10)</f>
+        <f t="shared" si="91"/>
         <v>5.5616268042130237</v>
       </c>
       <c r="F1441">
         <v>0</v>
       </c>
       <c r="G1441">
-        <f>LOG(T1441,10)</f>
+        <f t="shared" si="92"/>
         <v>3.9163496527101893</v>
       </c>
       <c r="J1441">
@@ -62411,14 +62411,14 @@
         <v>0</v>
       </c>
       <c r="E1442">
-        <f>LOG(P1442,10)</f>
+        <f t="shared" si="91"/>
         <v>5.9561251212292845</v>
       </c>
       <c r="F1442">
         <v>0</v>
       </c>
       <c r="G1442">
-        <f>LOG(T1442,10)</f>
+        <f t="shared" si="92"/>
         <v>2.3941455704803674</v>
       </c>
       <c r="J1442">
@@ -62455,14 +62455,14 @@
         <v>0</v>
       </c>
       <c r="E1443">
-        <f>LOG(P1443,10)</f>
+        <f t="shared" si="91"/>
         <v>5.0756548398805696</v>
       </c>
       <c r="F1443">
         <v>0</v>
       </c>
       <c r="G1443">
-        <f>LOG(T1443,10)</f>
+        <f t="shared" si="92"/>
         <v>5.2758246585613975</v>
       </c>
       <c r="J1443">
@@ -62489,7 +62489,7 @@
         <v>48377</v>
       </c>
       <c r="B1444">
-        <f>LOG(J1444,10)</f>
+        <f t="shared" ref="B1444:B1454" si="93">LOG(J1444,10)</f>
         <v>4.1542717759930943</v>
       </c>
       <c r="C1444">
@@ -62531,7 +62531,7 @@
         <v>48383</v>
       </c>
       <c r="B1445">
-        <f>LOG(J1445,10)</f>
+        <f t="shared" si="93"/>
         <v>4.2379205663503798</v>
       </c>
       <c r="C1445">
@@ -62573,7 +62573,7 @@
         <v>48387</v>
       </c>
       <c r="B1446">
-        <f>LOG(J1446,10)</f>
+        <f t="shared" si="93"/>
         <v>4.2376191299461885</v>
       </c>
       <c r="C1446">
@@ -62615,7 +62615,7 @@
         <v>48395</v>
       </c>
       <c r="B1447">
-        <f>LOG(J1447,10)</f>
+        <f t="shared" si="93"/>
         <v>4.090046181269269</v>
       </c>
       <c r="C1447">
@@ -62657,7 +62657,7 @@
         <v>48401</v>
       </c>
       <c r="B1448">
-        <f>LOG(J1448,10)</f>
+        <f t="shared" si="93"/>
         <v>4.817433157335941</v>
       </c>
       <c r="C1448">
@@ -62700,7 +62700,7 @@
         <v>48409</v>
       </c>
       <c r="B1449">
-        <f>LOG(J1449,10)</f>
+        <f t="shared" si="93"/>
         <v>4.5741818896752404</v>
       </c>
       <c r="C1449">
@@ -62742,7 +62742,7 @@
         <v>48415</v>
       </c>
       <c r="B1450">
-        <f>LOG(J1450,10)</f>
+        <f t="shared" si="93"/>
         <v>4.2913467355069344</v>
       </c>
       <c r="C1450">
@@ -62784,7 +62784,7 @@
         <v>48425</v>
       </c>
       <c r="B1451">
-        <f>LOG(J1451,10)</f>
+        <f t="shared" si="93"/>
         <v>4.3213083068794544</v>
       </c>
       <c r="C1451">
@@ -62826,7 +62826,7 @@
         <v>48427</v>
       </c>
       <c r="B1452">
-        <f>LOG(J1452,10)</f>
+        <f t="shared" si="93"/>
         <v>4.6449110338787509</v>
       </c>
       <c r="C1452">
@@ -62868,7 +62868,7 @@
         <v>48437</v>
       </c>
       <c r="B1453">
-        <f>LOG(J1453,10)</f>
+        <f t="shared" si="93"/>
         <v>4.3893256626966712</v>
       </c>
       <c r="C1453">
@@ -62910,7 +62910,7 @@
         <v>48439</v>
       </c>
       <c r="B1454">
-        <f>LOG(J1454,10)</f>
+        <f t="shared" si="93"/>
         <v>5.268521818843368</v>
       </c>
       <c r="C1454">
@@ -63266,7 +63266,7 @@
         <v>0</v>
       </c>
       <c r="G1462">
-        <f>LOG(T1462,10)</f>
+        <f t="shared" ref="G1462:G1475" si="94">LOG(T1462,10)</f>
         <v>3.5140161804006489</v>
       </c>
       <c r="J1462">
@@ -63308,7 +63308,7 @@
         <v>0</v>
       </c>
       <c r="G1463">
-        <f>LOG(T1463,10)</f>
+        <f t="shared" si="94"/>
         <v>4.1463142150351988</v>
       </c>
       <c r="J1463">
@@ -63350,7 +63350,7 @@
         <v>0</v>
       </c>
       <c r="G1464">
-        <f>LOG(T1464,10)</f>
+        <f t="shared" si="94"/>
         <v>3.4107774020352282</v>
       </c>
       <c r="J1464">
@@ -63392,7 +63392,7 @@
         <v>0</v>
       </c>
       <c r="G1465">
-        <f>LOG(T1465,10)</f>
+        <f t="shared" si="94"/>
         <v>3.5851222991985301</v>
       </c>
       <c r="J1465">
@@ -63434,7 +63434,7 @@
         <v>0</v>
       </c>
       <c r="G1466">
-        <f>LOG(T1466,10)</f>
+        <f t="shared" si="94"/>
         <v>3.682144895793968</v>
       </c>
       <c r="J1466">
@@ -63471,14 +63471,14 @@
         <v>0</v>
       </c>
       <c r="E1467">
-        <f>LOG(P1467,10)</f>
+        <f t="shared" ref="E1467:E1472" si="95">LOG(P1467,10)</f>
         <v>4.3293868003369829</v>
       </c>
       <c r="F1467">
         <v>0</v>
       </c>
       <c r="G1467">
-        <f>LOG(T1467,10)</f>
+        <f t="shared" si="94"/>
         <v>3.7929616868347367</v>
       </c>
       <c r="J1467">
@@ -63514,14 +63514,14 @@
         <v>0</v>
       </c>
       <c r="E1468">
-        <f>LOG(P1468,10)</f>
+        <f t="shared" si="95"/>
         <v>6.15163205215313</v>
       </c>
       <c r="F1468">
         <v>0</v>
       </c>
       <c r="G1468">
-        <f>LOG(T1468,10)</f>
+        <f t="shared" si="94"/>
         <v>5.2968472048520363</v>
       </c>
       <c r="J1468">
@@ -63557,14 +63557,14 @@
         <v>0</v>
       </c>
       <c r="E1469">
-        <f>LOG(P1469,10)</f>
+        <f t="shared" si="95"/>
         <v>5.3466854150275731</v>
       </c>
       <c r="F1469">
         <v>0</v>
       </c>
       <c r="G1469">
-        <f>LOG(T1469,10)</f>
+        <f t="shared" si="94"/>
         <v>3.7595167594621874</v>
       </c>
       <c r="J1469">
@@ -63600,14 +63600,14 @@
         <v>0</v>
       </c>
       <c r="E1470">
-        <f>LOG(P1470,10)</f>
+        <f t="shared" si="95"/>
         <v>5.6004795443947017</v>
       </c>
       <c r="F1470">
         <v>0</v>
       </c>
       <c r="G1470">
-        <f>LOG(T1470,10)</f>
+        <f t="shared" si="94"/>
         <v>4.0149823085854814</v>
       </c>
       <c r="J1470">
@@ -63643,14 +63643,14 @@
         <v>0</v>
       </c>
       <c r="E1471">
-        <f>LOG(P1471,10)</f>
+        <f t="shared" si="95"/>
         <v>5.8383994576839546</v>
       </c>
       <c r="F1471">
         <v>0</v>
       </c>
       <c r="G1471">
-        <f>LOG(T1471,10)</f>
+        <f t="shared" si="94"/>
         <v>6.7778995762051322</v>
       </c>
       <c r="J1471">
@@ -63686,14 +63686,14 @@
         <v>0</v>
       </c>
       <c r="E1472">
-        <f>LOG(P1472,10)</f>
+        <f t="shared" si="95"/>
         <v>5.311425367855132</v>
       </c>
       <c r="F1472">
         <v>0</v>
       </c>
       <c r="G1472">
-        <f>LOG(T1472,10)</f>
+        <f t="shared" si="94"/>
         <v>6.2149349344107874</v>
       </c>
       <c r="J1472">
@@ -63735,7 +63735,7 @@
         <v>0</v>
       </c>
       <c r="G1473">
-        <f>LOG(T1473,10)</f>
+        <f t="shared" si="94"/>
         <v>3.4331295175804852</v>
       </c>
       <c r="J1473">
@@ -63777,7 +63777,7 @@
         <v>0</v>
       </c>
       <c r="G1474">
-        <f>LOG(T1474,10)</f>
+        <f t="shared" si="94"/>
         <v>5.2755739253954257</v>
       </c>
       <c r="J1474">
@@ -63821,7 +63821,7 @@
         <v>0</v>
       </c>
       <c r="G1475">
-        <f>LOG(T1475,10)</f>
+        <f t="shared" si="94"/>
         <v>5.2356590294720462</v>
       </c>
       <c r="J1475">
@@ -64023,7 +64023,7 @@
         <v>0</v>
       </c>
       <c r="C1480">
-        <f>LOG(L1480,10)</f>
+        <f t="shared" ref="C1480:C1487" si="96">LOG(L1480,10)</f>
         <v>4.4554995870854288</v>
       </c>
       <c r="D1480">
@@ -64065,7 +64065,7 @@
         <v>0</v>
       </c>
       <c r="C1481">
-        <f>LOG(L1481,10)</f>
+        <f t="shared" si="96"/>
         <v>3.6721902511882525</v>
       </c>
       <c r="D1481">
@@ -64107,7 +64107,7 @@
         <v>0</v>
       </c>
       <c r="C1482">
-        <f>LOG(L1482,10)</f>
+        <f t="shared" si="96"/>
         <v>4.3196056583257096</v>
       </c>
       <c r="D1482">
@@ -64150,7 +64150,7 @@
         <v>4.2878017299302256</v>
       </c>
       <c r="C1483">
-        <f>LOG(L1483,10)</f>
+        <f t="shared" si="96"/>
         <v>3.5713592762272652</v>
       </c>
       <c r="D1483">
@@ -64195,7 +64195,7 @@
         <v>0</v>
       </c>
       <c r="C1484">
-        <f>LOG(L1484,10)</f>
+        <f t="shared" si="96"/>
         <v>6.1971476304375157</v>
       </c>
       <c r="D1484">
@@ -64237,7 +64237,7 @@
         <v>0</v>
       </c>
       <c r="C1485">
-        <f>LOG(L1485,10)</f>
+        <f t="shared" si="96"/>
         <v>5.3806977426596161</v>
       </c>
       <c r="D1485">
@@ -64279,7 +64279,7 @@
         <v>0</v>
       </c>
       <c r="C1486">
-        <f>LOG(L1486,10)</f>
+        <f t="shared" si="96"/>
         <v>5.1847340066209657</v>
       </c>
       <c r="D1486">
@@ -64321,7 +64321,7 @@
         <v>0</v>
       </c>
       <c r="C1487">
-        <f>LOG(L1487,10)</f>
+        <f t="shared" si="96"/>
         <v>5.271146644105043</v>
       </c>
       <c r="D1487">
@@ -64929,7 +64929,7 @@
         <v>0</v>
       </c>
       <c r="E1501">
-        <f>LOG(P1501,10)</f>
+        <f t="shared" ref="E1501:E1508" si="97">LOG(P1501,10)</f>
         <v>5.3846085440999918</v>
       </c>
       <c r="F1501">
@@ -64975,7 +64975,7 @@
         <v>6.7736840739479938</v>
       </c>
       <c r="E1502">
-        <f>LOG(P1502,10)</f>
+        <f t="shared" si="97"/>
         <v>5.7648800074428266</v>
       </c>
       <c r="F1502">
@@ -65019,7 +65019,7 @@
         <v>0</v>
       </c>
       <c r="E1503">
-        <f>LOG(P1503,10)</f>
+        <f t="shared" si="97"/>
         <v>5.7390300940483927</v>
       </c>
       <c r="F1503">
@@ -65065,7 +65065,7 @@
         <v>0</v>
       </c>
       <c r="E1504">
-        <f>LOG(P1504,10)</f>
+        <f t="shared" si="97"/>
         <v>3.0188285883275174</v>
       </c>
       <c r="F1504">
@@ -65107,7 +65107,7 @@
         <v>0</v>
       </c>
       <c r="E1505">
-        <f>LOG(P1505,10)</f>
+        <f t="shared" si="97"/>
         <v>3.980003371583746</v>
       </c>
       <c r="F1505">
@@ -65151,7 +65151,7 @@
         <v>0</v>
       </c>
       <c r="E1506">
-        <f>LOG(P1506,10)</f>
+        <f t="shared" si="97"/>
         <v>3.4981725227214748</v>
       </c>
       <c r="F1506">
@@ -65195,7 +65195,7 @@
         <v>0</v>
       </c>
       <c r="E1507">
-        <f>LOG(P1507,10)</f>
+        <f t="shared" si="97"/>
         <v>3.7206553565517244</v>
       </c>
       <c r="F1507">
@@ -65238,7 +65238,7 @@
         <v>0</v>
       </c>
       <c r="E1508">
-        <f>LOG(P1508,10)</f>
+        <f t="shared" si="97"/>
         <v>4.8438756515641126</v>
       </c>
       <c r="F1508">
@@ -65493,7 +65493,7 @@
         <v>0</v>
       </c>
       <c r="E1514">
-        <f>LOG(P1514,10)</f>
+        <f t="shared" ref="E1514:E1519" si="98">LOG(P1514,10)</f>
         <v>6.3421335813832176</v>
       </c>
       <c r="F1514">
@@ -65535,7 +65535,7 @@
         <v>0</v>
       </c>
       <c r="E1515">
-        <f>LOG(P1515,10)</f>
+        <f t="shared" si="98"/>
         <v>5.437231702215608</v>
       </c>
       <c r="F1515">
@@ -65577,7 +65577,7 @@
         <v>0</v>
       </c>
       <c r="E1516">
-        <f>LOG(P1516,10)</f>
+        <f t="shared" si="98"/>
         <v>6.5434537658994438</v>
       </c>
       <c r="F1516">
@@ -65619,7 +65619,7 @@
         <v>0</v>
       </c>
       <c r="E1517">
-        <f>LOG(P1517,10)</f>
+        <f t="shared" si="98"/>
         <v>5.3653551511486093</v>
       </c>
       <c r="F1517">
@@ -65662,7 +65662,7 @@
         <v>0</v>
       </c>
       <c r="E1518">
-        <f>LOG(P1518,10)</f>
+        <f t="shared" si="98"/>
         <v>6.5998192326401686</v>
       </c>
       <c r="F1518">
@@ -65705,7 +65705,7 @@
         <v>0</v>
       </c>
       <c r="E1519">
-        <f>LOG(P1519,10)</f>
+        <f t="shared" si="98"/>
         <v>3.813040829421424</v>
       </c>
       <c r="F1519">
@@ -68438,7 +68438,7 @@
         <v>0</v>
       </c>
       <c r="G1583">
-        <f>LOG(T1583,10)</f>
+        <f t="shared" ref="G1583:G1589" si="99">LOG(T1583,10)</f>
         <v>4.240524288112363</v>
       </c>
       <c r="J1583">
@@ -68481,7 +68481,7 @@
         <v>0</v>
       </c>
       <c r="G1584">
-        <f>LOG(T1584,10)</f>
+        <f t="shared" si="99"/>
         <v>5.3353435448244708</v>
       </c>
       <c r="J1584">
@@ -68524,7 +68524,7 @@
         <v>0</v>
       </c>
       <c r="G1585">
-        <f>LOG(T1585,10)</f>
+        <f t="shared" si="99"/>
         <v>5.2916085787742153</v>
       </c>
       <c r="J1585">
@@ -68561,7 +68561,7 @@
         <v>0</v>
       </c>
       <c r="E1586">
-        <f>LOG(P1586,10)</f>
+        <f t="shared" ref="E1586:E1591" si="100">LOG(P1586,10)</f>
         <v>4.6419646614740104</v>
       </c>
       <c r="F1586">
@@ -68569,7 +68569,7 @@
         <v>5.8101856617485019</v>
       </c>
       <c r="G1586">
-        <f>LOG(T1586,10)</f>
+        <f t="shared" si="99"/>
         <v>2.6815360413436378</v>
       </c>
       <c r="J1586">
@@ -68605,14 +68605,14 @@
         <v>0</v>
       </c>
       <c r="E1587">
-        <f>LOG(P1587,10)</f>
+        <f t="shared" si="100"/>
         <v>5.3304584181506733</v>
       </c>
       <c r="F1587">
         <v>0</v>
       </c>
       <c r="G1587">
-        <f>LOG(T1587,10)</f>
+        <f t="shared" si="99"/>
         <v>3.7495817348655587</v>
       </c>
       <c r="J1587">
@@ -68648,14 +68648,14 @@
         <v>0</v>
       </c>
       <c r="E1588">
-        <f>LOG(P1588,10)</f>
+        <f t="shared" si="100"/>
         <v>3.3016809492935759</v>
       </c>
       <c r="F1588">
         <v>0</v>
       </c>
       <c r="G1588">
-        <f>LOG(T1588,10)</f>
+        <f t="shared" si="99"/>
         <v>3.9238654751855009</v>
       </c>
       <c r="J1588">
@@ -68692,14 +68692,14 @@
         <v>0</v>
       </c>
       <c r="E1589">
-        <f>LOG(P1589,10)</f>
+        <f t="shared" si="100"/>
         <v>3.9312827089173532</v>
       </c>
       <c r="F1589">
         <v>0</v>
       </c>
       <c r="G1589">
-        <f>LOG(T1589,10)</f>
+        <f t="shared" si="99"/>
         <v>3.3379885722039204</v>
       </c>
       <c r="J1589">
@@ -68735,7 +68735,7 @@
         <v>0</v>
       </c>
       <c r="E1590">
-        <f>LOG(P1590,10)</f>
+        <f t="shared" si="100"/>
         <v>4.8300366356966586</v>
       </c>
       <c r="F1590">
@@ -68777,7 +68777,7 @@
         <v>0</v>
       </c>
       <c r="E1591">
-        <f>LOG(P1591,10)</f>
+        <f t="shared" si="100"/>
         <v>4.1490650185837099</v>
       </c>
       <c r="F1591">
@@ -71043,7 +71043,7 @@
         <v>0</v>
       </c>
       <c r="E1644">
-        <f>LOG(P1644,10)</f>
+        <f t="shared" ref="E1644:E1649" si="101">LOG(P1644,10)</f>
         <v>5.9854356274501033</v>
       </c>
       <c r="F1644">
@@ -71086,7 +71086,7 @@
         <v>0</v>
       </c>
       <c r="E1645">
-        <f>LOG(P1645,10)</f>
+        <f t="shared" si="101"/>
         <v>5.7161394569192163</v>
       </c>
       <c r="F1645">
@@ -71128,7 +71128,7 @@
         <v>0</v>
       </c>
       <c r="E1646">
-        <f>LOG(P1646,10)</f>
+        <f t="shared" si="101"/>
         <v>5.5222443370568852</v>
       </c>
       <c r="F1646">
@@ -71172,7 +71172,7 @@
         <v>0</v>
       </c>
       <c r="E1647">
-        <f>LOG(P1647,10)</f>
+        <f t="shared" si="101"/>
         <v>3.3195224490654538</v>
       </c>
       <c r="F1647">
@@ -71216,7 +71216,7 @@
         <v>0</v>
       </c>
       <c r="E1648">
-        <f>LOG(P1648,10)</f>
+        <f t="shared" si="101"/>
         <v>3.7202649366204139</v>
       </c>
       <c r="F1648">
@@ -71260,7 +71260,7 @@
         <v>0</v>
       </c>
       <c r="E1649">
-        <f>LOG(P1649,10)</f>
+        <f t="shared" si="101"/>
         <v>5.2747564346838667</v>
       </c>
       <c r="F1649">
